--- a/data/trans_orig/IP07C15-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP07C15-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B7654D7F-3399-45B3-A28D-6EE6E7C22F15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B90FFC5B-097A-419D-B0D4-A78B1321DCB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{A93984E4-943A-48A3-B473-75235CD65D4C}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{25E2368A-2877-4EA3-8671-7BB649453B7B}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -71,27 +71,204 @@
     <t>0/4</t>
   </si>
   <si>
+    <t>Nunca</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>Casi nunca</t>
+  </si>
+  <si>
     <t>Algunas veces</t>
   </si>
   <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>Casi nunca</t>
-  </si>
-  <si>
     <t>Casi siempre</t>
   </si>
   <si>
-    <t>Nunca</t>
-  </si>
-  <si>
     <t>Siempre</t>
   </si>
   <si>
+    <t>5/9</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>11,76%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>12,28%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>21,17%</t>
+  </si>
+  <si>
+    <t>20,98%</t>
+  </si>
+  <si>
+    <t>12,43%</t>
+  </si>
+  <si>
+    <t>30,88%</t>
+  </si>
+  <si>
+    <t>16,22%</t>
+  </si>
+  <si>
+    <t>11,11%</t>
+  </si>
+  <si>
+    <t>22,88%</t>
+  </si>
+  <si>
+    <t>47,46%</t>
+  </si>
+  <si>
+    <t>37,65%</t>
+  </si>
+  <si>
+    <t>57,44%</t>
+  </si>
+  <si>
+    <t>44,11%</t>
+  </si>
+  <si>
+    <t>32,72%</t>
+  </si>
+  <si>
+    <t>54,07%</t>
+  </si>
+  <si>
+    <t>45,94%</t>
+  </si>
+  <si>
+    <t>38,41%</t>
+  </si>
+  <si>
+    <t>53,47%</t>
+  </si>
+  <si>
+    <t>38,01%</t>
+  </si>
+  <si>
+    <t>28,19%</t>
+  </si>
+  <si>
+    <t>47,53%</t>
+  </si>
+  <si>
+    <t>29,17%</t>
+  </si>
+  <si>
+    <t>18,98%</t>
+  </si>
+  <si>
+    <t>40,39%</t>
+  </si>
+  <si>
+    <t>34,01%</t>
+  </si>
+  <si>
+    <t>26,71%</t>
+  </si>
+  <si>
+    <t>40,91%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
     <t>10/15</t>
   </si>
   <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
     <t>22,42%</t>
   </si>
   <si>
@@ -119,33 +296,6 @@
     <t>22,99%</t>
   </si>
   <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
     <t>42,86%</t>
   </si>
   <si>
@@ -173,27 +323,6 @@
     <t>45,26%</t>
   </si>
   <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
     <t>32,86%</t>
   </si>
   <si>
@@ -221,133 +350,52 @@
     <t>39,03%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>5/9</t>
-  </si>
-  <si>
-    <t>12,28%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>21,17%</t>
-  </si>
-  <si>
-    <t>20,98%</t>
-  </si>
-  <si>
-    <t>12,43%</t>
-  </si>
-  <si>
-    <t>30,88%</t>
-  </si>
-  <si>
-    <t>16,22%</t>
-  </si>
-  <si>
-    <t>11,11%</t>
-  </si>
-  <si>
-    <t>22,88%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>11,76%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>47,46%</t>
-  </si>
-  <si>
-    <t>37,65%</t>
-  </si>
-  <si>
-    <t>57,44%</t>
-  </si>
-  <si>
-    <t>44,11%</t>
-  </si>
-  <si>
-    <t>32,72%</t>
-  </si>
-  <si>
-    <t>54,07%</t>
-  </si>
-  <si>
-    <t>45,94%</t>
-  </si>
-  <si>
-    <t>38,41%</t>
-  </si>
-  <si>
-    <t>53,47%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>38,01%</t>
-  </si>
-  <si>
-    <t>28,19%</t>
-  </si>
-  <si>
-    <t>47,53%</t>
-  </si>
-  <si>
-    <t>29,17%</t>
-  </si>
-  <si>
-    <t>18,98%</t>
-  </si>
-  <si>
-    <t>40,39%</t>
-  </si>
-  <si>
-    <t>34,01%</t>
-  </si>
-  <si>
-    <t>26,71%</t>
-  </si>
-  <si>
-    <t>40,91%</t>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
   </si>
   <si>
     <t>20,48%</t>
@@ -377,33 +425,6 @@
     <t>22,48%</t>
   </si>
   <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
     <t>43,74%</t>
   </si>
   <si>
@@ -431,27 +452,6 @@
     <t>46,2%</t>
   </si>
   <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
     <t>33,85%</t>
   </si>
   <si>
@@ -482,6 +482,153 @@
     <t>Menores según frecuencia de poder hacer lo que se quiera en el tiempo libre en 2012 (Tasa respuesta: 43,69%)</t>
   </si>
   <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>10,06%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>12,78%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>21,47%</t>
+  </si>
+  <si>
+    <t>14,33%</t>
+  </si>
+  <si>
+    <t>8,77%</t>
+  </si>
+  <si>
+    <t>23,14%</t>
+  </si>
+  <si>
+    <t>13,58%</t>
+  </si>
+  <si>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>18,96%</t>
+  </si>
+  <si>
+    <t>43,33%</t>
+  </si>
+  <si>
+    <t>32,96%</t>
+  </si>
+  <si>
+    <t>54,39%</t>
+  </si>
+  <si>
+    <t>44,9%</t>
+  </si>
+  <si>
+    <t>34,43%</t>
+  </si>
+  <si>
+    <t>54,93%</t>
+  </si>
+  <si>
+    <t>37,37%</t>
+  </si>
+  <si>
+    <t>51,56%</t>
+  </si>
+  <si>
+    <t>39,56%</t>
+  </si>
+  <si>
+    <t>29,35%</t>
+  </si>
+  <si>
+    <t>49,91%</t>
+  </si>
+  <si>
+    <t>40,77%</t>
+  </si>
+  <si>
+    <t>31,59%</t>
+  </si>
+  <si>
+    <t>51,1%</t>
+  </si>
+  <si>
+    <t>40,18%</t>
+  </si>
+  <si>
+    <t>32,82%</t>
+  </si>
+  <si>
+    <t>47,23%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
     <t>16,1%</t>
   </si>
   <si>
@@ -509,33 +656,6 @@
     <t>20,85%</t>
   </si>
   <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
     <t>38,37%</t>
   </si>
   <si>
@@ -563,24 +683,6 @@
     <t>40,63%</t>
   </si>
   <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
     <t>43,79%</t>
   </si>
   <si>
@@ -593,9 +695,6 @@
     <t>42,5%</t>
   </si>
   <si>
-    <t>37,37%</t>
-  </si>
-  <si>
     <t>47,56%</t>
   </si>
   <si>
@@ -608,103 +707,49 @@
     <t>47,16%</t>
   </si>
   <si>
-    <t>12,78%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>21,47%</t>
-  </si>
-  <si>
-    <t>14,33%</t>
-  </si>
-  <si>
-    <t>8,77%</t>
-  </si>
-  <si>
-    <t>23,14%</t>
-  </si>
-  <si>
-    <t>13,58%</t>
-  </si>
-  <si>
-    <t>9,4%</t>
-  </si>
-  <si>
-    <t>18,96%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>10,06%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>43,33%</t>
-  </si>
-  <si>
-    <t>32,96%</t>
-  </si>
-  <si>
-    <t>54,39%</t>
-  </si>
-  <si>
-    <t>44,9%</t>
-  </si>
-  <si>
-    <t>34,43%</t>
-  </si>
-  <si>
-    <t>54,93%</t>
-  </si>
-  <si>
-    <t>51,56%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>39,56%</t>
-  </si>
-  <si>
-    <t>29,35%</t>
-  </si>
-  <si>
-    <t>49,91%</t>
-  </si>
-  <si>
-    <t>40,77%</t>
-  </si>
-  <si>
-    <t>31,59%</t>
-  </si>
-  <si>
-    <t>51,1%</t>
-  </si>
-  <si>
-    <t>40,18%</t>
-  </si>
-  <si>
-    <t>32,82%</t>
-  </si>
-  <si>
-    <t>47,23%</t>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
   </si>
   <si>
     <t>15,43%</t>
@@ -734,33 +779,6 @@
     <t>19,69%</t>
   </si>
   <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
     <t>39,37%</t>
   </si>
   <si>
@@ -788,24 +806,6 @@
     <t>41,83%</t>
   </si>
   <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
     <t>42,94%</t>
   </si>
   <si>
@@ -836,6 +836,147 @@
     <t>Menores según frecuencia de poder hacer lo que se quiera en el tiempo libre en 2015 (Tasa respuesta: 45,63%)</t>
   </si>
   <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>16,81%</t>
+  </si>
+  <si>
+    <t>11,01%</t>
+  </si>
+  <si>
+    <t>24,97%</t>
+  </si>
+  <si>
+    <t>15,65%</t>
+  </si>
+  <si>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>22,73%</t>
+  </si>
+  <si>
+    <t>16,19%</t>
+  </si>
+  <si>
+    <t>11,24%</t>
+  </si>
+  <si>
+    <t>21,16%</t>
+  </si>
+  <si>
+    <t>41,35%</t>
+  </si>
+  <si>
+    <t>32,52%</t>
+  </si>
+  <si>
+    <t>50,89%</t>
+  </si>
+  <si>
+    <t>46,34%</t>
+  </si>
+  <si>
+    <t>37,92%</t>
+  </si>
+  <si>
+    <t>56,47%</t>
+  </si>
+  <si>
+    <t>44,03%</t>
+  </si>
+  <si>
+    <t>37,77%</t>
+  </si>
+  <si>
+    <t>50,35%</t>
+  </si>
+  <si>
+    <t>39,83%</t>
+  </si>
+  <si>
+    <t>31,19%</t>
+  </si>
+  <si>
+    <t>50,1%</t>
+  </si>
+  <si>
+    <t>37,35%</t>
+  </si>
+  <si>
+    <t>28,36%</t>
+  </si>
+  <si>
+    <t>45,24%</t>
+  </si>
+  <si>
+    <t>38,49%</t>
+  </si>
+  <si>
+    <t>32,67%</t>
+  </si>
+  <si>
+    <t>45,23%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
     <t>12,94%</t>
   </si>
   <si>
@@ -863,30 +1004,6 @@
     <t>18,34%</t>
   </si>
   <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
     <t>49,4%</t>
   </si>
   <si>
@@ -911,33 +1028,12 @@
     <t>51,24%</t>
   </si>
   <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
     <t>35,01%</t>
   </si>
   <si>
     <t>29,77%</t>
   </si>
   <si>
-    <t>39,83%</t>
-  </si>
-  <si>
     <t>33,17%</t>
   </si>
   <si>
@@ -953,100 +1049,49 @@
     <t>38,03%</t>
   </si>
   <si>
-    <t>16,81%</t>
-  </si>
-  <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>24,97%</t>
-  </si>
-  <si>
-    <t>15,65%</t>
-  </si>
-  <si>
-    <t>10,12%</t>
-  </si>
-  <si>
-    <t>22,73%</t>
-  </si>
-  <si>
-    <t>16,19%</t>
-  </si>
-  <si>
-    <t>11,24%</t>
-  </si>
-  <si>
-    <t>21,16%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>41,35%</t>
-  </si>
-  <si>
-    <t>32,52%</t>
-  </si>
-  <si>
-    <t>50,89%</t>
-  </si>
-  <si>
-    <t>46,34%</t>
-  </si>
-  <si>
-    <t>37,92%</t>
-  </si>
-  <si>
-    <t>56,47%</t>
-  </si>
-  <si>
-    <t>44,03%</t>
-  </si>
-  <si>
-    <t>37,77%</t>
-  </si>
-  <si>
-    <t>50,35%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>31,19%</t>
-  </si>
-  <si>
-    <t>50,1%</t>
-  </si>
-  <si>
-    <t>37,35%</t>
-  </si>
-  <si>
-    <t>28,36%</t>
-  </si>
-  <si>
-    <t>45,24%</t>
-  </si>
-  <si>
-    <t>38,49%</t>
-  </si>
-  <si>
-    <t>32,67%</t>
-  </si>
-  <si>
-    <t>45,23%</t>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
   </si>
   <si>
     <t>13,78%</t>
@@ -1076,33 +1121,6 @@
     <t>18,16%</t>
   </si>
   <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
     <t>47,66%</t>
   </si>
   <si>
@@ -1130,24 +1148,6 @@
     <t>50,19%</t>
   </si>
   <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
     <t>36,05%</t>
   </si>
   <si>
@@ -1172,6 +1172,120 @@
     <t>Menores según frecuencia de poder hacer lo que se quiera en el tiempo libre en 2023 (Tasa respuesta: 30,05%)</t>
   </si>
   <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>14,1%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>27,28%</t>
+  </si>
+  <si>
+    <t>8,87%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>24,69%</t>
+  </si>
+  <si>
+    <t>11,74%</t>
+  </si>
+  <si>
+    <t>20,08%</t>
+  </si>
+  <si>
+    <t>32,06%</t>
+  </si>
+  <si>
+    <t>19,72%</t>
+  </si>
+  <si>
+    <t>46,4%</t>
+  </si>
+  <si>
+    <t>51,39%</t>
+  </si>
+  <si>
+    <t>36,58%</t>
+  </si>
+  <si>
+    <t>67,05%</t>
+  </si>
+  <si>
+    <t>40,78%</t>
+  </si>
+  <si>
+    <t>30,04%</t>
+  </si>
+  <si>
+    <t>51,02%</t>
+  </si>
+  <si>
+    <t>53,84%</t>
+  </si>
+  <si>
+    <t>38,93%</t>
+  </si>
+  <si>
+    <t>67,17%</t>
+  </si>
+  <si>
+    <t>39,74%</t>
+  </si>
+  <si>
+    <t>26,13%</t>
+  </si>
+  <si>
+    <t>56,32%</t>
+  </si>
+  <si>
+    <t>47,48%</t>
+  </si>
+  <si>
+    <t>38,06%</t>
+  </si>
+  <si>
+    <t>59,02%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
     <t>12,02%</t>
   </si>
   <si>
@@ -1199,30 +1313,6 @@
     <t>16,27%</t>
   </si>
   <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
     <t>40,4%</t>
   </si>
   <si>
@@ -1250,15 +1340,6 @@
     <t>49,65%</t>
   </si>
   <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
     <t>45,17%</t>
   </si>
   <si>
@@ -1286,85 +1367,31 @@
     <t>47,25%</t>
   </si>
   <si>
-    <t>14,1%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>27,28%</t>
-  </si>
-  <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>24,69%</t>
-  </si>
-  <si>
-    <t>11,74%</t>
-  </si>
-  <si>
-    <t>20,08%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>32,06%</t>
-  </si>
-  <si>
-    <t>19,72%</t>
-  </si>
-  <si>
-    <t>46,4%</t>
-  </si>
-  <si>
-    <t>51,39%</t>
-  </si>
-  <si>
-    <t>36,58%</t>
-  </si>
-  <si>
-    <t>67,05%</t>
-  </si>
-  <si>
-    <t>40,78%</t>
-  </si>
-  <si>
-    <t>30,04%</t>
-  </si>
-  <si>
-    <t>51,02%</t>
-  </si>
-  <si>
-    <t>53,84%</t>
-  </si>
-  <si>
-    <t>38,93%</t>
-  </si>
-  <si>
-    <t>67,17%</t>
-  </si>
-  <si>
-    <t>39,74%</t>
-  </si>
-  <si>
-    <t>26,13%</t>
-  </si>
-  <si>
-    <t>56,32%</t>
-  </si>
-  <si>
-    <t>47,48%</t>
-  </si>
-  <si>
-    <t>38,06%</t>
-  </si>
-  <si>
-    <t>59,02%</t>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
   </si>
   <si>
     <t>12,34%</t>
@@ -1394,21 +1421,6 @@
     <t>16,0%</t>
   </si>
   <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
     <t>39,11%</t>
   </si>
   <si>
@@ -1434,18 +1446,6 @@
   </si>
   <si>
     <t>48,92%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
   </si>
   <si>
     <t>46,52%</t>
@@ -1861,7 +1861,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67681B01-519C-4DC3-B0DD-6A3DDBE4B4E3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92BB78F3-1C0B-486A-98C6-ED300C029446}">
   <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2251,10 +2251,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>84</v>
+        <v>1</v>
       </c>
       <c r="D10" s="7">
-        <v>56154</v>
+        <v>649</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>17</v>
@@ -2266,34 +2266,34 @@
         <v>19</v>
       </c>
       <c r="H10" s="7">
-        <v>64</v>
+        <v>1</v>
       </c>
       <c r="I10" s="7">
-        <v>43711</v>
+        <v>671</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>20</v>
       </c>
       <c r="K10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="L10" s="7" t="s">
+      <c r="M10" s="7">
+        <v>2</v>
+      </c>
+      <c r="N10" s="7">
+        <v>1320</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="M10" s="7">
-        <v>148</v>
-      </c>
-      <c r="N10" s="7">
-        <v>99865</v>
-      </c>
-      <c r="O10" s="7" t="s">
+      <c r="P10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>23</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2302,49 +2302,49 @@
         <v>12</v>
       </c>
       <c r="C11" s="7">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D11" s="7">
-        <v>4650</v>
+        <v>685</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H11" s="7">
+        <v>3</v>
+      </c>
+      <c r="I11" s="7">
+        <v>2133</v>
+      </c>
+      <c r="J11" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="K11" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="H11" s="7">
-        <v>7</v>
-      </c>
-      <c r="I11" s="7">
-        <v>4705</v>
-      </c>
-      <c r="J11" s="7" t="s">
+      <c r="M11" s="7">
+        <v>4</v>
+      </c>
+      <c r="N11" s="7">
+        <v>2819</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="P11" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="L11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>31</v>
-      </c>
-      <c r="M11" s="7">
-        <v>14</v>
-      </c>
-      <c r="N11" s="7">
-        <v>9355</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2353,49 +2353,49 @@
         <v>13</v>
       </c>
       <c r="C12" s="7">
-        <v>162</v>
+        <v>11</v>
       </c>
       <c r="D12" s="7">
-        <v>107376</v>
+        <v>7251</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="H12" s="7">
+        <v>15</v>
+      </c>
+      <c r="I12" s="7">
+        <v>10254</v>
+      </c>
+      <c r="J12" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="K12" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="G12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="H12" s="7">
-        <v>146</v>
-      </c>
-      <c r="I12" s="7">
-        <v>98040</v>
-      </c>
-      <c r="J12" s="7" t="s">
+      <c r="M12" s="7">
+        <v>26</v>
+      </c>
+      <c r="N12" s="7">
+        <v>17506</v>
+      </c>
+      <c r="O12" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="P12" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="L12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>40</v>
-      </c>
-      <c r="M12" s="7">
-        <v>308</v>
-      </c>
-      <c r="N12" s="7">
-        <v>205416</v>
-      </c>
-      <c r="O12" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2404,49 +2404,49 @@
         <v>14</v>
       </c>
       <c r="C13" s="7">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="D13" s="7">
-        <v>0</v>
+        <v>28033</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="H13" s="7">
+        <v>33</v>
+      </c>
+      <c r="I13" s="7">
+        <v>21564</v>
+      </c>
+      <c r="J13" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="K13" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="H13" s="7">
-        <v>2</v>
-      </c>
-      <c r="I13" s="7">
-        <v>1420</v>
-      </c>
-      <c r="J13" s="7" t="s">
+      <c r="M13" s="7">
+        <v>75</v>
+      </c>
+      <c r="N13" s="7">
+        <v>49597</v>
+      </c>
+      <c r="O13" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="K13" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="L13" s="7" t="s">
+      <c r="P13" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="M13" s="7">
-        <v>2</v>
-      </c>
-      <c r="N13" s="7">
-        <v>1420</v>
-      </c>
-      <c r="O13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>49</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2455,49 +2455,49 @@
         <v>15</v>
       </c>
       <c r="C14" s="7">
-        <v>123</v>
+        <v>35</v>
       </c>
       <c r="D14" s="7">
-        <v>82330</v>
+        <v>22450</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="H14" s="7">
+        <v>21</v>
+      </c>
+      <c r="I14" s="7">
+        <v>14260</v>
+      </c>
+      <c r="J14" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="H14" s="7">
-        <v>140</v>
-      </c>
-      <c r="I14" s="7">
-        <v>93888</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="K14" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="L14" s="7" t="s">
+      <c r="M14" s="7">
         <v>56</v>
       </c>
-      <c r="M14" s="7">
-        <v>263</v>
-      </c>
       <c r="N14" s="7">
-        <v>176218</v>
+        <v>36709</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2506,102 +2506,102 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>376</v>
+        <v>90</v>
       </c>
       <c r="D15" s="7">
-        <v>250510</v>
+        <v>59069</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H15" s="7">
-        <v>359</v>
+        <v>73</v>
       </c>
       <c r="I15" s="7">
-        <v>241764</v>
+        <v>48882</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M15" s="7">
-        <v>735</v>
+        <v>163</v>
       </c>
       <c r="N15" s="7">
-        <v>492273</v>
+        <v>107951</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="D16" s="7">
-        <v>7251</v>
+        <v>0</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="H16" s="7">
+        <v>2</v>
+      </c>
+      <c r="I16" s="7">
+        <v>1420</v>
+      </c>
+      <c r="J16" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="K16" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="H16" s="7">
-        <v>15</v>
-      </c>
-      <c r="I16" s="7">
-        <v>10254</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>2</v>
+      </c>
+      <c r="N16" s="7">
+        <v>1420</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="P16" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="M16" s="7">
-        <v>26</v>
-      </c>
-      <c r="N16" s="7">
-        <v>17506</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2610,49 +2610,49 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D17" s="7">
-        <v>685</v>
+        <v>4650</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="H17" s="7">
+        <v>7</v>
+      </c>
+      <c r="I17" s="7">
+        <v>4705</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="F17" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="G17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="H17" s="7">
-        <v>3</v>
-      </c>
-      <c r="I17" s="7">
-        <v>2133</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="M17" s="7">
+        <v>14</v>
+      </c>
+      <c r="N17" s="7">
+        <v>9355</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="P17" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="L17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="M17" s="7">
-        <v>4</v>
-      </c>
-      <c r="N17" s="7">
-        <v>2819</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2661,49 +2661,49 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
-        <v>42</v>
+        <v>84</v>
       </c>
       <c r="D18" s="7">
-        <v>28033</v>
+        <v>56154</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="H18" s="7">
+        <v>64</v>
+      </c>
+      <c r="I18" s="7">
+        <v>43711</v>
+      </c>
+      <c r="J18" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="K18" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="G18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="H18" s="7">
-        <v>33</v>
-      </c>
-      <c r="I18" s="7">
-        <v>21564</v>
-      </c>
-      <c r="J18" s="7" t="s">
+      <c r="M18" s="7">
+        <v>148</v>
+      </c>
+      <c r="N18" s="7">
+        <v>99865</v>
+      </c>
+      <c r="O18" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="P18" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="L18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="M18" s="7">
-        <v>75</v>
-      </c>
-      <c r="N18" s="7">
-        <v>49597</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2712,46 +2712,46 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
-        <v>1</v>
+        <v>162</v>
       </c>
       <c r="D19" s="7">
-        <v>649</v>
+        <v>107376</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="H19" s="7">
+        <v>146</v>
+      </c>
+      <c r="I19" s="7">
+        <v>98040</v>
+      </c>
+      <c r="J19" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="F19" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="G19" s="7" t="s">
+      <c r="K19" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="H19" s="7">
-        <v>1</v>
-      </c>
-      <c r="I19" s="7">
-        <v>671</v>
-      </c>
-      <c r="J19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="K19" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="L19" s="7" t="s">
+      <c r="M19" s="7">
+        <v>308</v>
+      </c>
+      <c r="N19" s="7">
+        <v>205416</v>
+      </c>
+      <c r="O19" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="M19" s="7">
-        <v>2</v>
-      </c>
-      <c r="N19" s="7">
-        <v>1320</v>
-      </c>
-      <c r="O19" s="7" t="s">
+      <c r="P19" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>44</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>93</v>
@@ -2763,10 +2763,10 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
-        <v>35</v>
+        <v>123</v>
       </c>
       <c r="D20" s="7">
-        <v>22450</v>
+        <v>82330</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>94</v>
@@ -2778,10 +2778,10 @@
         <v>96</v>
       </c>
       <c r="H20" s="7">
-        <v>21</v>
+        <v>140</v>
       </c>
       <c r="I20" s="7">
-        <v>14260</v>
+        <v>93888</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>97</v>
@@ -2793,10 +2793,10 @@
         <v>99</v>
       </c>
       <c r="M20" s="7">
-        <v>56</v>
+        <v>263</v>
       </c>
       <c r="N20" s="7">
-        <v>36709</v>
+        <v>176218</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>100</v>
@@ -2814,49 +2814,49 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>90</v>
+        <v>376</v>
       </c>
       <c r="D21" s="7">
-        <v>59069</v>
+        <v>250510</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H21" s="7">
-        <v>73</v>
+        <v>359</v>
       </c>
       <c r="I21" s="7">
-        <v>48882</v>
+        <v>241764</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M21" s="7">
-        <v>163</v>
+        <v>735</v>
       </c>
       <c r="N21" s="7">
-        <v>107951</v>
+        <v>492273</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2867,49 +2867,49 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>95</v>
+        <v>1</v>
       </c>
       <c r="D22" s="7">
-        <v>63405</v>
+        <v>649</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>103</v>
       </c>
       <c r="F22" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="G22" s="7" t="s">
+      <c r="H22" s="7">
+        <v>3</v>
+      </c>
+      <c r="I22" s="7">
+        <v>2091</v>
+      </c>
+      <c r="J22" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="H22" s="7">
-        <v>79</v>
-      </c>
-      <c r="I22" s="7">
-        <v>53965</v>
-      </c>
-      <c r="J22" s="7" t="s">
+      <c r="K22" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="L22" s="7" t="s">
+      <c r="M22" s="7">
+        <v>4</v>
+      </c>
+      <c r="N22" s="7">
+        <v>2740</v>
+      </c>
+      <c r="O22" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="M22" s="7">
-        <v>174</v>
-      </c>
-      <c r="N22" s="7">
-        <v>117370</v>
-      </c>
-      <c r="O22" s="7" t="s">
+      <c r="P22" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="P22" s="7" t="s">
-        <v>110</v>
-      </c>
       <c r="Q22" s="7" t="s">
-        <v>111</v>
+        <v>74</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2924,13 +2924,13 @@
         <v>5335</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>114</v>
       </c>
       <c r="H23" s="7">
         <v>10</v>
@@ -2939,13 +2939,13 @@
         <v>6838</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="M23" s="7">
         <v>18</v>
@@ -2954,13 +2954,13 @@
         <v>12173</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2969,49 +2969,49 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
-        <v>204</v>
+        <v>95</v>
       </c>
       <c r="D24" s="7">
-        <v>135409</v>
+        <v>63405</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="H24" s="7">
+        <v>79</v>
+      </c>
+      <c r="I24" s="7">
+        <v>53965</v>
+      </c>
+      <c r="J24" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="G24" s="7" t="s">
+      <c r="K24" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="H24" s="7">
-        <v>179</v>
-      </c>
-      <c r="I24" s="7">
-        <v>119604</v>
-      </c>
-      <c r="J24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="M24" s="7">
+        <v>174</v>
+      </c>
+      <c r="N24" s="7">
+        <v>117370</v>
+      </c>
+      <c r="O24" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="L24" s="7" t="s">
+      <c r="P24" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="M24" s="7">
-        <v>383</v>
-      </c>
-      <c r="N24" s="7">
-        <v>255014</v>
-      </c>
-      <c r="O24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3020,49 +3020,49 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
-        <v>1</v>
+        <v>204</v>
       </c>
       <c r="D25" s="7">
-        <v>649</v>
+        <v>135409</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="F25" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="G25" s="7" t="s">
+      <c r="H25" s="7">
+        <v>179</v>
+      </c>
+      <c r="I25" s="7">
+        <v>119604</v>
+      </c>
+      <c r="J25" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="H25" s="7">
-        <v>3</v>
-      </c>
-      <c r="I25" s="7">
-        <v>2091</v>
-      </c>
-      <c r="J25" s="7" t="s">
+      <c r="K25" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="L25" s="7" t="s">
+      <c r="M25" s="7">
+        <v>383</v>
+      </c>
+      <c r="N25" s="7">
+        <v>255014</v>
+      </c>
+      <c r="O25" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="M25" s="7">
-        <v>4</v>
-      </c>
-      <c r="N25" s="7">
-        <v>2740</v>
-      </c>
-      <c r="O25" s="7" t="s">
+      <c r="P25" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3128,13 +3128,13 @@
         <v>309578</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H27" s="7">
         <v>432</v>
@@ -3143,13 +3143,13 @@
         <v>290646</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M27" s="7">
         <v>898</v>
@@ -3158,13 +3158,13 @@
         <v>600224</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -3183,7 +3183,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B2F996C-64D0-4C02-BEBF-2D0029EC496F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBA287A5-AEE7-438C-9829-B3573EB9B256}">
   <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3573,49 +3573,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="D10" s="7">
-        <v>41847</v>
+        <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="H10" s="7">
+        <v>0</v>
+      </c>
+      <c r="I10" s="7">
+        <v>0</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="M10" s="7">
+        <v>0</v>
+      </c>
+      <c r="N10" s="7">
+        <v>0</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="H10" s="7">
-        <v>69</v>
-      </c>
-      <c r="I10" s="7">
-        <v>48518</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="M10" s="7">
-        <v>132</v>
-      </c>
-      <c r="N10" s="7">
-        <v>90365</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3624,49 +3624,49 @@
         <v>12</v>
       </c>
       <c r="C11" s="7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D11" s="7">
-        <v>3191</v>
+        <v>2825</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>157</v>
+        <v>74</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="H11" s="7">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I11" s="7">
-        <v>4214</v>
+        <v>0</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>159</v>
+        <v>18</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>160</v>
+        <v>61</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>161</v>
+        <v>148</v>
       </c>
       <c r="M11" s="7">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="N11" s="7">
-        <v>7406</v>
+        <v>2825</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3675,49 +3675,49 @@
         <v>13</v>
       </c>
       <c r="C12" s="7">
-        <v>145</v>
+        <v>12</v>
       </c>
       <c r="D12" s="7">
-        <v>99728</v>
+        <v>8338</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="H12" s="7">
-        <v>123</v>
+        <v>14</v>
       </c>
       <c r="I12" s="7">
-        <v>86207</v>
+        <v>9941</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="M12" s="7">
-        <v>268</v>
+        <v>26</v>
       </c>
       <c r="N12" s="7">
-        <v>185935</v>
+        <v>18279</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3726,49 +3726,49 @@
         <v>14</v>
       </c>
       <c r="C13" s="7">
-        <v>2</v>
+        <v>39</v>
       </c>
       <c r="D13" s="7">
-        <v>1321</v>
+        <v>28275</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>46</v>
+        <v>164</v>
       </c>
       <c r="F13" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="H13" s="7">
         <v>44</v>
       </c>
-      <c r="G13" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="H13" s="7">
-        <v>1</v>
-      </c>
       <c r="I13" s="7">
-        <v>678</v>
+        <v>31145</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>44</v>
+        <v>168</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="M13" s="7">
-        <v>3</v>
+        <v>83</v>
       </c>
       <c r="N13" s="7">
-        <v>1999</v>
+        <v>59421</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>177</v>
+        <v>99</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3777,49 +3777,49 @@
         <v>15</v>
       </c>
       <c r="C14" s="7">
-        <v>167</v>
+        <v>36</v>
       </c>
       <c r="D14" s="7">
-        <v>113817</v>
+        <v>25812</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="H14" s="7">
+        <v>40</v>
+      </c>
+      <c r="I14" s="7">
+        <v>28282</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="M14" s="7">
+        <v>76</v>
+      </c>
+      <c r="N14" s="7">
+        <v>54094</v>
+      </c>
+      <c r="O14" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="H14" s="7">
-        <v>147</v>
-      </c>
-      <c r="I14" s="7">
-        <v>103188</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="M14" s="7">
-        <v>314</v>
-      </c>
-      <c r="N14" s="7">
-        <v>217005</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3828,102 +3828,102 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>382</v>
+        <v>91</v>
       </c>
       <c r="D15" s="7">
-        <v>259904</v>
+        <v>65250</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H15" s="7">
-        <v>346</v>
+        <v>98</v>
       </c>
       <c r="I15" s="7">
-        <v>242806</v>
+        <v>69368</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M15" s="7">
-        <v>728</v>
+        <v>189</v>
       </c>
       <c r="N15" s="7">
-        <v>502710</v>
+        <v>134619</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D16" s="7">
-        <v>8338</v>
+        <v>1321</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>189</v>
+        <v>62</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>190</v>
+        <v>18</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="H16" s="7">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="I16" s="7">
-        <v>9941</v>
+        <v>678</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>193</v>
+        <v>18</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="M16" s="7">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="N16" s="7">
-        <v>18279</v>
+        <v>1999</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3932,49 +3932,49 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D17" s="7">
-        <v>2825</v>
+        <v>3191</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>198</v>
+        <v>187</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>33</v>
+        <v>188</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="H17" s="7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I17" s="7">
-        <v>0</v>
+        <v>4214</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>44</v>
+        <v>190</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>45</v>
+        <v>191</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="M17" s="7">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="N17" s="7">
-        <v>2825</v>
+        <v>7406</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3983,49 +3983,49 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
-        <v>39</v>
+        <v>63</v>
       </c>
       <c r="D18" s="7">
-        <v>28275</v>
+        <v>41847</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="H18" s="7">
+        <v>69</v>
+      </c>
+      <c r="I18" s="7">
+        <v>48518</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="M18" s="7">
+        <v>132</v>
+      </c>
+      <c r="N18" s="7">
+        <v>90365</v>
+      </c>
+      <c r="O18" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>204</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="H18" s="7">
-        <v>44</v>
-      </c>
-      <c r="I18" s="7">
-        <v>31145</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="M18" s="7">
-        <v>83</v>
-      </c>
-      <c r="N18" s="7">
-        <v>59421</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4034,49 +4034,49 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
-        <v>0</v>
+        <v>145</v>
       </c>
       <c r="D19" s="7">
-        <v>0</v>
+        <v>99728</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>44</v>
+        <v>205</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>45</v>
+        <v>206</v>
       </c>
       <c r="G19" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="H19" s="7">
+        <v>123</v>
+      </c>
+      <c r="I19" s="7">
+        <v>86207</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="L19" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="M19" s="7">
+        <v>268</v>
+      </c>
+      <c r="N19" s="7">
+        <v>185935</v>
+      </c>
+      <c r="O19" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="H19" s="7">
-        <v>0</v>
-      </c>
-      <c r="I19" s="7">
-        <v>0</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="M19" s="7">
-        <v>0</v>
-      </c>
-      <c r="N19" s="7">
-        <v>0</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>44</v>
-      </c>
       <c r="P19" s="7" t="s">
-        <v>45</v>
+        <v>212</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4085,40 +4085,40 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
-        <v>36</v>
+        <v>167</v>
       </c>
       <c r="D20" s="7">
-        <v>25812</v>
+        <v>113817</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H20" s="7">
-        <v>40</v>
+        <v>147</v>
       </c>
       <c r="I20" s="7">
-        <v>28282</v>
+        <v>103188</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>217</v>
+        <v>170</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>218</v>
       </c>
       <c r="M20" s="7">
-        <v>76</v>
+        <v>314</v>
       </c>
       <c r="N20" s="7">
-        <v>54094</v>
+        <v>217005</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>219</v>
@@ -4136,49 +4136,49 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>91</v>
+        <v>382</v>
       </c>
       <c r="D21" s="7">
-        <v>65250</v>
+        <v>259904</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H21" s="7">
-        <v>98</v>
+        <v>346</v>
       </c>
       <c r="I21" s="7">
-        <v>69368</v>
+        <v>242806</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M21" s="7">
-        <v>189</v>
+        <v>728</v>
       </c>
       <c r="N21" s="7">
-        <v>134619</v>
+        <v>502710</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4189,49 +4189,49 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>75</v>
+        <v>2</v>
       </c>
       <c r="D22" s="7">
-        <v>50186</v>
+        <v>1321</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>222</v>
       </c>
       <c r="F22" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="G22" s="7" t="s">
+      <c r="H22" s="7">
+        <v>1</v>
+      </c>
+      <c r="I22" s="7">
+        <v>678</v>
+      </c>
+      <c r="J22" s="7" t="s">
         <v>224</v>
       </c>
-      <c r="H22" s="7">
-        <v>83</v>
-      </c>
-      <c r="I22" s="7">
-        <v>58459</v>
-      </c>
-      <c r="J22" s="7" t="s">
+      <c r="K22" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="M22" s="7">
+        <v>3</v>
+      </c>
+      <c r="N22" s="7">
+        <v>1999</v>
+      </c>
+      <c r="O22" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="L22" s="7" t="s">
+      <c r="P22" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="M22" s="7">
-        <v>158</v>
-      </c>
-      <c r="N22" s="7">
-        <v>108645</v>
-      </c>
-      <c r="O22" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>229</v>
-      </c>
       <c r="Q22" s="7" t="s">
-        <v>230</v>
+        <v>111</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4246,13 +4246,13 @@
         <v>6016</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="H23" s="7">
         <v>6</v>
@@ -4261,13 +4261,13 @@
         <v>4214</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="M23" s="7">
         <v>15</v>
@@ -4276,13 +4276,13 @@
         <v>10231</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4291,49 +4291,49 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
-        <v>184</v>
+        <v>75</v>
       </c>
       <c r="D24" s="7">
-        <v>128004</v>
+        <v>50186</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="H24" s="7">
+        <v>83</v>
+      </c>
+      <c r="I24" s="7">
+        <v>58459</v>
+      </c>
+      <c r="J24" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="K24" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="G24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="H24" s="7">
-        <v>167</v>
-      </c>
-      <c r="I24" s="7">
-        <v>117353</v>
-      </c>
-      <c r="J24" s="7" t="s">
+      <c r="M24" s="7">
+        <v>158</v>
+      </c>
+      <c r="N24" s="7">
+        <v>108645</v>
+      </c>
+      <c r="O24" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="P24" s="7" t="s">
         <v>244</v>
       </c>
-      <c r="L24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>245</v>
-      </c>
-      <c r="M24" s="7">
-        <v>351</v>
-      </c>
-      <c r="N24" s="7">
-        <v>245356</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4342,49 +4342,49 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
-        <v>2</v>
+        <v>184</v>
       </c>
       <c r="D25" s="7">
-        <v>1321</v>
+        <v>128004</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="H25" s="7">
+        <v>167</v>
+      </c>
+      <c r="I25" s="7">
+        <v>117353</v>
+      </c>
+      <c r="J25" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="F25" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="G25" s="7" t="s">
+      <c r="K25" s="7" t="s">
         <v>250</v>
       </c>
-      <c r="H25" s="7">
-        <v>1</v>
-      </c>
-      <c r="I25" s="7">
-        <v>678</v>
-      </c>
-      <c r="J25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="K25" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="L25" s="7" t="s">
+      <c r="M25" s="7">
+        <v>351</v>
+      </c>
+      <c r="N25" s="7">
+        <v>245356</v>
+      </c>
+      <c r="O25" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="M25" s="7">
-        <v>3</v>
-      </c>
-      <c r="N25" s="7">
-        <v>1999</v>
-      </c>
-      <c r="O25" s="7" t="s">
+      <c r="P25" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>254</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4450,13 +4450,13 @@
         <v>325155</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H27" s="7">
         <v>444</v>
@@ -4465,13 +4465,13 @@
         <v>312174</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M27" s="7">
         <v>917</v>
@@ -4480,13 +4480,13 @@
         <v>637329</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -4505,7 +4505,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73B3014B-A994-4D99-9D92-4C61512BE82C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{857CE520-3291-45C2-AC76-FA7C04F7E2ED}">
   <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4895,49 +4895,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="D10" s="7">
-        <v>35208</v>
+        <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="H10" s="7">
+        <v>0</v>
+      </c>
+      <c r="I10" s="7">
+        <v>0</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="M10" s="7">
+        <v>0</v>
+      </c>
+      <c r="N10" s="7">
+        <v>0</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>266</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="H10" s="7">
-        <v>65</v>
-      </c>
-      <c r="I10" s="7">
-        <v>47223</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="M10" s="7">
-        <v>113</v>
-      </c>
-      <c r="N10" s="7">
-        <v>82431</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4946,49 +4946,49 @@
         <v>12</v>
       </c>
       <c r="C11" s="7">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D11" s="7">
-        <v>7207</v>
+        <v>1518</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>275</v>
+        <v>18</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="H11" s="7">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I11" s="7">
-        <v>3382</v>
+        <v>573</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>278</v>
+        <v>18</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="M11" s="7">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="N11" s="7">
-        <v>10589</v>
+        <v>2090</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>280</v>
+        <v>117</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>88</v>
+        <v>271</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4997,49 +4997,49 @@
         <v>13</v>
       </c>
       <c r="C12" s="7">
-        <v>183</v>
+        <v>18</v>
       </c>
       <c r="D12" s="7">
-        <v>134388</v>
+        <v>12640</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="H12" s="7">
-        <v>166</v>
+        <v>20</v>
       </c>
       <c r="I12" s="7">
-        <v>120179</v>
+        <v>13626</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="M12" s="7">
-        <v>349</v>
+        <v>38</v>
       </c>
       <c r="N12" s="7">
-        <v>254567</v>
+        <v>26266</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>37</v>
+        <v>279</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5048,49 +5048,49 @@
         <v>14</v>
       </c>
       <c r="C13" s="7">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="D13" s="7">
-        <v>0</v>
+        <v>31102</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>44</v>
+        <v>282</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>45</v>
+        <v>283</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>235</v>
+        <v>284</v>
       </c>
       <c r="H13" s="7">
-        <v>3</v>
+        <v>62</v>
       </c>
       <c r="I13" s="7">
-        <v>2067</v>
+        <v>40345</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="M13" s="7">
+        <v>107</v>
+      </c>
+      <c r="N13" s="7">
+        <v>71447</v>
+      </c>
+      <c r="O13" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>290</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="M13" s="7">
-        <v>3</v>
-      </c>
-      <c r="N13" s="7">
-        <v>2067</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>293</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>294</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5099,49 +5099,49 @@
         <v>15</v>
       </c>
       <c r="C14" s="7">
-        <v>128</v>
+        <v>44</v>
       </c>
       <c r="D14" s="7">
-        <v>95246</v>
+        <v>29954</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="H14" s="7">
+        <v>48</v>
+      </c>
+      <c r="I14" s="7">
+        <v>32511</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>296</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="M14" s="7">
+        <v>92</v>
+      </c>
+      <c r="N14" s="7">
+        <v>62465</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>297</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="P14" s="7" t="s">
         <v>298</v>
       </c>
-      <c r="H14" s="7">
-        <v>123</v>
-      </c>
-      <c r="I14" s="7">
-        <v>85788</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>299</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>300</v>
-      </c>
-      <c r="M14" s="7">
-        <v>251</v>
-      </c>
-      <c r="N14" s="7">
-        <v>181034</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>301</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>302</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>303</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5150,102 +5150,102 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>368</v>
+        <v>109</v>
       </c>
       <c r="D15" s="7">
-        <v>272049</v>
+        <v>75213</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H15" s="7">
-        <v>362</v>
+        <v>131</v>
       </c>
       <c r="I15" s="7">
-        <v>258639</v>
+        <v>87055</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M15" s="7">
-        <v>730</v>
+        <v>240</v>
       </c>
       <c r="N15" s="7">
-        <v>530688</v>
+        <v>162268</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>0</v>
+      </c>
+      <c r="D16" s="7">
+        <v>0</v>
+      </c>
+      <c r="E16" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D16" s="7">
-        <v>12640</v>
-      </c>
-      <c r="E16" s="7" t="s">
+      <c r="F16" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="H16" s="7">
+        <v>3</v>
+      </c>
+      <c r="I16" s="7">
+        <v>2067</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="M16" s="7">
+        <v>3</v>
+      </c>
+      <c r="N16" s="7">
+        <v>2067</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>304</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>305</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="H16" s="7">
-        <v>20</v>
-      </c>
-      <c r="I16" s="7">
-        <v>13626</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>307</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>308</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>309</v>
-      </c>
-      <c r="M16" s="7">
-        <v>38</v>
-      </c>
-      <c r="N16" s="7">
-        <v>26266</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>310</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>311</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>312</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5254,49 +5254,49 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D17" s="7">
-        <v>1518</v>
+        <v>7207</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>44</v>
+        <v>306</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="H17" s="7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I17" s="7">
-        <v>573</v>
+        <v>3382</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>44</v>
+        <v>309</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>281</v>
+        <v>310</v>
       </c>
       <c r="M17" s="7">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="N17" s="7">
-        <v>2090</v>
+        <v>10589</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>119</v>
+        <v>311</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>316</v>
+        <v>17</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>317</v>
+        <v>270</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5305,49 +5305,49 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D18" s="7">
-        <v>31102</v>
+        <v>35208</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="H18" s="7">
+        <v>65</v>
+      </c>
+      <c r="I18" s="7">
+        <v>47223</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="M18" s="7">
+        <v>113</v>
+      </c>
+      <c r="N18" s="7">
+        <v>82431</v>
+      </c>
+      <c r="O18" s="7" t="s">
         <v>318</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="P18" s="7" t="s">
         <v>319</v>
       </c>
-      <c r="G18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>320</v>
-      </c>
-      <c r="H18" s="7">
-        <v>62</v>
-      </c>
-      <c r="I18" s="7">
-        <v>40345</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>321</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="M18" s="7">
-        <v>107</v>
-      </c>
-      <c r="N18" s="7">
-        <v>71447</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>325</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5356,49 +5356,49 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
-        <v>0</v>
+        <v>183</v>
       </c>
       <c r="D19" s="7">
-        <v>0</v>
+        <v>134388</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>44</v>
+        <v>321</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>45</v>
+        <v>322</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>159</v>
+        <v>323</v>
       </c>
       <c r="H19" s="7">
-        <v>0</v>
+        <v>166</v>
       </c>
       <c r="I19" s="7">
-        <v>0</v>
+        <v>120179</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>44</v>
+        <v>324</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>45</v>
+        <v>325</v>
       </c>
       <c r="L19" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="M19" s="7">
+        <v>349</v>
+      </c>
+      <c r="N19" s="7">
+        <v>254567</v>
+      </c>
+      <c r="O19" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>327</v>
       </c>
-      <c r="M19" s="7">
-        <v>0</v>
-      </c>
-      <c r="N19" s="7">
-        <v>0</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>45</v>
-      </c>
       <c r="Q19" s="7" t="s">
-        <v>290</v>
+        <v>328</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5407,40 +5407,40 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
-        <v>44</v>
+        <v>128</v>
       </c>
       <c r="D20" s="7">
-        <v>29954</v>
+        <v>95246</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>298</v>
+        <v>329</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>329</v>
+        <v>291</v>
       </c>
       <c r="H20" s="7">
-        <v>48</v>
+        <v>123</v>
       </c>
       <c r="I20" s="7">
-        <v>32511</v>
+        <v>85788</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>331</v>
+        <v>51</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>332</v>
       </c>
       <c r="M20" s="7">
-        <v>92</v>
+        <v>251</v>
       </c>
       <c r="N20" s="7">
-        <v>62465</v>
+        <v>181034</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>333</v>
@@ -5458,49 +5458,49 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>109</v>
+        <v>368</v>
       </c>
       <c r="D21" s="7">
-        <v>75213</v>
+        <v>272049</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H21" s="7">
-        <v>131</v>
+        <v>362</v>
       </c>
       <c r="I21" s="7">
-        <v>87055</v>
+        <v>258639</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M21" s="7">
-        <v>240</v>
+        <v>730</v>
       </c>
       <c r="N21" s="7">
-        <v>162268</v>
+        <v>530688</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5511,49 +5511,49 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>66</v>
+        <v>0</v>
       </c>
       <c r="D22" s="7">
-        <v>47848</v>
+        <v>0</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="H22" s="7">
+        <v>3</v>
+      </c>
+      <c r="I22" s="7">
+        <v>2067</v>
+      </c>
+      <c r="J22" s="7" t="s">
         <v>336</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="K22" s="7" t="s">
         <v>337</v>
       </c>
-      <c r="G22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>338</v>
       </c>
-      <c r="H22" s="7">
-        <v>85</v>
-      </c>
-      <c r="I22" s="7">
-        <v>60849</v>
-      </c>
-      <c r="J22" s="7" t="s">
+      <c r="M22" s="7">
+        <v>3</v>
+      </c>
+      <c r="N22" s="7">
+        <v>2067</v>
+      </c>
+      <c r="O22" s="7" t="s">
         <v>339</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="P22" s="7" t="s">
         <v>340</v>
       </c>
-      <c r="L22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>341</v>
-      </c>
-      <c r="M22" s="7">
-        <v>151</v>
-      </c>
-      <c r="N22" s="7">
-        <v>108697</v>
-      </c>
-      <c r="O22" s="7" t="s">
-        <v>342</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>343</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>344</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5568,13 +5568,13 @@
         <v>8725</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="H23" s="7">
         <v>6</v>
@@ -5583,13 +5583,13 @@
         <v>3955</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="M23" s="7">
         <v>17</v>
@@ -5598,13 +5598,13 @@
         <v>12680</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5613,49 +5613,49 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
-        <v>228</v>
+        <v>66</v>
       </c>
       <c r="D24" s="7">
-        <v>165490</v>
+        <v>47848</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="H24" s="7">
+        <v>85</v>
+      </c>
+      <c r="I24" s="7">
+        <v>60849</v>
+      </c>
+      <c r="J24" s="7" t="s">
         <v>354</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="K24" s="7" t="s">
         <v>355</v>
       </c>
-      <c r="G24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>356</v>
       </c>
-      <c r="H24" s="7">
-        <v>228</v>
-      </c>
-      <c r="I24" s="7">
-        <v>160524</v>
-      </c>
-      <c r="J24" s="7" t="s">
+      <c r="M24" s="7">
+        <v>151</v>
+      </c>
+      <c r="N24" s="7">
+        <v>108697</v>
+      </c>
+      <c r="O24" s="7" t="s">
         <v>357</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="P24" s="7" t="s">
         <v>358</v>
       </c>
-      <c r="L24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>359</v>
-      </c>
-      <c r="M24" s="7">
-        <v>456</v>
-      </c>
-      <c r="N24" s="7">
-        <v>326015</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>360</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>361</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>362</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5664,25 +5664,25 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
-        <v>0</v>
+        <v>228</v>
       </c>
       <c r="D25" s="7">
-        <v>0</v>
+        <v>165490</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>44</v>
+        <v>360</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>45</v>
+        <v>361</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>177</v>
+        <v>362</v>
       </c>
       <c r="H25" s="7">
-        <v>3</v>
+        <v>228</v>
       </c>
       <c r="I25" s="7">
-        <v>2067</v>
+        <v>160524</v>
       </c>
       <c r="J25" s="7" t="s">
         <v>363</v>
@@ -5694,10 +5694,10 @@
         <v>365</v>
       </c>
       <c r="M25" s="7">
-        <v>3</v>
+        <v>456</v>
       </c>
       <c r="N25" s="7">
-        <v>2067</v>
+        <v>326015</v>
       </c>
       <c r="O25" s="7" t="s">
         <v>366</v>
@@ -5736,10 +5736,10 @@
         <v>118298</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>55</v>
+        <v>98</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>297</v>
+        <v>330</v>
       </c>
       <c r="L26" s="7" t="s">
         <v>372</v>
@@ -5772,13 +5772,13 @@
         <v>347262</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H27" s="7">
         <v>493</v>
@@ -5787,13 +5787,13 @@
         <v>345694</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M27" s="7">
         <v>970</v>
@@ -5802,13 +5802,13 @@
         <v>692957</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -5827,7 +5827,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79178569-398C-4789-A4EE-71774C942748}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{392CA1D4-F327-4573-B141-553C85523FE5}">
   <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6217,49 +6217,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="D10" s="7">
-        <v>27134</v>
+        <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>377</v>
       </c>
-      <c r="F10" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>379</v>
-      </c>
       <c r="H10" s="7">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="I10" s="7">
-        <v>21167</v>
+        <v>0</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>380</v>
+        <v>18</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>381</v>
+        <v>61</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>382</v>
+        <v>115</v>
       </c>
       <c r="M10" s="7">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="N10" s="7">
-        <v>48300</v>
+        <v>0</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>383</v>
+        <v>18</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>384</v>
+        <v>61</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>385</v>
+        <v>267</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6268,49 +6268,49 @@
         <v>12</v>
       </c>
       <c r="C11" s="7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D11" s="7">
-        <v>3174</v>
+        <v>0</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>176</v>
+        <v>18</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>386</v>
+        <v>61</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>387</v>
+        <v>377</v>
       </c>
       <c r="H11" s="7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I11" s="7">
-        <v>2496</v>
+        <v>0</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>388</v>
+        <v>18</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>389</v>
+        <v>61</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>390</v>
+        <v>115</v>
       </c>
       <c r="M11" s="7">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="N11" s="7">
-        <v>5671</v>
+        <v>0</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>391</v>
+        <v>18</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>392</v>
+        <v>61</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>393</v>
+        <v>267</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6319,49 +6319,49 @@
         <v>13</v>
       </c>
       <c r="C12" s="7">
-        <v>106</v>
+        <v>6</v>
       </c>
       <c r="D12" s="7">
-        <v>91222</v>
+        <v>5834</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>394</v>
+        <v>378</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>395</v>
+        <v>379</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>396</v>
+        <v>380</v>
       </c>
       <c r="H12" s="7">
-        <v>102</v>
+        <v>4</v>
       </c>
       <c r="I12" s="7">
-        <v>81700</v>
+        <v>3016</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>397</v>
+        <v>381</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>398</v>
+        <v>382</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>399</v>
+        <v>383</v>
       </c>
       <c r="M12" s="7">
-        <v>208</v>
+        <v>10</v>
       </c>
       <c r="N12" s="7">
-        <v>172922</v>
+        <v>8850</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>400</v>
+        <v>384</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>401</v>
+        <v>25</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>402</v>
+        <v>385</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6370,49 +6370,49 @@
         <v>14</v>
       </c>
       <c r="C13" s="7">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="D13" s="7">
-        <v>2272</v>
+        <v>13264</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>212</v>
+        <v>386</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>44</v>
+        <v>387</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>403</v>
+        <v>388</v>
       </c>
       <c r="H13" s="7">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="I13" s="7">
-        <v>0</v>
+        <v>17472</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>44</v>
+        <v>389</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>45</v>
+        <v>390</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>404</v>
+        <v>391</v>
       </c>
       <c r="M13" s="7">
-        <v>2</v>
+        <v>36</v>
       </c>
       <c r="N13" s="7">
-        <v>2272</v>
+        <v>30736</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>202</v>
+        <v>392</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>44</v>
+        <v>393</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>405</v>
+        <v>394</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6421,49 +6421,49 @@
         <v>15</v>
       </c>
       <c r="C14" s="7">
-        <v>114</v>
+        <v>28</v>
       </c>
       <c r="D14" s="7">
-        <v>102003</v>
+        <v>22278</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>406</v>
+        <v>395</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>407</v>
+        <v>396</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>408</v>
+        <v>397</v>
       </c>
       <c r="H14" s="7">
-        <v>91</v>
+        <v>20</v>
       </c>
       <c r="I14" s="7">
-        <v>63181</v>
+        <v>13513</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>409</v>
+        <v>398</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>410</v>
+        <v>399</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>411</v>
+        <v>400</v>
       </c>
       <c r="M14" s="7">
-        <v>205</v>
+        <v>48</v>
       </c>
       <c r="N14" s="7">
-        <v>165184</v>
+        <v>35791</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>412</v>
+        <v>401</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>413</v>
+        <v>402</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>414</v>
+        <v>403</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6472,102 +6472,102 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>258</v>
+        <v>49</v>
       </c>
       <c r="D15" s="7">
-        <v>225805</v>
+        <v>41376</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H15" s="7">
-        <v>225</v>
+        <v>45</v>
       </c>
       <c r="I15" s="7">
-        <v>168545</v>
+        <v>34001</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M15" s="7">
-        <v>483</v>
+        <v>94</v>
       </c>
       <c r="N15" s="7">
-        <v>394349</v>
+        <v>75377</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D16" s="7">
-        <v>5834</v>
+        <v>2272</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>415</v>
+        <v>149</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>416</v>
+        <v>18</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>417</v>
+        <v>404</v>
       </c>
       <c r="H16" s="7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I16" s="7">
-        <v>3016</v>
+        <v>0</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>418</v>
+        <v>18</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>419</v>
+        <v>61</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>420</v>
+        <v>405</v>
       </c>
       <c r="M16" s="7">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="N16" s="7">
-        <v>8850</v>
+        <v>2272</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>421</v>
+        <v>153</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>72</v>
+        <v>18</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>422</v>
+        <v>406</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6576,49 +6576,49 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D17" s="7">
-        <v>0</v>
+        <v>3174</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>44</v>
+        <v>183</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>45</v>
+        <v>407</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>423</v>
+        <v>408</v>
       </c>
       <c r="H17" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I17" s="7">
-        <v>0</v>
+        <v>2496</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>44</v>
+        <v>409</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>45</v>
+        <v>410</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>117</v>
+        <v>411</v>
       </c>
       <c r="M17" s="7">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="N17" s="7">
-        <v>0</v>
+        <v>5671</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>44</v>
+        <v>412</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>45</v>
+        <v>413</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>313</v>
+        <v>414</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6627,49 +6627,49 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="D18" s="7">
-        <v>13264</v>
+        <v>27134</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>426</v>
+        <v>417</v>
       </c>
       <c r="H18" s="7">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="I18" s="7">
-        <v>17472</v>
+        <v>21167</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>427</v>
+        <v>418</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>428</v>
+        <v>419</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>429</v>
+        <v>420</v>
       </c>
       <c r="M18" s="7">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="N18" s="7">
-        <v>30736</v>
+        <v>48300</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>430</v>
+        <v>421</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>431</v>
+        <v>422</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>432</v>
+        <v>423</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6678,49 +6678,49 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
-        <v>0</v>
+        <v>106</v>
       </c>
       <c r="D19" s="7">
-        <v>0</v>
+        <v>91222</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>44</v>
+        <v>424</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>45</v>
+        <v>425</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="H19" s="7">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="I19" s="7">
-        <v>0</v>
+        <v>81700</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>44</v>
+        <v>427</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>45</v>
+        <v>428</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>117</v>
+        <v>429</v>
       </c>
       <c r="M19" s="7">
-        <v>0</v>
+        <v>208</v>
       </c>
       <c r="N19" s="7">
-        <v>0</v>
+        <v>172922</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>44</v>
+        <v>430</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>45</v>
+        <v>431</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>313</v>
+        <v>432</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6729,10 +6729,10 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
-        <v>28</v>
+        <v>114</v>
       </c>
       <c r="D20" s="7">
-        <v>22278</v>
+        <v>102003</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>433</v>
@@ -6744,10 +6744,10 @@
         <v>435</v>
       </c>
       <c r="H20" s="7">
-        <v>20</v>
+        <v>91</v>
       </c>
       <c r="I20" s="7">
-        <v>13513</v>
+        <v>63181</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>436</v>
@@ -6759,10 +6759,10 @@
         <v>438</v>
       </c>
       <c r="M20" s="7">
-        <v>48</v>
+        <v>205</v>
       </c>
       <c r="N20" s="7">
-        <v>35791</v>
+        <v>165184</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>439</v>
@@ -6780,49 +6780,49 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>49</v>
+        <v>258</v>
       </c>
       <c r="D21" s="7">
-        <v>41376</v>
+        <v>225805</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H21" s="7">
-        <v>45</v>
+        <v>225</v>
       </c>
       <c r="I21" s="7">
-        <v>34001</v>
+        <v>168545</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M21" s="7">
-        <v>94</v>
+        <v>483</v>
       </c>
       <c r="N21" s="7">
-        <v>75377</v>
+        <v>394349</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6833,49 +6833,49 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>38</v>
+        <v>2</v>
       </c>
       <c r="D22" s="7">
-        <v>32967</v>
+        <v>2272</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>442</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="H22" s="7">
+        <v>0</v>
+      </c>
+      <c r="I22" s="7">
+        <v>0</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>443</v>
       </c>
-      <c r="G22" s="7" t="s">
+      <c r="M22" s="7">
+        <v>2</v>
+      </c>
+      <c r="N22" s="7">
+        <v>2272</v>
+      </c>
+      <c r="O22" s="7" t="s">
         <v>444</v>
       </c>
-      <c r="H22" s="7">
-        <v>32</v>
-      </c>
-      <c r="I22" s="7">
-        <v>24183</v>
-      </c>
-      <c r="J22" s="7" t="s">
+      <c r="P22" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>445</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>446</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>447</v>
-      </c>
-      <c r="M22" s="7">
-        <v>70</v>
-      </c>
-      <c r="N22" s="7">
-        <v>57150</v>
-      </c>
-      <c r="O22" s="7" t="s">
-        <v>448</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>449</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>450</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6890,13 +6890,13 @@
         <v>3174</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="H23" s="7">
         <v>4</v>
@@ -6905,13 +6905,13 @@
         <v>2496</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>156</v>
+        <v>187</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>253</v>
+        <v>226</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="M23" s="7">
         <v>8</v>
@@ -6920,13 +6920,13 @@
         <v>5671</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6935,49 +6935,49 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
-        <v>121</v>
+        <v>38</v>
       </c>
       <c r="D24" s="7">
-        <v>104486</v>
+        <v>32967</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>453</v>
+      </c>
+      <c r="H24" s="7">
+        <v>32</v>
+      </c>
+      <c r="I24" s="7">
+        <v>24183</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>454</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>455</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>456</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="M24" s="7">
+        <v>70</v>
+      </c>
+      <c r="N24" s="7">
+        <v>57150</v>
+      </c>
+      <c r="O24" s="7" t="s">
         <v>457</v>
       </c>
-      <c r="G24" s="7" t="s">
+      <c r="P24" s="7" t="s">
         <v>458</v>
       </c>
-      <c r="H24" s="7">
-        <v>123</v>
-      </c>
-      <c r="I24" s="7">
-        <v>99172</v>
-      </c>
-      <c r="J24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>459</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>460</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>461</v>
-      </c>
-      <c r="M24" s="7">
-        <v>244</v>
-      </c>
-      <c r="N24" s="7">
-        <v>203658</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>462</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>463</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>464</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6986,46 +6986,46 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
-        <v>2</v>
+        <v>121</v>
       </c>
       <c r="D25" s="7">
-        <v>2272</v>
+        <v>104486</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>404</v>
+        <v>460</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>44</v>
+        <v>461</v>
       </c>
       <c r="G25" s="7" t="s">
+        <v>462</v>
+      </c>
+      <c r="H25" s="7">
+        <v>123</v>
+      </c>
+      <c r="I25" s="7">
+        <v>99172</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>463</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>464</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>465</v>
       </c>
-      <c r="H25" s="7">
-        <v>0</v>
-      </c>
-      <c r="I25" s="7">
-        <v>0</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="L25" s="7" t="s">
+      <c r="M25" s="7">
+        <v>244</v>
+      </c>
+      <c r="N25" s="7">
+        <v>203658</v>
+      </c>
+      <c r="O25" s="7" t="s">
         <v>466</v>
       </c>
-      <c r="M25" s="7">
-        <v>2</v>
-      </c>
-      <c r="N25" s="7">
-        <v>2272</v>
-      </c>
-      <c r="O25" s="7" t="s">
+      <c r="P25" s="7" t="s">
         <v>467</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>44</v>
       </c>
       <c r="Q25" s="7" t="s">
         <v>468</v>
@@ -7064,7 +7064,7 @@
         <v>473</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>56</v>
+        <v>99</v>
       </c>
       <c r="M26" s="7">
         <v>253</v>
@@ -7094,13 +7094,13 @@
         <v>267180</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H27" s="7">
         <v>270</v>
@@ -7109,13 +7109,13 @@
         <v>202546</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M27" s="7">
         <v>577</v>
@@ -7124,13 +7124,13 @@
         <v>469726</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP07C15-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP07C15-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B90FFC5B-097A-419D-B0D4-A78B1321DCB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5F3BA9A4-61D6-4F04-B04C-61925C50A183}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{25E2368A-2877-4EA3-8671-7BB649453B7B}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{A0DA41D3-5C98-46D0-865E-4EE336E48FF9}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1052" uniqueCount="477">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1300" uniqueCount="472">
   <si>
     <t>Menores según frecuencia de poder hacer lo que se quiera en el tiempo libre en 2007 (Tasa respuesta: 42,68%)</t>
   </si>
@@ -68,1306 +68,1384 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>0/4</t>
+    <t>0-2</t>
+  </si>
+  <si>
+    <t>Siempre</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>Casi siempre</t>
+  </si>
+  <si>
+    <t>Algunas veces</t>
+  </si>
+  <si>
+    <t>Casi nunca</t>
   </si>
   <si>
     <t>Nunca</t>
   </si>
   <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>Casi nunca</t>
-  </si>
-  <si>
-    <t>Algunas veces</t>
-  </si>
-  <si>
-    <t>Casi siempre</t>
-  </si>
-  <si>
-    <t>Siempre</t>
-  </si>
-  <si>
-    <t>5/9</t>
+    <t>3-7</t>
+  </si>
+  <si>
+    <t>8-11</t>
+  </si>
+  <si>
+    <t>30,0%</t>
+  </si>
+  <si>
+    <t>23,69%</t>
+  </si>
+  <si>
+    <t>36,73%</t>
+  </si>
+  <si>
+    <t>38,23%</t>
+  </si>
+  <si>
+    <t>31,06%</t>
+  </si>
+  <si>
+    <t>45,77%</t>
+  </si>
+  <si>
+    <t>33,91%</t>
+  </si>
+  <si>
+    <t>29,1%</t>
+  </si>
+  <si>
+    <t>39,03%</t>
+  </si>
+  <si>
+    <t>51,33%</t>
+  </si>
+  <si>
+    <t>44,5%</t>
+  </si>
+  <si>
+    <t>58,31%</t>
+  </si>
+  <si>
+    <t>39,43%</t>
+  </si>
+  <si>
+    <t>32,14%</t>
+  </si>
+  <si>
+    <t>46,89%</t>
+  </si>
+  <si>
+    <t>45,68%</t>
+  </si>
+  <si>
+    <t>40,43%</t>
+  </si>
+  <si>
+    <t>50,83%</t>
+  </si>
+  <si>
+    <t>16,56%</t>
+  </si>
+  <si>
+    <t>11,77%</t>
+  </si>
+  <si>
+    <t>22,39%</t>
+  </si>
+  <si>
+    <t>17,45%</t>
+  </si>
+  <si>
+    <t>12,07%</t>
+  </si>
+  <si>
+    <t>23,87%</t>
+  </si>
+  <si>
+    <t>16,98%</t>
+  </si>
+  <si>
+    <t>13,06%</t>
+  </si>
+  <si>
+    <t>21,54%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>36,4%</t>
+  </si>
+  <si>
+    <t>31,5%</t>
+  </si>
+  <si>
+    <t>42,43%</t>
+  </si>
+  <si>
+    <t>36,57%</t>
+  </si>
+  <si>
+    <t>30,77%</t>
+  </si>
+  <si>
+    <t>42,61%</t>
+  </si>
+  <si>
+    <t>36,48%</t>
+  </si>
+  <si>
+    <t>32,36%</t>
+  </si>
+  <si>
+    <t>40,66%</t>
+  </si>
+  <si>
+    <t>38,7%</t>
+  </si>
+  <si>
+    <t>33,38%</t>
+  </si>
+  <si>
+    <t>44,21%</t>
+  </si>
+  <si>
+    <t>42,22%</t>
+  </si>
+  <si>
+    <t>36,82%</t>
+  </si>
+  <si>
+    <t>48,43%</t>
+  </si>
+  <si>
+    <t>44,75%</t>
+  </si>
+  <si>
+    <t>23,08%</t>
+  </si>
+  <si>
+    <t>17,8%</t>
+  </si>
+  <si>
+    <t>27,7%</t>
+  </si>
+  <si>
+    <t>19,27%</t>
+  </si>
+  <si>
+    <t>15,08%</t>
+  </si>
+  <si>
+    <t>24,8%</t>
+  </si>
+  <si>
+    <t>21,21%</t>
+  </si>
+  <si>
+    <t>17,75%</t>
+  </si>
+  <si>
+    <t>25,07%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>33,85%</t>
+  </si>
+  <si>
+    <t>29,75%</t>
+  </si>
+  <si>
+    <t>38,33%</t>
+  </si>
+  <si>
+    <t>37,21%</t>
+  </si>
+  <si>
+    <t>33,05%</t>
+  </si>
+  <si>
+    <t>42,01%</t>
+  </si>
+  <si>
+    <t>35,47%</t>
+  </si>
+  <si>
+    <t>32,38%</t>
+  </si>
+  <si>
+    <t>38,63%</t>
+  </si>
+  <si>
+    <t>43,74%</t>
+  </si>
+  <si>
+    <t>39,27%</t>
+  </si>
+  <si>
+    <t>48,06%</t>
+  </si>
+  <si>
+    <t>41,15%</t>
+  </si>
+  <si>
+    <t>36,34%</t>
+  </si>
+  <si>
+    <t>42,49%</t>
+  </si>
+  <si>
+    <t>39,1%</t>
+  </si>
+  <si>
+    <t>45,73%</t>
+  </si>
+  <si>
+    <t>20,48%</t>
+  </si>
+  <si>
+    <t>17,02%</t>
+  </si>
+  <si>
+    <t>24,34%</t>
+  </si>
+  <si>
+    <t>18,57%</t>
+  </si>
+  <si>
+    <t>15,12%</t>
+  </si>
+  <si>
+    <t>22,58%</t>
+  </si>
+  <si>
+    <t>19,55%</t>
+  </si>
+  <si>
+    <t>16,79%</t>
+  </si>
+  <si>
+    <t>22,07%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de poder hacer lo que se quiera en el tiempo libre en 2012 (Tasa respuesta: 43,69%)</t>
+  </si>
+  <si>
+    <t>41,27%</t>
+  </si>
+  <si>
+    <t>35,1%</t>
+  </si>
+  <si>
+    <t>47,18%</t>
+  </si>
+  <si>
+    <t>47,04%</t>
+  </si>
+  <si>
+    <t>40,83%</t>
+  </si>
+  <si>
+    <t>54,23%</t>
+  </si>
+  <si>
+    <t>44,11%</t>
+  </si>
+  <si>
+    <t>39,44%</t>
+  </si>
+  <si>
+    <t>49,27%</t>
+  </si>
+  <si>
+    <t>40,34%</t>
+  </si>
+  <si>
+    <t>34,1%</t>
+  </si>
+  <si>
+    <t>46,9%</t>
+  </si>
+  <si>
+    <t>37,19%</t>
+  </si>
+  <si>
+    <t>30,34%</t>
+  </si>
+  <si>
+    <t>43,73%</t>
+  </si>
+  <si>
+    <t>38,79%</t>
+  </si>
+  <si>
+    <t>33,87%</t>
+  </si>
+  <si>
+    <t>43,17%</t>
+  </si>
+  <si>
+    <t>16,14%</t>
+  </si>
+  <si>
+    <t>11,53%</t>
+  </si>
+  <si>
+    <t>21,12%</t>
+  </si>
+  <si>
+    <t>15,77%</t>
+  </si>
+  <si>
+    <t>11,5%</t>
+  </si>
+  <si>
+    <t>21,67%</t>
+  </si>
+  <si>
+    <t>15,96%</t>
+  </si>
+  <si>
+    <t>12,56%</t>
+  </si>
+  <si>
+    <t>19,65%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>44,46%</t>
+  </si>
+  <si>
+    <t>38,17%</t>
+  </si>
+  <si>
+    <t>50,89%</t>
+  </si>
+  <si>
+    <t>37,56%</t>
+  </si>
+  <si>
+    <t>31,2%</t>
+  </si>
+  <si>
+    <t>43,59%</t>
+  </si>
+  <si>
+    <t>41,1%</t>
+  </si>
+  <si>
+    <t>36,08%</t>
+  </si>
+  <si>
+    <t>45,13%</t>
+  </si>
+  <si>
+    <t>38,49%</t>
+  </si>
+  <si>
+    <t>32,26%</t>
+  </si>
+  <si>
+    <t>44,79%</t>
+  </si>
+  <si>
+    <t>37,97%</t>
+  </si>
+  <si>
+    <t>31,46%</t>
+  </si>
+  <si>
+    <t>44,84%</t>
+  </si>
+  <si>
+    <t>33,68%</t>
+  </si>
+  <si>
+    <t>42,76%</t>
+  </si>
+  <si>
+    <t>14,8%</t>
+  </si>
+  <si>
+    <t>10,99%</t>
+  </si>
+  <si>
+    <t>21,46%</t>
+  </si>
+  <si>
+    <t>16,42%</t>
+  </si>
+  <si>
+    <t>27,77%</t>
+  </si>
+  <si>
+    <t>18,04%</t>
+  </si>
+  <si>
+    <t>14,95%</t>
+  </si>
+  <si>
+    <t>21,7%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>42,94%</t>
+  </si>
+  <si>
+    <t>38,38%</t>
+  </si>
+  <si>
+    <t>47,55%</t>
+  </si>
+  <si>
+    <t>42,11%</t>
+  </si>
+  <si>
+    <t>37,71%</t>
+  </si>
+  <si>
+    <t>46,78%</t>
+  </si>
+  <si>
+    <t>42,54%</t>
+  </si>
+  <si>
+    <t>39,4%</t>
+  </si>
+  <si>
+    <t>45,64%</t>
+  </si>
+  <si>
+    <t>39,37%</t>
+  </si>
+  <si>
+    <t>34,73%</t>
+  </si>
+  <si>
+    <t>43,77%</t>
+  </si>
+  <si>
+    <t>37,59%</t>
+  </si>
+  <si>
+    <t>33,27%</t>
+  </si>
+  <si>
+    <t>42,3%</t>
+  </si>
+  <si>
+    <t>38,5%</t>
+  </si>
+  <si>
+    <t>35,39%</t>
+  </si>
+  <si>
+    <t>41,75%</t>
+  </si>
+  <si>
+    <t>15,43%</t>
+  </si>
+  <si>
+    <t>12,24%</t>
+  </si>
+  <si>
+    <t>18,48%</t>
+  </si>
+  <si>
+    <t>18,73%</t>
+  </si>
+  <si>
+    <t>15,46%</t>
+  </si>
+  <si>
+    <t>22,9%</t>
+  </si>
+  <si>
+    <t>17,05%</t>
+  </si>
+  <si>
+    <t>14,68%</t>
+  </si>
+  <si>
+    <t>19,62%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de poder hacer lo que se quiera en el tiempo libre en 2015 (Tasa respuesta: 45,63%)</t>
+  </si>
+  <si>
+    <t>38,68%</t>
+  </si>
+  <si>
+    <t>32,55%</t>
+  </si>
+  <si>
+    <t>44,47%</t>
+  </si>
+  <si>
+    <t>35,8%</t>
+  </si>
+  <si>
+    <t>30,31%</t>
+  </si>
+  <si>
+    <t>42,37%</t>
+  </si>
+  <si>
+    <t>37,22%</t>
+  </si>
+  <si>
+    <t>33,15%</t>
+  </si>
+  <si>
+    <t>41,6%</t>
+  </si>
+  <si>
+    <t>43,67%</t>
+  </si>
+  <si>
+    <t>37,78%</t>
+  </si>
+  <si>
+    <t>49,72%</t>
+  </si>
+  <si>
+    <t>47,59%</t>
+  </si>
+  <si>
+    <t>40,82%</t>
+  </si>
+  <si>
+    <t>52,99%</t>
+  </si>
+  <si>
+    <t>45,65%</t>
+  </si>
+  <si>
+    <t>41,81%</t>
+  </si>
+  <si>
+    <t>50,25%</t>
+  </si>
+  <si>
+    <t>15,32%</t>
+  </si>
+  <si>
+    <t>11,16%</t>
+  </si>
+  <si>
+    <t>20,03%</t>
+  </si>
+  <si>
+    <t>15,87%</t>
+  </si>
+  <si>
+    <t>12,09%</t>
+  </si>
+  <si>
+    <t>21,2%</t>
+  </si>
+  <si>
+    <t>15,6%</t>
+  </si>
+  <si>
+    <t>12,57%</t>
+  </si>
+  <si>
+    <t>18,99%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>33,33%</t>
+  </si>
+  <si>
+    <t>27,02%</t>
+  </si>
+  <si>
+    <t>39,7%</t>
+  </si>
+  <si>
+    <t>32,49%</t>
+  </si>
+  <si>
+    <t>26,61%</t>
+  </si>
+  <si>
+    <t>32,92%</t>
+  </si>
+  <si>
+    <t>28,83%</t>
+  </si>
+  <si>
+    <t>37,45%</t>
+  </si>
+  <si>
+    <t>51,79%</t>
+  </si>
+  <si>
+    <t>45,16%</t>
+  </si>
+  <si>
+    <t>59,04%</t>
+  </si>
+  <si>
+    <t>45,17%</t>
+  </si>
+  <si>
+    <t>38,85%</t>
+  </si>
+  <si>
+    <t>52,34%</t>
+  </si>
+  <si>
+    <t>48,53%</t>
+  </si>
+  <si>
+    <t>52,97%</t>
+  </si>
+  <si>
+    <t>12,18%</t>
+  </si>
+  <si>
+    <t>8,29%</t>
+  </si>
+  <si>
+    <t>19,5%</t>
+  </si>
+  <si>
+    <t>14,98%</t>
+  </si>
+  <si>
+    <t>25,16%</t>
+  </si>
+  <si>
+    <t>15,78%</t>
+  </si>
+  <si>
+    <t>12,77%</t>
+  </si>
+  <si>
+    <t>19,14%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
   </si>
   <si>
     <t>1,1%</t>
   </si>
   <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>11,76%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>36,05%</t>
+  </si>
+  <si>
+    <t>31,84%</t>
+  </si>
+  <si>
+    <t>40,24%</t>
+  </si>
+  <si>
+    <t>34,22%</t>
+  </si>
+  <si>
+    <t>30,14%</t>
+  </si>
+  <si>
+    <t>35,14%</t>
+  </si>
+  <si>
+    <t>31,87%</t>
+  </si>
+  <si>
+    <t>38,25%</t>
+  </si>
+  <si>
+    <t>47,66%</t>
+  </si>
+  <si>
+    <t>43,41%</t>
+  </si>
+  <si>
+    <t>52,01%</t>
+  </si>
+  <si>
+    <t>46,44%</t>
+  </si>
+  <si>
+    <t>42,13%</t>
+  </si>
+  <si>
+    <t>51,27%</t>
+  </si>
+  <si>
+    <t>47,05%</t>
+  </si>
+  <si>
+    <t>44,04%</t>
+  </si>
+  <si>
+    <t>50,37%</t>
+  </si>
+  <si>
+    <t>13,78%</t>
+  </si>
+  <si>
+    <t>10,94%</t>
+  </si>
+  <si>
+    <t>16,89%</t>
+  </si>
+  <si>
+    <t>17,6%</t>
+  </si>
+  <si>
+    <t>14,28%</t>
+  </si>
+  <si>
+    <t>21,25%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>13,56%</t>
+  </si>
+  <si>
+    <t>18,36%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de poder hacer lo que se quiera en el tiempo libre en 2023 (Tasa respuesta: 30,05%)</t>
+  </si>
+  <si>
+    <t>47,07%</t>
+  </si>
+  <si>
+    <t>37,37%</t>
+  </si>
+  <si>
+    <t>55,65%</t>
+  </si>
+  <si>
+    <t>40,3%</t>
+  </si>
+  <si>
+    <t>30,89%</t>
+  </si>
+  <si>
+    <t>50,91%</t>
+  </si>
+  <si>
+    <t>44,23%</t>
+  </si>
+  <si>
+    <t>37,16%</t>
+  </si>
+  <si>
+    <t>51,22%</t>
+  </si>
+  <si>
+    <t>32,64%</t>
+  </si>
+  <si>
+    <t>51,2%</t>
+  </si>
+  <si>
+    <t>47,92%</t>
+  </si>
+  <si>
+    <t>57,74%</t>
+  </si>
+  <si>
+    <t>43,95%</t>
+  </si>
+  <si>
+    <t>36,84%</t>
+  </si>
+  <si>
+    <t>50,84%</t>
+  </si>
+  <si>
+    <t>10,63%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>11,79%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>20,05%</t>
+  </si>
+  <si>
+    <t>11,12%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>16,12%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>46,19%</t>
+  </si>
+  <si>
+    <t>38,44%</t>
+  </si>
+  <si>
+    <t>55,25%</t>
+  </si>
+  <si>
+    <t>36,53%</t>
+  </si>
+  <si>
+    <t>28,48%</t>
+  </si>
+  <si>
+    <t>45,04%</t>
+  </si>
+  <si>
+    <t>41,96%</t>
+  </si>
+  <si>
+    <t>36,14%</t>
+  </si>
+  <si>
+    <t>49,05%</t>
+  </si>
+  <si>
+    <t>37,93%</t>
+  </si>
+  <si>
+    <t>30,03%</t>
+  </si>
+  <si>
+    <t>45,44%</t>
+  </si>
+  <si>
+    <t>49,54%</t>
+  </si>
+  <si>
+    <t>41,17%</t>
+  </si>
+  <si>
+    <t>60,09%</t>
+  </si>
+  <si>
+    <t>43,01%</t>
+  </si>
+  <si>
+    <t>37,04%</t>
+  </si>
+  <si>
+    <t>50,1%</t>
+  </si>
+  <si>
+    <t>13,35%</t>
+  </si>
+  <si>
+    <t>8,38%</t>
+  </si>
+  <si>
+    <t>20,84%</t>
+  </si>
+  <si>
+    <t>12,02%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>19,05%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>18,14%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
   </si>
   <si>
     <t>0,64%</t>
   </si>
   <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>12,28%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>21,17%</t>
-  </si>
-  <si>
-    <t>20,98%</t>
-  </si>
-  <si>
-    <t>12,43%</t>
-  </si>
-  <si>
-    <t>30,88%</t>
-  </si>
-  <si>
-    <t>16,22%</t>
-  </si>
-  <si>
-    <t>11,11%</t>
-  </si>
-  <si>
-    <t>22,88%</t>
-  </si>
-  <si>
-    <t>47,46%</t>
-  </si>
-  <si>
-    <t>37,65%</t>
-  </si>
-  <si>
-    <t>57,44%</t>
-  </si>
-  <si>
-    <t>44,11%</t>
-  </si>
-  <si>
-    <t>32,72%</t>
-  </si>
-  <si>
-    <t>54,07%</t>
-  </si>
-  <si>
-    <t>45,94%</t>
-  </si>
-  <si>
-    <t>38,41%</t>
-  </si>
-  <si>
-    <t>53,47%</t>
-  </si>
-  <si>
-    <t>38,01%</t>
-  </si>
-  <si>
-    <t>28,19%</t>
-  </si>
-  <si>
-    <t>47,53%</t>
-  </si>
-  <si>
-    <t>29,17%</t>
-  </si>
-  <si>
-    <t>18,98%</t>
-  </si>
-  <si>
-    <t>40,39%</t>
-  </si>
-  <si>
-    <t>34,01%</t>
-  </si>
-  <si>
-    <t>26,71%</t>
-  </si>
-  <si>
-    <t>40,91%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>10/15</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>22,42%</t>
-  </si>
-  <si>
-    <t>18,49%</t>
-  </si>
-  <si>
-    <t>26,79%</t>
-  </si>
-  <si>
-    <t>18,08%</t>
-  </si>
-  <si>
-    <t>14,43%</t>
-  </si>
-  <si>
-    <t>22,25%</t>
-  </si>
-  <si>
-    <t>20,29%</t>
-  </si>
-  <si>
-    <t>17,45%</t>
-  </si>
-  <si>
-    <t>22,99%</t>
-  </si>
-  <si>
-    <t>42,86%</t>
-  </si>
-  <si>
-    <t>37,55%</t>
-  </si>
-  <si>
-    <t>47,97%</t>
-  </si>
-  <si>
-    <t>40,55%</t>
-  </si>
-  <si>
-    <t>35,36%</t>
-  </si>
-  <si>
-    <t>45,61%</t>
-  </si>
-  <si>
-    <t>41,73%</t>
-  </si>
-  <si>
-    <t>38,47%</t>
-  </si>
-  <si>
-    <t>45,26%</t>
-  </si>
-  <si>
-    <t>32,86%</t>
-  </si>
-  <si>
-    <t>27,89%</t>
-  </si>
-  <si>
-    <t>37,75%</t>
-  </si>
-  <si>
-    <t>38,83%</t>
-  </si>
-  <si>
-    <t>34,22%</t>
-  </si>
-  <si>
-    <t>44,14%</t>
-  </si>
-  <si>
-    <t>35,8%</t>
-  </si>
-  <si>
-    <t>32,29%</t>
-  </si>
-  <si>
-    <t>39,03%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>20,48%</t>
-  </si>
-  <si>
-    <t>16,54%</t>
-  </si>
-  <si>
-    <t>24,09%</t>
-  </si>
-  <si>
-    <t>18,57%</t>
-  </si>
-  <si>
-    <t>15,03%</t>
-  </si>
-  <si>
-    <t>22,5%</t>
-  </si>
-  <si>
-    <t>19,55%</t>
-  </si>
-  <si>
-    <t>16,96%</t>
-  </si>
-  <si>
-    <t>22,48%</t>
-  </si>
-  <si>
-    <t>43,74%</t>
-  </si>
-  <si>
-    <t>38,89%</t>
-  </si>
-  <si>
-    <t>47,85%</t>
-  </si>
-  <si>
-    <t>41,15%</t>
-  </si>
-  <si>
-    <t>36,45%</t>
-  </si>
-  <si>
-    <t>45,87%</t>
-  </si>
-  <si>
-    <t>42,49%</t>
-  </si>
-  <si>
-    <t>39,53%</t>
-  </si>
-  <si>
-    <t>46,2%</t>
-  </si>
-  <si>
-    <t>33,85%</t>
-  </si>
-  <si>
-    <t>29,59%</t>
-  </si>
-  <si>
-    <t>38,51%</t>
-  </si>
-  <si>
-    <t>37,21%</t>
-  </si>
-  <si>
-    <t>32,71%</t>
-  </si>
-  <si>
-    <t>42,03%</t>
-  </si>
-  <si>
-    <t>35,47%</t>
-  </si>
-  <si>
-    <t>32,13%</t>
-  </si>
-  <si>
-    <t>38,45%</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de poder hacer lo que se quiera en el tiempo libre en 2012 (Tasa respuesta: 43,69%)</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>10,06%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>12,78%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>21,47%</t>
-  </si>
-  <si>
-    <t>14,33%</t>
-  </si>
-  <si>
-    <t>8,77%</t>
-  </si>
-  <si>
-    <t>23,14%</t>
-  </si>
-  <si>
-    <t>13,58%</t>
-  </si>
-  <si>
-    <t>9,4%</t>
-  </si>
-  <si>
-    <t>18,96%</t>
-  </si>
-  <si>
-    <t>43,33%</t>
-  </si>
-  <si>
-    <t>32,96%</t>
-  </si>
-  <si>
-    <t>54,39%</t>
-  </si>
-  <si>
-    <t>44,9%</t>
-  </si>
-  <si>
-    <t>34,43%</t>
-  </si>
-  <si>
-    <t>54,93%</t>
-  </si>
-  <si>
-    <t>37,37%</t>
-  </si>
-  <si>
-    <t>51,56%</t>
-  </si>
-  <si>
-    <t>39,56%</t>
-  </si>
-  <si>
-    <t>29,35%</t>
-  </si>
-  <si>
-    <t>49,91%</t>
-  </si>
-  <si>
-    <t>40,77%</t>
-  </si>
-  <si>
-    <t>31,59%</t>
-  </si>
-  <si>
-    <t>51,1%</t>
-  </si>
-  <si>
-    <t>40,18%</t>
-  </si>
-  <si>
-    <t>32,82%</t>
-  </si>
-  <si>
-    <t>47,23%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>16,1%</t>
-  </si>
-  <si>
-    <t>12,55%</t>
-  </si>
-  <si>
-    <t>19,75%</t>
-  </si>
-  <si>
-    <t>19,98%</t>
-  </si>
-  <si>
-    <t>16,16%</t>
-  </si>
-  <si>
-    <t>24,31%</t>
-  </si>
-  <si>
-    <t>17,98%</t>
-  </si>
-  <si>
-    <t>15,37%</t>
-  </si>
-  <si>
-    <t>20,85%</t>
-  </si>
-  <si>
-    <t>38,37%</t>
-  </si>
-  <si>
-    <t>33,55%</t>
-  </si>
-  <si>
-    <t>43,47%</t>
-  </si>
-  <si>
-    <t>35,5%</t>
-  </si>
-  <si>
-    <t>30,55%</t>
-  </si>
-  <si>
-    <t>40,93%</t>
-  </si>
-  <si>
-    <t>36,99%</t>
-  </si>
-  <si>
-    <t>33,52%</t>
-  </si>
-  <si>
-    <t>40,63%</t>
-  </si>
-  <si>
-    <t>43,79%</t>
-  </si>
-  <si>
-    <t>39,08%</t>
-  </si>
-  <si>
-    <t>48,52%</t>
-  </si>
-  <si>
-    <t>42,5%</t>
-  </si>
-  <si>
-    <t>47,56%</t>
-  </si>
-  <si>
-    <t>43,17%</t>
-  </si>
-  <si>
-    <t>39,48%</t>
-  </si>
-  <si>
-    <t>47,16%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>15,43%</t>
-  </si>
-  <si>
-    <t>12,53%</t>
-  </si>
-  <si>
-    <t>18,94%</t>
-  </si>
-  <si>
-    <t>18,73%</t>
-  </si>
-  <si>
-    <t>15,26%</t>
-  </si>
-  <si>
-    <t>22,6%</t>
-  </si>
-  <si>
-    <t>17,05%</t>
-  </si>
-  <si>
-    <t>14,82%</t>
-  </si>
-  <si>
-    <t>19,69%</t>
-  </si>
-  <si>
-    <t>39,37%</t>
-  </si>
-  <si>
-    <t>35,29%</t>
-  </si>
-  <si>
-    <t>43,76%</t>
-  </si>
-  <si>
-    <t>37,59%</t>
-  </si>
-  <si>
-    <t>33,19%</t>
-  </si>
-  <si>
-    <t>42,43%</t>
-  </si>
-  <si>
-    <t>38,5%</t>
-  </si>
-  <si>
-    <t>35,28%</t>
-  </si>
-  <si>
-    <t>41,83%</t>
-  </si>
-  <si>
-    <t>42,94%</t>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>46,52%</t>
+  </si>
+  <si>
+    <t>40,16%</t>
+  </si>
+  <si>
+    <t>37,87%</t>
+  </si>
+  <si>
+    <t>31,35%</t>
+  </si>
+  <si>
+    <t>43,83%</t>
+  </si>
+  <si>
+    <t>42,79%</t>
+  </si>
+  <si>
+    <t>38,03%</t>
+  </si>
+  <si>
+    <t>47,73%</t>
+  </si>
+  <si>
+    <t>39,11%</t>
+  </si>
+  <si>
+    <t>33,1%</t>
+  </si>
+  <si>
+    <t>45,15%</t>
+  </si>
+  <si>
+    <t>48,96%</t>
+  </si>
+  <si>
+    <t>42,41%</t>
+  </si>
+  <si>
+    <t>56,3%</t>
+  </si>
+  <si>
+    <t>43,36%</t>
   </si>
   <si>
     <t>38,29%</t>
   </si>
   <si>
-    <t>47,42%</t>
-  </si>
-  <si>
-    <t>42,11%</t>
-  </si>
-  <si>
-    <t>37,09%</t>
-  </si>
-  <si>
-    <t>46,59%</t>
-  </si>
-  <si>
-    <t>42,54%</t>
-  </si>
-  <si>
-    <t>39,13%</t>
-  </si>
-  <si>
-    <t>45,6%</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de poder hacer lo que se quiera en el tiempo libre en 2015 (Tasa respuesta: 45,63%)</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>16,81%</t>
-  </si>
-  <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>24,97%</t>
-  </si>
-  <si>
-    <t>15,65%</t>
-  </si>
-  <si>
-    <t>10,12%</t>
-  </si>
-  <si>
-    <t>22,73%</t>
-  </si>
-  <si>
-    <t>16,19%</t>
-  </si>
-  <si>
-    <t>11,24%</t>
-  </si>
-  <si>
-    <t>21,16%</t>
-  </si>
-  <si>
-    <t>41,35%</t>
-  </si>
-  <si>
-    <t>32,52%</t>
-  </si>
-  <si>
-    <t>50,89%</t>
-  </si>
-  <si>
-    <t>46,34%</t>
-  </si>
-  <si>
-    <t>37,92%</t>
-  </si>
-  <si>
-    <t>56,47%</t>
-  </si>
-  <si>
-    <t>44,03%</t>
-  </si>
-  <si>
-    <t>37,77%</t>
-  </si>
-  <si>
-    <t>50,35%</t>
-  </si>
-  <si>
-    <t>39,83%</t>
-  </si>
-  <si>
-    <t>31,19%</t>
-  </si>
-  <si>
-    <t>50,1%</t>
-  </si>
-  <si>
-    <t>37,35%</t>
-  </si>
-  <si>
-    <t>28,36%</t>
-  </si>
-  <si>
-    <t>45,24%</t>
-  </si>
-  <si>
-    <t>38,49%</t>
-  </si>
-  <si>
-    <t>32,67%</t>
-  </si>
-  <si>
-    <t>45,23%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>12,94%</t>
-  </si>
-  <si>
-    <t>9,87%</t>
-  </si>
-  <si>
-    <t>16,6%</t>
-  </si>
-  <si>
-    <t>18,26%</t>
-  </si>
-  <si>
-    <t>14,7%</t>
-  </si>
-  <si>
-    <t>22,26%</t>
-  </si>
-  <si>
-    <t>15,53%</t>
-  </si>
-  <si>
-    <t>13,18%</t>
-  </si>
-  <si>
-    <t>18,34%</t>
-  </si>
-  <si>
-    <t>49,4%</t>
-  </si>
-  <si>
-    <t>44,27%</t>
-  </si>
-  <si>
-    <t>54,8%</t>
-  </si>
-  <si>
-    <t>46,47%</t>
-  </si>
-  <si>
-    <t>41,57%</t>
-  </si>
-  <si>
-    <t>51,9%</t>
-  </si>
-  <si>
-    <t>43,77%</t>
-  </si>
-  <si>
-    <t>51,24%</t>
-  </si>
-  <si>
-    <t>35,01%</t>
-  </si>
-  <si>
-    <t>29,77%</t>
-  </si>
-  <si>
-    <t>33,17%</t>
-  </si>
-  <si>
-    <t>38,23%</t>
-  </si>
-  <si>
-    <t>34,11%</t>
-  </si>
-  <si>
-    <t>30,85%</t>
-  </si>
-  <si>
-    <t>38,03%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>13,78%</t>
-  </si>
-  <si>
-    <t>10,71%</t>
-  </si>
-  <si>
-    <t>16,98%</t>
-  </si>
-  <si>
-    <t>17,6%</t>
-  </si>
-  <si>
-    <t>14,6%</t>
-  </si>
-  <si>
-    <t>21,38%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>13,57%</t>
-  </si>
-  <si>
-    <t>18,16%</t>
-  </si>
-  <si>
-    <t>47,66%</t>
-  </si>
-  <si>
-    <t>43,19%</t>
-  </si>
-  <si>
-    <t>52,19%</t>
-  </si>
-  <si>
-    <t>46,44%</t>
-  </si>
-  <si>
-    <t>41,96%</t>
-  </si>
-  <si>
-    <t>51,04%</t>
-  </si>
-  <si>
-    <t>47,05%</t>
-  </si>
-  <si>
-    <t>43,6%</t>
-  </si>
-  <si>
-    <t>50,19%</t>
-  </si>
-  <si>
-    <t>36,05%</t>
-  </si>
-  <si>
-    <t>31,66%</t>
-  </si>
-  <si>
-    <t>40,56%</t>
-  </si>
-  <si>
-    <t>38,67%</t>
-  </si>
-  <si>
-    <t>35,14%</t>
-  </si>
-  <si>
-    <t>32,3%</t>
-  </si>
-  <si>
-    <t>38,28%</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de poder hacer lo que se quiera en el tiempo libre en 2023 (Tasa respuesta: 30,05%)</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>14,1%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>27,28%</t>
-  </si>
-  <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>24,69%</t>
-  </si>
-  <si>
-    <t>11,74%</t>
-  </si>
-  <si>
-    <t>20,08%</t>
-  </si>
-  <si>
-    <t>32,06%</t>
-  </si>
-  <si>
-    <t>19,72%</t>
-  </si>
-  <si>
-    <t>46,4%</t>
-  </si>
-  <si>
-    <t>51,39%</t>
-  </si>
-  <si>
-    <t>36,58%</t>
-  </si>
-  <si>
-    <t>67,05%</t>
-  </si>
-  <si>
-    <t>40,78%</t>
-  </si>
-  <si>
-    <t>30,04%</t>
-  </si>
-  <si>
-    <t>51,02%</t>
-  </si>
-  <si>
-    <t>53,84%</t>
-  </si>
-  <si>
-    <t>38,93%</t>
-  </si>
-  <si>
-    <t>67,17%</t>
-  </si>
-  <si>
-    <t>39,74%</t>
-  </si>
-  <si>
-    <t>26,13%</t>
-  </si>
-  <si>
-    <t>56,32%</t>
-  </si>
-  <si>
-    <t>47,48%</t>
-  </si>
-  <si>
-    <t>38,06%</t>
-  </si>
-  <si>
-    <t>59,02%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
+    <t>48,14%</t>
+  </si>
+  <si>
+    <t>12,34%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>17,85%</t>
+  </si>
+  <si>
+    <t>11,94%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>16,94%</t>
+  </si>
+  <si>
+    <t>12,17%</t>
+  </si>
+  <si>
+    <t>9,46%</t>
+  </si>
+  <si>
+    <t>15,31%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
   </si>
   <si>
     <t>0,85%</t>
   </si>
   <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>12,02%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>18,02%</t>
-  </si>
-  <si>
-    <t>12,56%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>18,56%</t>
-  </si>
-  <si>
-    <t>12,25%</t>
-  </si>
-  <si>
-    <t>9,33%</t>
-  </si>
-  <si>
-    <t>16,27%</t>
-  </si>
-  <si>
-    <t>40,4%</t>
-  </si>
-  <si>
-    <t>33,24%</t>
-  </si>
-  <si>
-    <t>46,78%</t>
-  </si>
-  <si>
-    <t>48,47%</t>
-  </si>
-  <si>
-    <t>41,64%</t>
-  </si>
-  <si>
-    <t>58,02%</t>
-  </si>
-  <si>
-    <t>43,85%</t>
-  </si>
-  <si>
-    <t>38,57%</t>
-  </si>
-  <si>
-    <t>49,65%</t>
-  </si>
-  <si>
-    <t>45,17%</t>
-  </si>
-  <si>
-    <t>37,76%</t>
-  </si>
-  <si>
-    <t>53,11%</t>
-  </si>
-  <si>
-    <t>37,49%</t>
-  </si>
-  <si>
-    <t>30,01%</t>
-  </si>
-  <si>
-    <t>44,45%</t>
-  </si>
-  <si>
-    <t>41,89%</t>
-  </si>
-  <si>
-    <t>36,72%</t>
-  </si>
-  <si>
-    <t>47,25%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
+    <t>3,25%</t>
   </si>
   <si>
     <t>0,71%</t>
@@ -1376,100 +1454,7 @@
     <t>0,48%</t>
   </si>
   <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>12,34%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>17,7%</t>
-  </si>
-  <si>
-    <t>11,94%</t>
-  </si>
-  <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>16,2%</t>
-  </si>
-  <si>
-    <t>12,17%</t>
-  </si>
-  <si>
-    <t>9,6%</t>
-  </si>
-  <si>
-    <t>16,0%</t>
-  </si>
-  <si>
-    <t>39,11%</t>
-  </si>
-  <si>
-    <t>33,0%</t>
-  </si>
-  <si>
-    <t>45,76%</t>
-  </si>
-  <si>
-    <t>48,96%</t>
-  </si>
-  <si>
-    <t>42,68%</t>
-  </si>
-  <si>
-    <t>56,77%</t>
-  </si>
-  <si>
-    <t>43,36%</t>
-  </si>
-  <si>
-    <t>39,19%</t>
-  </si>
-  <si>
-    <t>48,92%</t>
-  </si>
-  <si>
-    <t>46,52%</t>
-  </si>
-  <si>
-    <t>40,47%</t>
-  </si>
-  <si>
-    <t>53,34%</t>
-  </si>
-  <si>
-    <t>37,87%</t>
-  </si>
-  <si>
-    <t>31,26%</t>
-  </si>
-  <si>
-    <t>42,79%</t>
-  </si>
-  <si>
-    <t>37,79%</t>
-  </si>
-  <si>
-    <t>47,52%</t>
+    <t>1,54%</t>
   </si>
 </sst>
 </file>
@@ -1480,7 +1465,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1576,39 +1561,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1660,7 +1645,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1771,13 +1756,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -1786,6 +1764,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1850,19 +1835,39 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92BB78F3-1C0B-486A-98C6-ED300C029446}">
-  <dimension ref="A1:Q27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B25A7254-1DD2-47F1-AC78-16C0A481862A}">
+  <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2251,49 +2256,43 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>1</v>
-      </c>
-      <c r="D10" s="7">
-        <v>649</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D10" s="7"/>
       <c r="E10" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="H10" s="7">
-        <v>1</v>
-      </c>
-      <c r="I10" s="7">
-        <v>671</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I10" s="7"/>
       <c r="J10" s="7" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="M10" s="7">
-        <v>2</v>
-      </c>
-      <c r="N10" s="7">
-        <v>1320</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N10" s="7"/>
       <c r="O10" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2302,49 +2301,43 @@
         <v>12</v>
       </c>
       <c r="C11" s="7">
-        <v>1</v>
-      </c>
-      <c r="D11" s="7">
-        <v>685</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D11" s="7"/>
       <c r="E11" s="7" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="H11" s="7">
-        <v>3</v>
-      </c>
-      <c r="I11" s="7">
-        <v>2133</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I11" s="7"/>
       <c r="J11" s="7" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="M11" s="7">
-        <v>4</v>
-      </c>
-      <c r="N11" s="7">
-        <v>2819</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N11" s="7"/>
       <c r="O11" s="7" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2353,49 +2346,43 @@
         <v>13</v>
       </c>
       <c r="C12" s="7">
-        <v>11</v>
-      </c>
-      <c r="D12" s="7">
-        <v>7251</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D12" s="7"/>
       <c r="E12" s="7" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="H12" s="7">
-        <v>15</v>
-      </c>
-      <c r="I12" s="7">
-        <v>10254</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I12" s="7"/>
       <c r="J12" s="7" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="M12" s="7">
-        <v>26</v>
-      </c>
-      <c r="N12" s="7">
-        <v>17506</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N12" s="7"/>
       <c r="O12" s="7" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2404,49 +2391,43 @@
         <v>14</v>
       </c>
       <c r="C13" s="7">
-        <v>42</v>
-      </c>
-      <c r="D13" s="7">
-        <v>28033</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D13" s="7"/>
       <c r="E13" s="7" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="H13" s="7">
-        <v>33</v>
-      </c>
-      <c r="I13" s="7">
-        <v>21564</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I13" s="7"/>
       <c r="J13" s="7" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="M13" s="7">
-        <v>75</v>
-      </c>
-      <c r="N13" s="7">
-        <v>49597</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N13" s="7"/>
       <c r="O13" s="7" t="s">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2455,49 +2436,43 @@
         <v>15</v>
       </c>
       <c r="C14" s="7">
-        <v>35</v>
-      </c>
-      <c r="D14" s="7">
-        <v>22450</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D14" s="7"/>
       <c r="E14" s="7" t="s">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="H14" s="7">
-        <v>21</v>
-      </c>
-      <c r="I14" s="7">
-        <v>14260</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I14" s="7"/>
       <c r="J14" s="7" t="s">
-        <v>53</v>
+        <v>11</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>55</v>
+        <v>11</v>
       </c>
       <c r="M14" s="7">
-        <v>56</v>
-      </c>
-      <c r="N14" s="7">
-        <v>36709</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N14" s="7"/>
       <c r="O14" s="7" t="s">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>57</v>
+        <v>11</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>58</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2506,102 +2481,96 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>90</v>
-      </c>
-      <c r="D15" s="7">
-        <v>59069</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D15" s="7"/>
       <c r="E15" s="7" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="H15" s="7">
-        <v>73</v>
-      </c>
-      <c r="I15" s="7">
-        <v>48882</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I15" s="7"/>
       <c r="J15" s="7" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="M15" s="7">
-        <v>163</v>
-      </c>
-      <c r="N15" s="7">
-        <v>107951</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N15" s="7"/>
       <c r="O15" s="7" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>60</v>
+        <v>17</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="D16" s="7">
-        <v>0</v>
+        <v>37043</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>18</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>61</v>
+        <v>19</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>62</v>
+        <v>20</v>
       </c>
       <c r="H16" s="7">
-        <v>2</v>
+        <v>65</v>
       </c>
       <c r="I16" s="7">
-        <v>1420</v>
+        <v>42712</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>63</v>
+        <v>21</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>64</v>
+        <v>23</v>
       </c>
       <c r="M16" s="7">
-        <v>2</v>
+        <v>122</v>
       </c>
       <c r="N16" s="7">
-        <v>1420</v>
+        <v>79755</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>65</v>
+        <v>24</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>66</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2610,49 +2579,49 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
-        <v>7</v>
+        <v>94</v>
       </c>
       <c r="D17" s="7">
-        <v>4650</v>
+        <v>63381</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H17" s="7">
         <v>67</v>
       </c>
-      <c r="F17" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="H17" s="7">
-        <v>7</v>
-      </c>
       <c r="I17" s="7">
-        <v>4705</v>
+        <v>44049</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>71</v>
+        <v>31</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>72</v>
+        <v>32</v>
       </c>
       <c r="M17" s="7">
-        <v>14</v>
+        <v>161</v>
       </c>
       <c r="N17" s="7">
-        <v>9355</v>
+        <v>107430</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>75</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2661,49 +2630,49 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
-        <v>84</v>
+        <v>31</v>
       </c>
       <c r="D18" s="7">
-        <v>56154</v>
+        <v>20445</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>77</v>
+        <v>37</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="H18" s="7">
-        <v>64</v>
+        <v>28</v>
       </c>
       <c r="I18" s="7">
-        <v>43711</v>
+        <v>19490</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="M18" s="7">
-        <v>148</v>
+        <v>59</v>
       </c>
       <c r="N18" s="7">
-        <v>99865</v>
+        <v>39935</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>82</v>
+        <v>42</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>83</v>
+        <v>43</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>84</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2712,49 +2681,49 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
-        <v>162</v>
+        <v>3</v>
       </c>
       <c r="D19" s="7">
-        <v>107376</v>
+        <v>1963</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>85</v>
+        <v>45</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>86</v>
+        <v>46</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>87</v>
+        <v>47</v>
       </c>
       <c r="H19" s="7">
-        <v>146</v>
+        <v>6</v>
       </c>
       <c r="I19" s="7">
-        <v>98040</v>
+        <v>4056</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>88</v>
+        <v>48</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>89</v>
+        <v>49</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="M19" s="7">
-        <v>308</v>
+        <v>9</v>
       </c>
       <c r="N19" s="7">
-        <v>205416</v>
+        <v>6019</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>91</v>
+        <v>51</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>92</v>
+        <v>52</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>93</v>
+        <v>53</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2763,49 +2732,49 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
-        <v>123</v>
+        <v>1</v>
       </c>
       <c r="D20" s="7">
-        <v>82330</v>
+        <v>649</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>94</v>
+        <v>54</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>95</v>
+        <v>55</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>96</v>
+        <v>56</v>
       </c>
       <c r="H20" s="7">
-        <v>140</v>
+        <v>2</v>
       </c>
       <c r="I20" s="7">
-        <v>93888</v>
+        <v>1404</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>97</v>
+        <v>57</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>98</v>
+        <v>55</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>99</v>
+        <v>58</v>
       </c>
       <c r="M20" s="7">
-        <v>263</v>
+        <v>3</v>
       </c>
       <c r="N20" s="7">
-        <v>176218</v>
+        <v>2053</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>100</v>
+        <v>59</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>101</v>
+        <v>60</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>102</v>
+        <v>61</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2814,102 +2783,102 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>376</v>
+        <v>186</v>
       </c>
       <c r="D21" s="7">
-        <v>250510</v>
+        <v>123481</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="H21" s="7">
-        <v>359</v>
+        <v>168</v>
       </c>
       <c r="I21" s="7">
-        <v>241764</v>
+        <v>111711</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="M21" s="7">
-        <v>735</v>
+        <v>354</v>
       </c>
       <c r="N21" s="7">
-        <v>492273</v>
+        <v>235192</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>63</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>1</v>
+        <v>101</v>
       </c>
       <c r="D22" s="7">
-        <v>649</v>
+        <v>67737</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>103</v>
+        <v>64</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>18</v>
+        <v>65</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>104</v>
+        <v>66</v>
       </c>
       <c r="H22" s="7">
-        <v>3</v>
+        <v>96</v>
       </c>
       <c r="I22" s="7">
-        <v>2091</v>
+        <v>65435</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>105</v>
+        <v>67</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>106</v>
+        <v>68</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>107</v>
+        <v>69</v>
       </c>
       <c r="M22" s="7">
-        <v>4</v>
+        <v>197</v>
       </c>
       <c r="N22" s="7">
-        <v>2740</v>
+        <v>133172</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>108</v>
+        <v>70</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>109</v>
+        <v>71</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2918,49 +2887,49 @@
         <v>12</v>
       </c>
       <c r="C23" s="7">
-        <v>8</v>
+        <v>110</v>
       </c>
       <c r="D23" s="7">
-        <v>5335</v>
+        <v>72028</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>110</v>
+        <v>73</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>111</v>
+        <v>74</v>
       </c>
       <c r="G23" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="H23" s="7">
         <v>112</v>
       </c>
-      <c r="H23" s="7">
-        <v>10</v>
-      </c>
       <c r="I23" s="7">
-        <v>6838</v>
+        <v>75555</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>113</v>
+        <v>76</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>114</v>
+        <v>77</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>115</v>
+        <v>78</v>
       </c>
       <c r="M23" s="7">
-        <v>18</v>
+        <v>222</v>
       </c>
       <c r="N23" s="7">
-        <v>12173</v>
+        <v>147583</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>116</v>
+        <v>34</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>117</v>
+        <v>70</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>118</v>
+        <v>79</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2969,49 +2938,49 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
-        <v>95</v>
+        <v>64</v>
       </c>
       <c r="D24" s="7">
-        <v>63405</v>
+        <v>42960</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>119</v>
+        <v>80</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>120</v>
+        <v>81</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>121</v>
+        <v>82</v>
       </c>
       <c r="H24" s="7">
-        <v>79</v>
+        <v>51</v>
       </c>
       <c r="I24" s="7">
-        <v>53965</v>
+        <v>34476</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>122</v>
+        <v>83</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>123</v>
+        <v>84</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>124</v>
+        <v>85</v>
       </c>
       <c r="M24" s="7">
-        <v>174</v>
+        <v>115</v>
       </c>
       <c r="N24" s="7">
-        <v>117370</v>
+        <v>77436</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>125</v>
+        <v>86</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>126</v>
+        <v>87</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>127</v>
+        <v>88</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3020,49 +2989,49 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
-        <v>204</v>
+        <v>5</v>
       </c>
       <c r="D25" s="7">
-        <v>135409</v>
+        <v>3372</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>128</v>
+        <v>89</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>129</v>
+        <v>90</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>130</v>
+        <v>91</v>
       </c>
       <c r="H25" s="7">
-        <v>179</v>
+        <v>4</v>
       </c>
       <c r="I25" s="7">
-        <v>119604</v>
+        <v>2782</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>131</v>
+        <v>92</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>132</v>
+        <v>90</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>133</v>
+        <v>93</v>
       </c>
       <c r="M25" s="7">
-        <v>383</v>
+        <v>9</v>
       </c>
       <c r="N25" s="7">
-        <v>255014</v>
+        <v>6155</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>134</v>
+        <v>94</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>135</v>
+        <v>95</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>136</v>
+        <v>96</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3071,49 +3040,49 @@
         <v>15</v>
       </c>
       <c r="C26" s="7">
-        <v>158</v>
+        <v>0</v>
       </c>
       <c r="D26" s="7">
-        <v>104779</v>
+        <v>0</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>137</v>
+        <v>55</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>138</v>
+        <v>97</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>139</v>
+        <v>98</v>
       </c>
       <c r="H26" s="7">
-        <v>161</v>
+        <v>1</v>
       </c>
       <c r="I26" s="7">
-        <v>108148</v>
+        <v>687</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>140</v>
+        <v>99</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>141</v>
+        <v>55</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>142</v>
+        <v>100</v>
       </c>
       <c r="M26" s="7">
-        <v>319</v>
+        <v>1</v>
       </c>
       <c r="N26" s="7">
-        <v>212927</v>
+        <v>687</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>143</v>
+        <v>101</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>144</v>
+        <v>55</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>145</v>
+        <v>102</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3122,55 +3091,369 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>280</v>
+      </c>
+      <c r="D27" s="7">
+        <v>186097</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="H27" s="7">
+        <v>264</v>
+      </c>
+      <c r="I27" s="7">
+        <v>178935</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="M27" s="7">
+        <v>544</v>
+      </c>
+      <c r="N27" s="7">
+        <v>365032</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="7">
+        <v>158</v>
+      </c>
+      <c r="D28" s="7">
+        <v>104779</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="H28" s="7">
+        <v>161</v>
+      </c>
+      <c r="I28" s="7">
+        <v>108148</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="L28" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="M28" s="7">
+        <v>319</v>
+      </c>
+      <c r="N28" s="7">
+        <v>212927</v>
+      </c>
+      <c r="O28" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q28" s="7" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A29" s="1"/>
+      <c r="B29" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" s="7">
+        <v>204</v>
+      </c>
+      <c r="D29" s="7">
+        <v>135409</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="H29" s="7">
+        <v>179</v>
+      </c>
+      <c r="I29" s="7">
+        <v>119604</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="L29" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="M29" s="7">
+        <v>383</v>
+      </c>
+      <c r="N29" s="7">
+        <v>255014</v>
+      </c>
+      <c r="O29" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q29" s="7" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A30" s="1"/>
+      <c r="B30" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" s="7">
+        <v>95</v>
+      </c>
+      <c r="D30" s="7">
+        <v>63405</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="H30" s="7">
+        <v>79</v>
+      </c>
+      <c r="I30" s="7">
+        <v>53965</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="L30" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="M30" s="7">
+        <v>174</v>
+      </c>
+      <c r="N30" s="7">
+        <v>117370</v>
+      </c>
+      <c r="O30" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q30" s="7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A31" s="1"/>
+      <c r="B31" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" s="7">
+        <v>8</v>
+      </c>
+      <c r="D31" s="7">
+        <v>5335</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="H31" s="7">
+        <v>10</v>
+      </c>
+      <c r="I31" s="7">
+        <v>6838</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="M31" s="7">
+        <v>18</v>
+      </c>
+      <c r="N31" s="7">
+        <v>12173</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q31" s="7" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="1"/>
+      <c r="B32" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C32" s="7">
+        <v>1</v>
+      </c>
+      <c r="D32" s="7">
+        <v>649</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="H32" s="7">
+        <v>3</v>
+      </c>
+      <c r="I32" s="7">
+        <v>2091</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="M32" s="7">
+        <v>4</v>
+      </c>
+      <c r="N32" s="7">
+        <v>2740</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q32" s="7" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33" s="7">
         <v>466</v>
       </c>
-      <c r="D27" s="7">
+      <c r="D33" s="7">
         <v>309578</v>
       </c>
-      <c r="E27" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="H27" s="7">
+      <c r="E33" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="H33" s="7">
         <v>432</v>
       </c>
-      <c r="I27" s="7">
+      <c r="I33" s="7">
         <v>290646</v>
       </c>
-      <c r="J27" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="M27" s="7">
+      <c r="J33" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="M33" s="7">
         <v>898</v>
       </c>
-      <c r="N27" s="7">
+      <c r="N33" s="7">
         <v>600224</v>
       </c>
-      <c r="O27" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>59</v>
+      <c r="O33" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q33" s="7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>145</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A16:A21"/>
     <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A28:A33"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3183,8 +3466,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBA287A5-AEE7-438C-9829-B3573EB9B256}">
-  <dimension ref="A1:Q27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{963C807B-B128-4A22-A842-C65289ABF873}">
+  <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3575,47 +3858,41 @@
       <c r="C10" s="7">
         <v>0</v>
       </c>
-      <c r="D10" s="7">
-        <v>0</v>
-      </c>
+      <c r="D10" s="7"/>
       <c r="E10" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>61</v>
+        <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>147</v>
+        <v>11</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
       </c>
-      <c r="I10" s="7">
-        <v>0</v>
-      </c>
+      <c r="I10" s="7"/>
       <c r="J10" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>61</v>
+        <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>148</v>
+        <v>11</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
       </c>
-      <c r="N10" s="7">
-        <v>0</v>
-      </c>
+      <c r="N10" s="7"/>
       <c r="O10" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>61</v>
+        <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>149</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3624,49 +3901,43 @@
         <v>12</v>
       </c>
       <c r="C11" s="7">
-        <v>4</v>
-      </c>
-      <c r="D11" s="7">
-        <v>2825</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D11" s="7"/>
       <c r="E11" s="7" t="s">
-        <v>150</v>
+        <v>11</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>74</v>
+        <v>11</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>151</v>
+        <v>11</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
       </c>
-      <c r="I11" s="7">
-        <v>0</v>
-      </c>
+      <c r="I11" s="7"/>
       <c r="J11" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>61</v>
+        <v>11</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>148</v>
+        <v>11</v>
       </c>
       <c r="M11" s="7">
-        <v>4</v>
-      </c>
-      <c r="N11" s="7">
-        <v>2825</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N11" s="7"/>
       <c r="O11" s="7" t="s">
-        <v>152</v>
+        <v>11</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>153</v>
+        <v>11</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>154</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3675,49 +3946,43 @@
         <v>13</v>
       </c>
       <c r="C12" s="7">
-        <v>12</v>
-      </c>
-      <c r="D12" s="7">
-        <v>8338</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D12" s="7"/>
       <c r="E12" s="7" t="s">
-        <v>155</v>
+        <v>11</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>156</v>
+        <v>11</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>157</v>
+        <v>11</v>
       </c>
       <c r="H12" s="7">
-        <v>14</v>
-      </c>
-      <c r="I12" s="7">
-        <v>9941</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I12" s="7"/>
       <c r="J12" s="7" t="s">
-        <v>158</v>
+        <v>11</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>159</v>
+        <v>11</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>160</v>
+        <v>11</v>
       </c>
       <c r="M12" s="7">
-        <v>26</v>
-      </c>
-      <c r="N12" s="7">
-        <v>18279</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N12" s="7"/>
       <c r="O12" s="7" t="s">
-        <v>161</v>
+        <v>11</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>162</v>
+        <v>11</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>163</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3726,49 +3991,43 @@
         <v>14</v>
       </c>
       <c r="C13" s="7">
-        <v>39</v>
-      </c>
-      <c r="D13" s="7">
-        <v>28275</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D13" s="7"/>
       <c r="E13" s="7" t="s">
-        <v>164</v>
+        <v>11</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>165</v>
+        <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>166</v>
+        <v>11</v>
       </c>
       <c r="H13" s="7">
-        <v>44</v>
-      </c>
-      <c r="I13" s="7">
-        <v>31145</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I13" s="7"/>
       <c r="J13" s="7" t="s">
-        <v>167</v>
+        <v>11</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>168</v>
+        <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>169</v>
+        <v>11</v>
       </c>
       <c r="M13" s="7">
-        <v>83</v>
-      </c>
-      <c r="N13" s="7">
-        <v>59421</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N13" s="7"/>
       <c r="O13" s="7" t="s">
-        <v>99</v>
+        <v>11</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>170</v>
+        <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>171</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3777,49 +4036,43 @@
         <v>15</v>
       </c>
       <c r="C14" s="7">
-        <v>36</v>
-      </c>
-      <c r="D14" s="7">
-        <v>25812</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D14" s="7"/>
       <c r="E14" s="7" t="s">
-        <v>172</v>
+        <v>11</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>173</v>
+        <v>11</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>174</v>
+        <v>11</v>
       </c>
       <c r="H14" s="7">
-        <v>40</v>
-      </c>
-      <c r="I14" s="7">
-        <v>28282</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I14" s="7"/>
       <c r="J14" s="7" t="s">
-        <v>175</v>
+        <v>11</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>176</v>
+        <v>11</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>177</v>
+        <v>11</v>
       </c>
       <c r="M14" s="7">
-        <v>76</v>
-      </c>
-      <c r="N14" s="7">
-        <v>54094</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N14" s="7"/>
       <c r="O14" s="7" t="s">
-        <v>178</v>
+        <v>11</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>179</v>
+        <v>11</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>180</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3828,102 +4081,96 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>91</v>
-      </c>
-      <c r="D15" s="7">
-        <v>65250</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D15" s="7"/>
       <c r="E15" s="7" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="H15" s="7">
-        <v>98</v>
-      </c>
-      <c r="I15" s="7">
-        <v>69368</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I15" s="7"/>
       <c r="J15" s="7" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="M15" s="7">
-        <v>189</v>
-      </c>
-      <c r="N15" s="7">
-        <v>134619</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N15" s="7"/>
       <c r="O15" s="7" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>60</v>
+        <v>17</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>2</v>
+        <v>93</v>
       </c>
       <c r="D16" s="7">
-        <v>1321</v>
+        <v>63757</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>62</v>
+        <v>147</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>18</v>
+        <v>148</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>181</v>
+        <v>149</v>
       </c>
       <c r="H16" s="7">
-        <v>1</v>
+        <v>101</v>
       </c>
       <c r="I16" s="7">
-        <v>678</v>
+        <v>70544</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>182</v>
+        <v>150</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>18</v>
+        <v>151</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>183</v>
+        <v>152</v>
       </c>
       <c r="M16" s="7">
-        <v>3</v>
+        <v>194</v>
       </c>
       <c r="N16" s="7">
-        <v>1999</v>
+        <v>134300</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>184</v>
+        <v>153</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>185</v>
+        <v>154</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>186</v>
+        <v>155</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3932,49 +4179,49 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
-        <v>5</v>
+        <v>88</v>
       </c>
       <c r="D17" s="7">
-        <v>3191</v>
+        <v>62327</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>187</v>
+        <v>156</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>188</v>
+        <v>157</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>189</v>
+        <v>158</v>
       </c>
       <c r="H17" s="7">
-        <v>6</v>
+        <v>79</v>
       </c>
       <c r="I17" s="7">
-        <v>4214</v>
+        <v>55767</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>190</v>
+        <v>159</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>191</v>
+        <v>160</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>192</v>
+        <v>161</v>
       </c>
       <c r="M17" s="7">
-        <v>11</v>
+        <v>167</v>
       </c>
       <c r="N17" s="7">
-        <v>7406</v>
+        <v>118093</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>193</v>
+        <v>162</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>194</v>
+        <v>163</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>195</v>
+        <v>164</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3983,49 +4230,49 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
-        <v>63</v>
+        <v>36</v>
       </c>
       <c r="D18" s="7">
-        <v>41847</v>
+        <v>24938</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>196</v>
+        <v>165</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>197</v>
+        <v>166</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>198</v>
+        <v>167</v>
       </c>
       <c r="H18" s="7">
-        <v>69</v>
+        <v>34</v>
       </c>
       <c r="I18" s="7">
-        <v>48518</v>
+        <v>23654</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>199</v>
+        <v>168</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>200</v>
+        <v>169</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>201</v>
+        <v>170</v>
       </c>
       <c r="M18" s="7">
-        <v>132</v>
+        <v>70</v>
       </c>
       <c r="N18" s="7">
-        <v>90365</v>
+        <v>48592</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>202</v>
+        <v>171</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>203</v>
+        <v>172</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>204</v>
+        <v>173</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4034,49 +4281,49 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
-        <v>145</v>
+        <v>5</v>
       </c>
       <c r="D19" s="7">
-        <v>99728</v>
+        <v>3482</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>205</v>
+        <v>174</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>206</v>
+        <v>175</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>207</v>
+        <v>176</v>
       </c>
       <c r="H19" s="7">
-        <v>123</v>
+        <v>0</v>
       </c>
       <c r="I19" s="7">
-        <v>86207</v>
+        <v>0</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>208</v>
+        <v>55</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>209</v>
+        <v>97</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>210</v>
+        <v>177</v>
       </c>
       <c r="M19" s="7">
-        <v>268</v>
+        <v>5</v>
       </c>
       <c r="N19" s="7">
-        <v>185935</v>
+        <v>3482</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>211</v>
+        <v>178</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>212</v>
+        <v>179</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>213</v>
+        <v>180</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4085,49 +4332,49 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
-        <v>167</v>
+        <v>0</v>
       </c>
       <c r="D20" s="7">
-        <v>113817</v>
+        <v>0</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>214</v>
+        <v>55</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>215</v>
+        <v>97</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>216</v>
+        <v>175</v>
       </c>
       <c r="H20" s="7">
-        <v>147</v>
+        <v>0</v>
       </c>
       <c r="I20" s="7">
-        <v>103188</v>
+        <v>0</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>217</v>
+        <v>55</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>170</v>
+        <v>97</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>218</v>
+        <v>177</v>
       </c>
       <c r="M20" s="7">
-        <v>314</v>
+        <v>0</v>
       </c>
       <c r="N20" s="7">
-        <v>217005</v>
+        <v>0</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>219</v>
+        <v>55</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>220</v>
+        <v>97</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>221</v>
+        <v>179</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4136,102 +4383,102 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>382</v>
+        <v>222</v>
       </c>
       <c r="D21" s="7">
-        <v>259904</v>
+        <v>154504</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="H21" s="7">
-        <v>346</v>
+        <v>214</v>
       </c>
       <c r="I21" s="7">
-        <v>242806</v>
+        <v>149965</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="M21" s="7">
-        <v>728</v>
+        <v>436</v>
       </c>
       <c r="N21" s="7">
-        <v>502710</v>
+        <v>304468</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>63</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>2</v>
+        <v>110</v>
       </c>
       <c r="D22" s="7">
-        <v>1321</v>
+        <v>75872</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>222</v>
+        <v>181</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>18</v>
+        <v>182</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>223</v>
+        <v>183</v>
       </c>
       <c r="H22" s="7">
-        <v>1</v>
+        <v>86</v>
       </c>
       <c r="I22" s="7">
-        <v>678</v>
+        <v>60926</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>224</v>
+        <v>184</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>18</v>
+        <v>185</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>225</v>
+        <v>186</v>
       </c>
       <c r="M22" s="7">
-        <v>3</v>
+        <v>196</v>
       </c>
       <c r="N22" s="7">
-        <v>1999</v>
+        <v>136798</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>226</v>
+        <v>187</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>227</v>
+        <v>188</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>111</v>
+        <v>189</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4240,49 +4487,49 @@
         <v>12</v>
       </c>
       <c r="C23" s="7">
-        <v>9</v>
+        <v>96</v>
       </c>
       <c r="D23" s="7">
-        <v>6016</v>
+        <v>65677</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>228</v>
+        <v>190</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>229</v>
+        <v>191</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>230</v>
+        <v>192</v>
       </c>
       <c r="H23" s="7">
-        <v>6</v>
+        <v>88</v>
       </c>
       <c r="I23" s="7">
-        <v>4214</v>
+        <v>61586</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>231</v>
+        <v>193</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>232</v>
+        <v>194</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>233</v>
+        <v>195</v>
       </c>
       <c r="M23" s="7">
-        <v>15</v>
+        <v>184</v>
       </c>
       <c r="N23" s="7">
-        <v>10231</v>
+        <v>127263</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>234</v>
+        <v>21</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>235</v>
+        <v>196</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>236</v>
+        <v>197</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4291,49 +4538,49 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
-        <v>75</v>
+        <v>39</v>
       </c>
       <c r="D24" s="7">
-        <v>50186</v>
+        <v>25248</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>237</v>
+        <v>198</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>238</v>
+        <v>199</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>239</v>
+        <v>83</v>
       </c>
       <c r="H24" s="7">
-        <v>83</v>
+        <v>49</v>
       </c>
       <c r="I24" s="7">
-        <v>58459</v>
+        <v>34805</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>241</v>
+        <v>201</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>242</v>
+        <v>202</v>
       </c>
       <c r="M24" s="7">
-        <v>158</v>
+        <v>88</v>
       </c>
       <c r="N24" s="7">
-        <v>108645</v>
+        <v>60053</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>243</v>
+        <v>203</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>244</v>
+        <v>204</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>245</v>
+        <v>205</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4342,49 +4589,49 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
-        <v>184</v>
+        <v>4</v>
       </c>
       <c r="D25" s="7">
-        <v>128004</v>
+        <v>2534</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>246</v>
+        <v>206</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>247</v>
+        <v>207</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>248</v>
+        <v>93</v>
       </c>
       <c r="H25" s="7">
-        <v>167</v>
+        <v>6</v>
       </c>
       <c r="I25" s="7">
-        <v>117353</v>
+        <v>4214</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>249</v>
+        <v>208</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>250</v>
+        <v>209</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>251</v>
+        <v>210</v>
       </c>
       <c r="M25" s="7">
-        <v>351</v>
+        <v>10</v>
       </c>
       <c r="N25" s="7">
-        <v>245356</v>
+        <v>6748</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>252</v>
+        <v>135</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>253</v>
+        <v>211</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>254</v>
+        <v>212</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4393,49 +4640,49 @@
         <v>15</v>
       </c>
       <c r="C26" s="7">
-        <v>203</v>
+        <v>2</v>
       </c>
       <c r="D26" s="7">
-        <v>139629</v>
+        <v>1321</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>255</v>
+        <v>213</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>256</v>
+        <v>55</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>257</v>
+        <v>214</v>
       </c>
       <c r="H26" s="7">
-        <v>187</v>
+        <v>1</v>
       </c>
       <c r="I26" s="7">
-        <v>131470</v>
+        <v>678</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>258</v>
+        <v>215</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>259</v>
+        <v>55</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>260</v>
+        <v>216</v>
       </c>
       <c r="M26" s="7">
-        <v>390</v>
+        <v>3</v>
       </c>
       <c r="N26" s="7">
-        <v>271098</v>
+        <v>1999</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>261</v>
+        <v>217</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>262</v>
+        <v>101</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>263</v>
+        <v>218</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4444,55 +4691,369 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>251</v>
+      </c>
+      <c r="D27" s="7">
+        <v>170651</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="H27" s="7">
+        <v>230</v>
+      </c>
+      <c r="I27" s="7">
+        <v>162209</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="M27" s="7">
+        <v>481</v>
+      </c>
+      <c r="N27" s="7">
+        <v>332861</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="7">
+        <v>203</v>
+      </c>
+      <c r="D28" s="7">
+        <v>139629</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="H28" s="7">
+        <v>187</v>
+      </c>
+      <c r="I28" s="7">
+        <v>131470</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="L28" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="M28" s="7">
+        <v>390</v>
+      </c>
+      <c r="N28" s="7">
+        <v>271098</v>
+      </c>
+      <c r="O28" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="Q28" s="7" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A29" s="1"/>
+      <c r="B29" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" s="7">
+        <v>184</v>
+      </c>
+      <c r="D29" s="7">
+        <v>128004</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="H29" s="7">
+        <v>167</v>
+      </c>
+      <c r="I29" s="7">
+        <v>117353</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="L29" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="M29" s="7">
+        <v>351</v>
+      </c>
+      <c r="N29" s="7">
+        <v>245356</v>
+      </c>
+      <c r="O29" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="Q29" s="7" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A30" s="1"/>
+      <c r="B30" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" s="7">
+        <v>75</v>
+      </c>
+      <c r="D30" s="7">
+        <v>50186</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="H30" s="7">
+        <v>83</v>
+      </c>
+      <c r="I30" s="7">
+        <v>58459</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="L30" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="M30" s="7">
+        <v>158</v>
+      </c>
+      <c r="N30" s="7">
+        <v>108645</v>
+      </c>
+      <c r="O30" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="Q30" s="7" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A31" s="1"/>
+      <c r="B31" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" s="7">
+        <v>9</v>
+      </c>
+      <c r="D31" s="7">
+        <v>6016</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="H31" s="7">
+        <v>6</v>
+      </c>
+      <c r="I31" s="7">
+        <v>4214</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="M31" s="7">
+        <v>15</v>
+      </c>
+      <c r="N31" s="7">
+        <v>10231</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q31" s="7" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="1"/>
+      <c r="B32" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C32" s="7">
+        <v>2</v>
+      </c>
+      <c r="D32" s="7">
+        <v>1321</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="H32" s="7">
+        <v>1</v>
+      </c>
+      <c r="I32" s="7">
+        <v>678</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="M32" s="7">
+        <v>3</v>
+      </c>
+      <c r="N32" s="7">
+        <v>1999</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="Q32" s="7" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33" s="7">
         <v>473</v>
       </c>
-      <c r="D27" s="7">
+      <c r="D33" s="7">
         <v>325155</v>
       </c>
-      <c r="E27" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="H27" s="7">
+      <c r="E33" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="H33" s="7">
         <v>444</v>
       </c>
-      <c r="I27" s="7">
+      <c r="I33" s="7">
         <v>312174</v>
       </c>
-      <c r="J27" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="M27" s="7">
+      <c r="J33" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="M33" s="7">
         <v>917</v>
       </c>
-      <c r="N27" s="7">
+      <c r="N33" s="7">
         <v>637329</v>
       </c>
-      <c r="O27" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>59</v>
+      <c r="O33" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q33" s="7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>145</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A16:A21"/>
     <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A28:A33"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4505,8 +5066,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{857CE520-3291-45C2-AC76-FA7C04F7E2ED}">
-  <dimension ref="A1:Q27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B98BC26D-B54E-45F6-8560-8DAD6237F386}">
+  <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4522,7 +5083,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4897,47 +5458,41 @@
       <c r="C10" s="7">
         <v>0</v>
       </c>
-      <c r="D10" s="7">
-        <v>0</v>
-      </c>
+      <c r="D10" s="7"/>
       <c r="E10" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>61</v>
+        <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>190</v>
+        <v>11</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
       </c>
-      <c r="I10" s="7">
-        <v>0</v>
-      </c>
+      <c r="I10" s="7"/>
       <c r="J10" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>61</v>
+        <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>265</v>
+        <v>11</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
       </c>
-      <c r="N10" s="7">
-        <v>0</v>
-      </c>
+      <c r="N10" s="7"/>
       <c r="O10" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>61</v>
+        <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>266</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4946,49 +5501,43 @@
         <v>12</v>
       </c>
       <c r="C11" s="7">
-        <v>2</v>
-      </c>
-      <c r="D11" s="7">
-        <v>1518</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D11" s="7"/>
       <c r="E11" s="7" t="s">
-        <v>267</v>
+        <v>11</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>268</v>
+        <v>11</v>
       </c>
       <c r="H11" s="7">
-        <v>1</v>
-      </c>
-      <c r="I11" s="7">
-        <v>573</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I11" s="7"/>
       <c r="J11" s="7" t="s">
-        <v>269</v>
+        <v>11</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>270</v>
+        <v>11</v>
       </c>
       <c r="M11" s="7">
-        <v>3</v>
-      </c>
-      <c r="N11" s="7">
-        <v>2090</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N11" s="7"/>
       <c r="O11" s="7" t="s">
-        <v>117</v>
+        <v>11</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>271</v>
+        <v>11</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>272</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4997,49 +5546,43 @@
         <v>13</v>
       </c>
       <c r="C12" s="7">
-        <v>18</v>
-      </c>
-      <c r="D12" s="7">
-        <v>12640</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D12" s="7"/>
       <c r="E12" s="7" t="s">
-        <v>273</v>
+        <v>11</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>274</v>
+        <v>11</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>275</v>
+        <v>11</v>
       </c>
       <c r="H12" s="7">
-        <v>20</v>
-      </c>
-      <c r="I12" s="7">
-        <v>13626</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I12" s="7"/>
       <c r="J12" s="7" t="s">
-        <v>276</v>
+        <v>11</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>277</v>
+        <v>11</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>278</v>
+        <v>11</v>
       </c>
       <c r="M12" s="7">
-        <v>38</v>
-      </c>
-      <c r="N12" s="7">
-        <v>26266</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N12" s="7"/>
       <c r="O12" s="7" t="s">
-        <v>279</v>
+        <v>11</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>280</v>
+        <v>11</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>281</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5048,49 +5591,43 @@
         <v>14</v>
       </c>
       <c r="C13" s="7">
-        <v>45</v>
-      </c>
-      <c r="D13" s="7">
-        <v>31102</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D13" s="7"/>
       <c r="E13" s="7" t="s">
-        <v>282</v>
+        <v>11</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>283</v>
+        <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>284</v>
+        <v>11</v>
       </c>
       <c r="H13" s="7">
-        <v>62</v>
-      </c>
-      <c r="I13" s="7">
-        <v>40345</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I13" s="7"/>
       <c r="J13" s="7" t="s">
-        <v>285</v>
+        <v>11</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>286</v>
+        <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>287</v>
+        <v>11</v>
       </c>
       <c r="M13" s="7">
-        <v>107</v>
-      </c>
-      <c r="N13" s="7">
-        <v>71447</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N13" s="7"/>
       <c r="O13" s="7" t="s">
-        <v>288</v>
+        <v>11</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>289</v>
+        <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>290</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5099,49 +5636,43 @@
         <v>15</v>
       </c>
       <c r="C14" s="7">
-        <v>44</v>
-      </c>
-      <c r="D14" s="7">
-        <v>29954</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D14" s="7"/>
       <c r="E14" s="7" t="s">
-        <v>291</v>
+        <v>11</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>292</v>
+        <v>11</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>293</v>
+        <v>11</v>
       </c>
       <c r="H14" s="7">
-        <v>48</v>
-      </c>
-      <c r="I14" s="7">
-        <v>32511</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I14" s="7"/>
       <c r="J14" s="7" t="s">
-        <v>294</v>
+        <v>11</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>295</v>
+        <v>11</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>296</v>
+        <v>11</v>
       </c>
       <c r="M14" s="7">
-        <v>92</v>
-      </c>
-      <c r="N14" s="7">
-        <v>62465</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N14" s="7"/>
       <c r="O14" s="7" t="s">
-        <v>297</v>
+        <v>11</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>298</v>
+        <v>11</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>299</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5150,102 +5681,96 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>109</v>
-      </c>
-      <c r="D15" s="7">
-        <v>75213</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D15" s="7"/>
       <c r="E15" s="7" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="H15" s="7">
-        <v>131</v>
-      </c>
-      <c r="I15" s="7">
-        <v>87055</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I15" s="7"/>
       <c r="J15" s="7" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="M15" s="7">
-        <v>240</v>
-      </c>
-      <c r="N15" s="7">
-        <v>162268</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N15" s="7"/>
       <c r="O15" s="7" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>60</v>
+        <v>17</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>0</v>
+        <v>97</v>
       </c>
       <c r="D16" s="7">
-        <v>0</v>
+        <v>68336</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>18</v>
+        <v>261</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>61</v>
+        <v>262</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>232</v>
+        <v>263</v>
       </c>
       <c r="H16" s="7">
-        <v>3</v>
+        <v>94</v>
       </c>
       <c r="I16" s="7">
-        <v>2067</v>
+        <v>64750</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>266</v>
       </c>
-      <c r="K16" s="7" t="s">
-        <v>300</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>301</v>
-      </c>
       <c r="M16" s="7">
-        <v>3</v>
+        <v>191</v>
       </c>
       <c r="N16" s="7">
-        <v>2067</v>
+        <v>133086</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>302</v>
+        <v>267</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>303</v>
+        <v>268</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>304</v>
+        <v>269</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5254,49 +5779,49 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
-        <v>9</v>
+        <v>108</v>
       </c>
       <c r="D17" s="7">
-        <v>7207</v>
+        <v>77147</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>305</v>
+        <v>270</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>306</v>
+        <v>271</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>307</v>
+        <v>272</v>
       </c>
       <c r="H17" s="7">
-        <v>5</v>
+        <v>123</v>
       </c>
       <c r="I17" s="7">
-        <v>3382</v>
+        <v>86082</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>308</v>
+        <v>273</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>309</v>
+        <v>274</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>310</v>
+        <v>275</v>
       </c>
       <c r="M17" s="7">
-        <v>14</v>
+        <v>231</v>
       </c>
       <c r="N17" s="7">
-        <v>10589</v>
+        <v>163230</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>311</v>
+        <v>276</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>17</v>
+        <v>277</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>270</v>
+        <v>278</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5305,49 +5830,49 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="D18" s="7">
-        <v>35208</v>
+        <v>27066</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>312</v>
+        <v>279</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>313</v>
+        <v>280</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>314</v>
+        <v>281</v>
       </c>
       <c r="H18" s="7">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="I18" s="7">
-        <v>47223</v>
+        <v>28711</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>315</v>
+        <v>282</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>316</v>
+        <v>283</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>317</v>
+        <v>284</v>
       </c>
       <c r="M18" s="7">
-        <v>113</v>
+        <v>77</v>
       </c>
       <c r="N18" s="7">
-        <v>82431</v>
+        <v>55777</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>318</v>
+        <v>285</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>319</v>
+        <v>286</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>320</v>
+        <v>287</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5356,49 +5881,49 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
-        <v>183</v>
+        <v>5</v>
       </c>
       <c r="D19" s="7">
-        <v>134388</v>
+        <v>4121</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>321</v>
+        <v>100</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>322</v>
+        <v>59</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>323</v>
+        <v>288</v>
       </c>
       <c r="H19" s="7">
-        <v>166</v>
+        <v>2</v>
       </c>
       <c r="I19" s="7">
-        <v>120179</v>
+        <v>1344</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>324</v>
+        <v>289</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>325</v>
+        <v>55</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>326</v>
+        <v>180</v>
       </c>
       <c r="M19" s="7">
-        <v>349</v>
+        <v>7</v>
       </c>
       <c r="N19" s="7">
-        <v>254567</v>
+        <v>5465</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>87</v>
+        <v>290</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>327</v>
+        <v>291</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>328</v>
+        <v>292</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5407,49 +5932,49 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
-        <v>128</v>
+        <v>0</v>
       </c>
       <c r="D20" s="7">
-        <v>95246</v>
+        <v>0</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>329</v>
+        <v>55</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>330</v>
+        <v>97</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>291</v>
+        <v>213</v>
       </c>
       <c r="H20" s="7">
-        <v>123</v>
+        <v>0</v>
       </c>
       <c r="I20" s="7">
-        <v>85788</v>
+        <v>0</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>331</v>
+        <v>55</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>51</v>
+        <v>97</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>332</v>
+        <v>289</v>
       </c>
       <c r="M20" s="7">
-        <v>251</v>
+        <v>0</v>
       </c>
       <c r="N20" s="7">
-        <v>181034</v>
+        <v>0</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>333</v>
+        <v>55</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>334</v>
+        <v>97</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>335</v>
+        <v>99</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5458,102 +5983,102 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>368</v>
+        <v>247</v>
       </c>
       <c r="D21" s="7">
-        <v>272049</v>
+        <v>176671</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="H21" s="7">
-        <v>362</v>
+        <v>259</v>
       </c>
       <c r="I21" s="7">
-        <v>258639</v>
+        <v>180887</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="M21" s="7">
-        <v>730</v>
+        <v>506</v>
       </c>
       <c r="N21" s="7">
-        <v>530688</v>
+        <v>357558</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>63</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="D22" s="7">
-        <v>0</v>
+        <v>56864</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>18</v>
+        <v>293</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>61</v>
+        <v>294</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>184</v>
+        <v>295</v>
       </c>
       <c r="H22" s="7">
-        <v>3</v>
+        <v>77</v>
       </c>
       <c r="I22" s="7">
-        <v>2067</v>
+        <v>53549</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>336</v>
+        <v>296</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>337</v>
+        <v>297</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>338</v>
+        <v>111</v>
       </c>
       <c r="M22" s="7">
-        <v>3</v>
+        <v>152</v>
       </c>
       <c r="N22" s="7">
-        <v>2067</v>
+        <v>110413</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>339</v>
+        <v>298</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>340</v>
+        <v>299</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>341</v>
+        <v>300</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5562,49 +6087,49 @@
         <v>12</v>
       </c>
       <c r="C23" s="7">
-        <v>11</v>
+        <v>120</v>
       </c>
       <c r="D23" s="7">
-        <v>8725</v>
+        <v>88343</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>342</v>
+        <v>301</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>343</v>
+        <v>302</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>344</v>
+        <v>303</v>
       </c>
       <c r="H23" s="7">
-        <v>6</v>
+        <v>105</v>
       </c>
       <c r="I23" s="7">
-        <v>3955</v>
+        <v>74442</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>345</v>
+        <v>304</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>346</v>
+        <v>305</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>347</v>
+        <v>306</v>
       </c>
       <c r="M23" s="7">
-        <v>17</v>
+        <v>225</v>
       </c>
       <c r="N23" s="7">
-        <v>12680</v>
+        <v>162785</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>348</v>
+        <v>307</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>349</v>
+        <v>230</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>350</v>
+        <v>308</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5613,49 +6138,49 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="D24" s="7">
-        <v>47848</v>
+        <v>20781</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>351</v>
+        <v>309</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>352</v>
+        <v>310</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>353</v>
+        <v>42</v>
       </c>
       <c r="H24" s="7">
-        <v>85</v>
+        <v>45</v>
       </c>
       <c r="I24" s="7">
-        <v>60849</v>
+        <v>32139</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>354</v>
+        <v>311</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>355</v>
+        <v>312</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>356</v>
+        <v>313</v>
       </c>
       <c r="M24" s="7">
-        <v>151</v>
+        <v>74</v>
       </c>
       <c r="N24" s="7">
-        <v>108697</v>
+        <v>52920</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>357</v>
+        <v>314</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>358</v>
+        <v>315</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>359</v>
+        <v>316</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5664,49 +6189,49 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
-        <v>228</v>
+        <v>6</v>
       </c>
       <c r="D25" s="7">
-        <v>165490</v>
+        <v>4604</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>360</v>
+        <v>317</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>361</v>
+        <v>318</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>362</v>
+        <v>319</v>
       </c>
       <c r="H25" s="7">
-        <v>228</v>
+        <v>4</v>
       </c>
       <c r="I25" s="7">
-        <v>160524</v>
+        <v>2610</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>363</v>
+        <v>320</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>364</v>
+        <v>90</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>365</v>
+        <v>321</v>
       </c>
       <c r="M25" s="7">
-        <v>456</v>
+        <v>10</v>
       </c>
       <c r="N25" s="7">
-        <v>326015</v>
+        <v>7214</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>366</v>
+        <v>322</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>367</v>
+        <v>323</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>368</v>
+        <v>324</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5715,49 +6240,49 @@
         <v>15</v>
       </c>
       <c r="C26" s="7">
-        <v>172</v>
+        <v>0</v>
       </c>
       <c r="D26" s="7">
-        <v>125200</v>
+        <v>0</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>369</v>
+        <v>55</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>370</v>
+        <v>97</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>371</v>
+        <v>130</v>
       </c>
       <c r="H26" s="7">
-        <v>171</v>
+        <v>3</v>
       </c>
       <c r="I26" s="7">
-        <v>118298</v>
+        <v>2067</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>98</v>
+        <v>325</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>330</v>
+        <v>207</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>372</v>
+        <v>326</v>
       </c>
       <c r="M26" s="7">
-        <v>343</v>
+        <v>3</v>
       </c>
       <c r="N26" s="7">
-        <v>243498</v>
+        <v>2067</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>373</v>
+        <v>327</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>374</v>
+        <v>328</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>375</v>
+        <v>329</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5766,55 +6291,369 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>230</v>
+      </c>
+      <c r="D27" s="7">
+        <v>170592</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="H27" s="7">
+        <v>234</v>
+      </c>
+      <c r="I27" s="7">
+        <v>164807</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="M27" s="7">
+        <v>464</v>
+      </c>
+      <c r="N27" s="7">
+        <v>335399</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="7">
+        <v>172</v>
+      </c>
+      <c r="D28" s="7">
+        <v>125200</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="H28" s="7">
+        <v>171</v>
+      </c>
+      <c r="I28" s="7">
+        <v>118298</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="L28" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="M28" s="7">
+        <v>343</v>
+      </c>
+      <c r="N28" s="7">
+        <v>243498</v>
+      </c>
+      <c r="O28" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="Q28" s="7" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A29" s="1"/>
+      <c r="B29" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" s="7">
+        <v>228</v>
+      </c>
+      <c r="D29" s="7">
+        <v>165490</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="H29" s="7">
+        <v>228</v>
+      </c>
+      <c r="I29" s="7">
+        <v>160524</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="L29" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="M29" s="7">
+        <v>456</v>
+      </c>
+      <c r="N29" s="7">
+        <v>326015</v>
+      </c>
+      <c r="O29" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="Q29" s="7" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A30" s="1"/>
+      <c r="B30" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" s="7">
+        <v>66</v>
+      </c>
+      <c r="D30" s="7">
+        <v>47848</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="H30" s="7">
+        <v>85</v>
+      </c>
+      <c r="I30" s="7">
+        <v>60849</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="L30" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="M30" s="7">
+        <v>151</v>
+      </c>
+      <c r="N30" s="7">
+        <v>108697</v>
+      </c>
+      <c r="O30" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="Q30" s="7" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A31" s="1"/>
+      <c r="B31" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" s="7">
+        <v>11</v>
+      </c>
+      <c r="D31" s="7">
+        <v>8725</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="H31" s="7">
+        <v>6</v>
+      </c>
+      <c r="I31" s="7">
+        <v>3955</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="M31" s="7">
+        <v>17</v>
+      </c>
+      <c r="N31" s="7">
+        <v>12680</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="Q31" s="7" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="1"/>
+      <c r="B32" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C32" s="7">
+        <v>0</v>
+      </c>
+      <c r="D32" s="7">
+        <v>0</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="H32" s="7">
+        <v>3</v>
+      </c>
+      <c r="I32" s="7">
+        <v>2067</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="M32" s="7">
+        <v>3</v>
+      </c>
+      <c r="N32" s="7">
+        <v>2067</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="Q32" s="7" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33" s="7">
         <v>477</v>
       </c>
-      <c r="D27" s="7">
+      <c r="D33" s="7">
         <v>347262</v>
       </c>
-      <c r="E27" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="H27" s="7">
+      <c r="E33" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="H33" s="7">
         <v>493</v>
       </c>
-      <c r="I27" s="7">
+      <c r="I33" s="7">
         <v>345694</v>
       </c>
-      <c r="J27" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="M27" s="7">
+      <c r="J33" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="M33" s="7">
         <v>970</v>
       </c>
-      <c r="N27" s="7">
+      <c r="N33" s="7">
         <v>692957</v>
       </c>
-      <c r="O27" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>59</v>
+      <c r="O33" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q33" s="7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>145</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A16:A21"/>
     <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A28:A33"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -5827,8 +6666,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{392CA1D4-F327-4573-B141-553C85523FE5}">
-  <dimension ref="A1:Q27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16CFBC84-6452-490E-9003-5C012EAA47E7}">
+  <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -5844,7 +6683,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6219,47 +7058,41 @@
       <c r="C10" s="7">
         <v>0</v>
       </c>
-      <c r="D10" s="7">
-        <v>0</v>
-      </c>
+      <c r="D10" s="7"/>
       <c r="E10" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>61</v>
+        <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>377</v>
+        <v>11</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
       </c>
-      <c r="I10" s="7">
-        <v>0</v>
-      </c>
+      <c r="I10" s="7"/>
       <c r="J10" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>61</v>
+        <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>115</v>
+        <v>11</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
       </c>
-      <c r="N10" s="7">
-        <v>0</v>
-      </c>
+      <c r="N10" s="7"/>
       <c r="O10" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>61</v>
+        <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>267</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6270,47 +7103,41 @@
       <c r="C11" s="7">
         <v>0</v>
       </c>
-      <c r="D11" s="7">
-        <v>0</v>
-      </c>
+      <c r="D11" s="7"/>
       <c r="E11" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>61</v>
+        <v>11</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>377</v>
+        <v>11</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
       </c>
-      <c r="I11" s="7">
-        <v>0</v>
-      </c>
+      <c r="I11" s="7"/>
       <c r="J11" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>61</v>
+        <v>11</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>115</v>
+        <v>11</v>
       </c>
       <c r="M11" s="7">
         <v>0</v>
       </c>
-      <c r="N11" s="7">
-        <v>0</v>
-      </c>
+      <c r="N11" s="7"/>
       <c r="O11" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>61</v>
+        <v>11</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>267</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6319,49 +7146,43 @@
         <v>13</v>
       </c>
       <c r="C12" s="7">
-        <v>6</v>
-      </c>
-      <c r="D12" s="7">
-        <v>5834</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D12" s="7"/>
       <c r="E12" s="7" t="s">
-        <v>378</v>
+        <v>11</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>379</v>
+        <v>11</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>380</v>
+        <v>11</v>
       </c>
       <c r="H12" s="7">
-        <v>4</v>
-      </c>
-      <c r="I12" s="7">
-        <v>3016</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I12" s="7"/>
       <c r="J12" s="7" t="s">
-        <v>381</v>
+        <v>11</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>382</v>
+        <v>11</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>383</v>
+        <v>11</v>
       </c>
       <c r="M12" s="7">
-        <v>10</v>
-      </c>
-      <c r="N12" s="7">
-        <v>8850</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N12" s="7"/>
       <c r="O12" s="7" t="s">
-        <v>384</v>
+        <v>11</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>385</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6370,49 +7191,43 @@
         <v>14</v>
       </c>
       <c r="C13" s="7">
-        <v>15</v>
-      </c>
-      <c r="D13" s="7">
-        <v>13264</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D13" s="7"/>
       <c r="E13" s="7" t="s">
-        <v>386</v>
+        <v>11</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>387</v>
+        <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>388</v>
+        <v>11</v>
       </c>
       <c r="H13" s="7">
-        <v>21</v>
-      </c>
-      <c r="I13" s="7">
-        <v>17472</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I13" s="7"/>
       <c r="J13" s="7" t="s">
-        <v>389</v>
+        <v>11</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>390</v>
+        <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>391</v>
+        <v>11</v>
       </c>
       <c r="M13" s="7">
-        <v>36</v>
-      </c>
-      <c r="N13" s="7">
-        <v>30736</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N13" s="7"/>
       <c r="O13" s="7" t="s">
-        <v>392</v>
+        <v>11</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>393</v>
+        <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>394</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6421,49 +7236,43 @@
         <v>15</v>
       </c>
       <c r="C14" s="7">
-        <v>28</v>
-      </c>
-      <c r="D14" s="7">
-        <v>22278</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D14" s="7"/>
       <c r="E14" s="7" t="s">
-        <v>395</v>
+        <v>11</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>396</v>
+        <v>11</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>397</v>
+        <v>11</v>
       </c>
       <c r="H14" s="7">
-        <v>20</v>
-      </c>
-      <c r="I14" s="7">
-        <v>13513</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I14" s="7"/>
       <c r="J14" s="7" t="s">
-        <v>398</v>
+        <v>11</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>399</v>
+        <v>11</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>400</v>
+        <v>11</v>
       </c>
       <c r="M14" s="7">
-        <v>48</v>
-      </c>
-      <c r="N14" s="7">
-        <v>35791</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N14" s="7"/>
       <c r="O14" s="7" t="s">
-        <v>401</v>
+        <v>11</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>402</v>
+        <v>11</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>403</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6472,102 +7281,96 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>49</v>
-      </c>
-      <c r="D15" s="7">
-        <v>41376</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D15" s="7"/>
       <c r="E15" s="7" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="H15" s="7">
-        <v>45</v>
-      </c>
-      <c r="I15" s="7">
-        <v>34001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I15" s="7"/>
       <c r="J15" s="7" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="M15" s="7">
-        <v>94</v>
-      </c>
-      <c r="N15" s="7">
-        <v>75377</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N15" s="7"/>
       <c r="O15" s="7" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>60</v>
+        <v>17</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>2</v>
+        <v>58</v>
       </c>
       <c r="D16" s="7">
-        <v>2272</v>
+        <v>46759</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>149</v>
+        <v>369</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>18</v>
+        <v>370</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>404</v>
+        <v>371</v>
       </c>
       <c r="H16" s="7">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="I16" s="7">
-        <v>0</v>
+        <v>28880</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>18</v>
+        <v>372</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>61</v>
+        <v>373</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>405</v>
+        <v>374</v>
       </c>
       <c r="M16" s="7">
-        <v>2</v>
+        <v>99</v>
       </c>
       <c r="N16" s="7">
-        <v>2272</v>
+        <v>75639</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>153</v>
+        <v>375</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>18</v>
+        <v>376</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>406</v>
+        <v>377</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6576,49 +7379,49 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
-        <v>4</v>
+        <v>48</v>
       </c>
       <c r="D17" s="7">
-        <v>3174</v>
+        <v>40828</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>407</v>
+        <v>378</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>408</v>
+        <v>379</v>
       </c>
       <c r="H17" s="7">
-        <v>4</v>
+        <v>43</v>
       </c>
       <c r="I17" s="7">
-        <v>2496</v>
+        <v>34340</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>409</v>
+        <v>380</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>410</v>
+        <v>184</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>411</v>
+        <v>381</v>
       </c>
       <c r="M17" s="7">
-        <v>8</v>
+        <v>91</v>
       </c>
       <c r="N17" s="7">
-        <v>5671</v>
+        <v>75168</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>412</v>
+        <v>382</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>413</v>
+        <v>383</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>414</v>
+        <v>384</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6627,49 +7430,49 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="D18" s="7">
-        <v>27134</v>
+        <v>10563</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>415</v>
+        <v>385</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>416</v>
+        <v>386</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>417</v>
+        <v>121</v>
       </c>
       <c r="H18" s="7">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="I18" s="7">
-        <v>21167</v>
+        <v>8446</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>418</v>
+        <v>387</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>419</v>
+        <v>388</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>420</v>
+        <v>389</v>
       </c>
       <c r="M18" s="7">
-        <v>60</v>
+        <v>23</v>
       </c>
       <c r="N18" s="7">
-        <v>48300</v>
+        <v>19009</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>421</v>
+        <v>390</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>422</v>
+        <v>391</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>423</v>
+        <v>392</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6678,49 +7481,49 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
-        <v>106</v>
+        <v>0</v>
       </c>
       <c r="D19" s="7">
-        <v>91222</v>
+        <v>0</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>424</v>
+        <v>55</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>425</v>
+        <v>97</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>426</v>
+        <v>393</v>
       </c>
       <c r="H19" s="7">
-        <v>102</v>
+        <v>0</v>
       </c>
       <c r="I19" s="7">
-        <v>81700</v>
+        <v>0</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>427</v>
+        <v>55</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>428</v>
+        <v>97</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>429</v>
+        <v>394</v>
       </c>
       <c r="M19" s="7">
-        <v>208</v>
+        <v>0</v>
       </c>
       <c r="N19" s="7">
-        <v>172922</v>
+        <v>0</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>430</v>
+        <v>55</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>431</v>
+        <v>97</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>432</v>
+        <v>177</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6729,49 +7532,49 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
-        <v>114</v>
+        <v>1</v>
       </c>
       <c r="D20" s="7">
-        <v>102003</v>
+        <v>1198</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>433</v>
+        <v>395</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>434</v>
+        <v>55</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>435</v>
+        <v>396</v>
       </c>
       <c r="H20" s="7">
-        <v>91</v>
+        <v>0</v>
       </c>
       <c r="I20" s="7">
-        <v>63181</v>
+        <v>0</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>436</v>
+        <v>55</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>437</v>
+        <v>97</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>438</v>
+        <v>394</v>
       </c>
       <c r="M20" s="7">
-        <v>205</v>
+        <v>1</v>
       </c>
       <c r="N20" s="7">
-        <v>165184</v>
+        <v>1198</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>439</v>
+        <v>397</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>440</v>
+        <v>55</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>441</v>
+        <v>398</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6780,102 +7583,102 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>258</v>
+        <v>119</v>
       </c>
       <c r="D21" s="7">
-        <v>225805</v>
+        <v>99348</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="H21" s="7">
-        <v>225</v>
+        <v>95</v>
       </c>
       <c r="I21" s="7">
-        <v>168545</v>
+        <v>71665</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="M21" s="7">
-        <v>483</v>
+        <v>214</v>
       </c>
       <c r="N21" s="7">
-        <v>394349</v>
+        <v>171014</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>63</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>2</v>
+        <v>84</v>
       </c>
       <c r="D22" s="7">
-        <v>2272</v>
+        <v>77521</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="H22" s="7">
+        <v>70</v>
+      </c>
+      <c r="I22" s="7">
+        <v>47814</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="L22" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="M22" s="7">
+        <v>154</v>
+      </c>
+      <c r="N22" s="7">
+        <v>125335</v>
+      </c>
+      <c r="O22" s="7" t="s">
         <v>405</v>
       </c>
-      <c r="F22" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>442</v>
-      </c>
-      <c r="H22" s="7">
-        <v>0</v>
-      </c>
-      <c r="I22" s="7">
-        <v>0</v>
-      </c>
-      <c r="J22" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>443</v>
-      </c>
-      <c r="M22" s="7">
-        <v>2</v>
-      </c>
-      <c r="N22" s="7">
-        <v>2272</v>
-      </c>
-      <c r="O22" s="7" t="s">
-        <v>444</v>
-      </c>
       <c r="P22" s="7" t="s">
-        <v>18</v>
+        <v>406</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>445</v>
+        <v>407</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6884,49 +7687,49 @@
         <v>12</v>
       </c>
       <c r="C23" s="7">
-        <v>4</v>
+        <v>73</v>
       </c>
       <c r="D23" s="7">
-        <v>3174</v>
+        <v>63658</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>446</v>
+        <v>408</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>447</v>
+        <v>409</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>448</v>
+        <v>410</v>
       </c>
       <c r="H23" s="7">
-        <v>4</v>
+        <v>80</v>
       </c>
       <c r="I23" s="7">
-        <v>2496</v>
+        <v>64832</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>187</v>
+        <v>411</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>226</v>
+        <v>412</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>449</v>
+        <v>413</v>
       </c>
       <c r="M23" s="7">
-        <v>8</v>
+        <v>153</v>
       </c>
       <c r="N23" s="7">
-        <v>5671</v>
+        <v>128490</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>450</v>
+        <v>414</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>232</v>
+        <v>415</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>64</v>
+        <v>416</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6935,49 +7738,49 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="D24" s="7">
-        <v>32967</v>
+        <v>22404</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>451</v>
+        <v>417</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>452</v>
+        <v>418</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>453</v>
+        <v>419</v>
       </c>
       <c r="H24" s="7">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="I24" s="7">
-        <v>24183</v>
+        <v>15738</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>454</v>
+        <v>420</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>455</v>
+        <v>421</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>456</v>
+        <v>422</v>
       </c>
       <c r="M24" s="7">
-        <v>70</v>
+        <v>47</v>
       </c>
       <c r="N24" s="7">
-        <v>57150</v>
+        <v>38142</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>457</v>
+        <v>315</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>458</v>
+        <v>423</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>459</v>
+        <v>424</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6986,49 +7789,49 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
-        <v>121</v>
+        <v>4</v>
       </c>
       <c r="D25" s="7">
-        <v>104486</v>
+        <v>3174</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>460</v>
+        <v>425</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>461</v>
+        <v>426</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>462</v>
+        <v>427</v>
       </c>
       <c r="H25" s="7">
-        <v>123</v>
+        <v>4</v>
       </c>
       <c r="I25" s="7">
-        <v>99172</v>
+        <v>2496</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>463</v>
+        <v>428</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>464</v>
+        <v>46</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>465</v>
+        <v>429</v>
       </c>
       <c r="M25" s="7">
-        <v>244</v>
+        <v>8</v>
       </c>
       <c r="N25" s="7">
-        <v>203658</v>
+        <v>5671</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>466</v>
+        <v>430</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>467</v>
+        <v>95</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>468</v>
+        <v>431</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7037,49 +7840,49 @@
         <v>15</v>
       </c>
       <c r="C26" s="7">
-        <v>142</v>
+        <v>1</v>
       </c>
       <c r="D26" s="7">
-        <v>124281</v>
+        <v>1075</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>469</v>
+        <v>432</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>470</v>
+        <v>55</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>471</v>
+        <v>433</v>
       </c>
       <c r="H26" s="7">
-        <v>111</v>
+        <v>0</v>
       </c>
       <c r="I26" s="7">
-        <v>76694</v>
+        <v>0</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>472</v>
+        <v>55</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>473</v>
+        <v>97</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>99</v>
+        <v>434</v>
       </c>
       <c r="M26" s="7">
-        <v>253</v>
+        <v>1</v>
       </c>
       <c r="N26" s="7">
-        <v>200975</v>
+        <v>1075</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>474</v>
+        <v>435</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>475</v>
+        <v>55</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>476</v>
+        <v>436</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7088,55 +7891,369 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>188</v>
+      </c>
+      <c r="D27" s="7">
+        <v>167832</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="H27" s="7">
+        <v>175</v>
+      </c>
+      <c r="I27" s="7">
+        <v>130880</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="M27" s="7">
+        <v>363</v>
+      </c>
+      <c r="N27" s="7">
+        <v>298712</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="7">
+        <v>142</v>
+      </c>
+      <c r="D28" s="7">
+        <v>124281</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>438</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="H28" s="7">
+        <v>111</v>
+      </c>
+      <c r="I28" s="7">
+        <v>76694</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>439</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="L28" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="M28" s="7">
+        <v>253</v>
+      </c>
+      <c r="N28" s="7">
+        <v>200975</v>
+      </c>
+      <c r="O28" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="Q28" s="7" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A29" s="1"/>
+      <c r="B29" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" s="7">
+        <v>121</v>
+      </c>
+      <c r="D29" s="7">
+        <v>104486</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>445</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>446</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>447</v>
+      </c>
+      <c r="H29" s="7">
+        <v>123</v>
+      </c>
+      <c r="I29" s="7">
+        <v>99172</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>449</v>
+      </c>
+      <c r="L29" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="M29" s="7">
+        <v>244</v>
+      </c>
+      <c r="N29" s="7">
+        <v>203658</v>
+      </c>
+      <c r="O29" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="Q29" s="7" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A30" s="1"/>
+      <c r="B30" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" s="7">
+        <v>38</v>
+      </c>
+      <c r="D30" s="7">
+        <v>32967</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>454</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>455</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>456</v>
+      </c>
+      <c r="H30" s="7">
+        <v>32</v>
+      </c>
+      <c r="I30" s="7">
+        <v>24183</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="L30" s="7" t="s">
+        <v>459</v>
+      </c>
+      <c r="M30" s="7">
+        <v>70</v>
+      </c>
+      <c r="N30" s="7">
+        <v>57150</v>
+      </c>
+      <c r="O30" s="7" t="s">
+        <v>460</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>461</v>
+      </c>
+      <c r="Q30" s="7" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A31" s="1"/>
+      <c r="B31" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" s="7">
+        <v>4</v>
+      </c>
+      <c r="D31" s="7">
+        <v>3174</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>463</v>
+      </c>
+      <c r="H31" s="7">
+        <v>4</v>
+      </c>
+      <c r="I31" s="7">
+        <v>2496</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>464</v>
+      </c>
+      <c r="M31" s="7">
+        <v>8</v>
+      </c>
+      <c r="N31" s="7">
+        <v>5671</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>465</v>
+      </c>
+      <c r="Q31" s="7" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="1"/>
+      <c r="B32" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C32" s="7">
+        <v>2</v>
+      </c>
+      <c r="D32" s="7">
+        <v>2272</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>467</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>468</v>
+      </c>
+      <c r="H32" s="7">
+        <v>0</v>
+      </c>
+      <c r="I32" s="7">
+        <v>0</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>469</v>
+      </c>
+      <c r="M32" s="7">
+        <v>2</v>
+      </c>
+      <c r="N32" s="7">
+        <v>2272</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>470</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q32" s="7" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33" s="7">
         <v>307</v>
       </c>
-      <c r="D27" s="7">
+      <c r="D33" s="7">
         <v>267180</v>
       </c>
-      <c r="E27" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="H27" s="7">
+      <c r="E33" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="H33" s="7">
         <v>270</v>
       </c>
-      <c r="I27" s="7">
+      <c r="I33" s="7">
         <v>202546</v>
       </c>
-      <c r="J27" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="M27" s="7">
+      <c r="J33" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="M33" s="7">
         <v>577</v>
       </c>
-      <c r="N27" s="7">
+      <c r="N33" s="7">
         <v>469726</v>
       </c>
-      <c r="O27" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>59</v>
+      <c r="O33" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q33" s="7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>145</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A16:A21"/>
     <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A28:A33"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>

--- a/data/trans_orig/IP07C15-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP07C15-Edad-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5F3BA9A4-61D6-4F04-B04C-61925C50A183}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{20710B65-B83B-49A9-B0EE-BD3EB08E5595}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{A0DA41D3-5C98-46D0-865E-4EE336E48FF9}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{0177F0F6-84DF-4350-A4CA-D250F7AA6ADE}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -98,1354 +98,1354 @@
     <t>30,0%</t>
   </si>
   <si>
-    <t>23,69%</t>
-  </si>
-  <si>
-    <t>36,73%</t>
+    <t>23,5%</t>
+  </si>
+  <si>
+    <t>36,53%</t>
   </si>
   <si>
     <t>38,23%</t>
   </si>
   <si>
-    <t>31,06%</t>
-  </si>
-  <si>
-    <t>45,77%</t>
+    <t>31,17%</t>
+  </si>
+  <si>
+    <t>46,27%</t>
   </si>
   <si>
     <t>33,91%</t>
   </si>
   <si>
-    <t>29,1%</t>
-  </si>
-  <si>
-    <t>39,03%</t>
+    <t>29,46%</t>
+  </si>
+  <si>
+    <t>38,67%</t>
   </si>
   <si>
     <t>51,33%</t>
   </si>
   <si>
-    <t>44,5%</t>
-  </si>
-  <si>
-    <t>58,31%</t>
+    <t>44,3%</t>
+  </si>
+  <si>
+    <t>58,61%</t>
   </si>
   <si>
     <t>39,43%</t>
   </si>
   <si>
-    <t>32,14%</t>
-  </si>
-  <si>
-    <t>46,89%</t>
+    <t>31,65%</t>
+  </si>
+  <si>
+    <t>47,15%</t>
   </si>
   <si>
     <t>45,68%</t>
   </si>
   <si>
+    <t>40,51%</t>
+  </si>
+  <si>
+    <t>50,97%</t>
+  </si>
+  <si>
+    <t>16,56%</t>
+  </si>
+  <si>
+    <t>11,58%</t>
+  </si>
+  <si>
+    <t>22,4%</t>
+  </si>
+  <si>
+    <t>17,45%</t>
+  </si>
+  <si>
+    <t>12,13%</t>
+  </si>
+  <si>
+    <t>24,79%</t>
+  </si>
+  <si>
+    <t>16,98%</t>
+  </si>
+  <si>
+    <t>13,25%</t>
+  </si>
+  <si>
+    <t>21,5%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>36,4%</t>
+  </si>
+  <si>
+    <t>31,19%</t>
+  </si>
+  <si>
+    <t>42,17%</t>
+  </si>
+  <si>
+    <t>36,57%</t>
+  </si>
+  <si>
+    <t>30,69%</t>
+  </si>
+  <si>
+    <t>42,18%</t>
+  </si>
+  <si>
+    <t>36,48%</t>
+  </si>
+  <si>
+    <t>32,12%</t>
+  </si>
+  <si>
+    <t>40,38%</t>
+  </si>
+  <si>
+    <t>38,7%</t>
+  </si>
+  <si>
+    <t>33,3%</t>
+  </si>
+  <si>
+    <t>44,73%</t>
+  </si>
+  <si>
+    <t>42,22%</t>
+  </si>
+  <si>
+    <t>36,31%</t>
+  </si>
+  <si>
+    <t>48,35%</t>
+  </si>
+  <si>
     <t>40,43%</t>
   </si>
   <si>
-    <t>50,83%</t>
-  </si>
-  <si>
-    <t>16,56%</t>
-  </si>
-  <si>
-    <t>11,77%</t>
-  </si>
-  <si>
-    <t>22,39%</t>
-  </si>
-  <si>
-    <t>17,45%</t>
-  </si>
-  <si>
-    <t>12,07%</t>
-  </si>
-  <si>
-    <t>23,87%</t>
-  </si>
-  <si>
-    <t>16,98%</t>
-  </si>
-  <si>
-    <t>13,06%</t>
-  </si>
-  <si>
-    <t>21,54%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
+    <t>44,82%</t>
+  </si>
+  <si>
+    <t>23,08%</t>
+  </si>
+  <si>
+    <t>18,44%</t>
+  </si>
+  <si>
+    <t>28,2%</t>
+  </si>
+  <si>
+    <t>19,27%</t>
+  </si>
+  <si>
+    <t>15,05%</t>
+  </si>
+  <si>
+    <t>24,23%</t>
+  </si>
+  <si>
+    <t>21,21%</t>
+  </si>
+  <si>
+    <t>17,83%</t>
+  </si>
+  <si>
+    <t>24,66%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>33,85%</t>
+  </si>
+  <si>
+    <t>29,45%</t>
+  </si>
+  <si>
+    <t>38,15%</t>
+  </si>
+  <si>
+    <t>37,21%</t>
+  </si>
+  <si>
+    <t>32,45%</t>
+  </si>
+  <si>
+    <t>41,61%</t>
+  </si>
+  <si>
+    <t>35,47%</t>
+  </si>
+  <si>
+    <t>32,39%</t>
+  </si>
+  <si>
+    <t>38,53%</t>
+  </si>
+  <si>
+    <t>43,74%</t>
+  </si>
+  <si>
+    <t>39,33%</t>
+  </si>
+  <si>
+    <t>48,21%</t>
+  </si>
+  <si>
+    <t>41,15%</t>
+  </si>
+  <si>
+    <t>36,71%</t>
+  </si>
+  <si>
+    <t>46,06%</t>
+  </si>
+  <si>
+    <t>42,49%</t>
+  </si>
+  <si>
+    <t>39,28%</t>
+  </si>
+  <si>
+    <t>45,75%</t>
+  </si>
+  <si>
+    <t>20,48%</t>
+  </si>
+  <si>
+    <t>17,24%</t>
+  </si>
+  <si>
+    <t>24,58%</t>
+  </si>
+  <si>
+    <t>18,57%</t>
+  </si>
+  <si>
+    <t>15,3%</t>
+  </si>
+  <si>
+    <t>22,54%</t>
+  </si>
+  <si>
+    <t>19,55%</t>
+  </si>
+  <si>
+    <t>17,08%</t>
+  </si>
+  <si>
+    <t>22,57%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de poder hacer lo que se quiera en el tiempo libre en 2012 (Tasa respuesta: 43,69%)</t>
+  </si>
+  <si>
+    <t>41,27%</t>
+  </si>
+  <si>
+    <t>35,3%</t>
+  </si>
+  <si>
+    <t>47,67%</t>
+  </si>
+  <si>
+    <t>47,04%</t>
+  </si>
+  <si>
+    <t>41,14%</t>
+  </si>
+  <si>
+    <t>53,95%</t>
+  </si>
+  <si>
+    <t>44,11%</t>
+  </si>
+  <si>
+    <t>39,64%</t>
+  </si>
+  <si>
+    <t>48,83%</t>
+  </si>
+  <si>
+    <t>40,34%</t>
+  </si>
+  <si>
+    <t>34,71%</t>
+  </si>
+  <si>
+    <t>47,32%</t>
+  </si>
+  <si>
+    <t>37,19%</t>
+  </si>
+  <si>
+    <t>31,05%</t>
+  </si>
+  <si>
+    <t>44,18%</t>
+  </si>
+  <si>
+    <t>38,79%</t>
+  </si>
+  <si>
+    <t>34,31%</t>
+  </si>
+  <si>
+    <t>43,83%</t>
+  </si>
+  <si>
+    <t>16,14%</t>
+  </si>
+  <si>
+    <t>11,63%</t>
+  </si>
+  <si>
+    <t>21,3%</t>
+  </si>
+  <si>
+    <t>15,77%</t>
+  </si>
+  <si>
+    <t>11,12%</t>
+  </si>
+  <si>
+    <t>21,17%</t>
+  </si>
+  <si>
+    <t>15,96%</t>
+  </si>
+  <si>
+    <t>12,31%</t>
+  </si>
+  <si>
+    <t>19,51%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
   </si>
   <si>
     <t>4,59%</t>
   </si>
   <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>12-15</t>
-  </si>
-  <si>
-    <t>36,4%</t>
-  </si>
-  <si>
-    <t>31,5%</t>
-  </si>
-  <si>
-    <t>42,43%</t>
-  </si>
-  <si>
-    <t>36,57%</t>
-  </si>
-  <si>
-    <t>30,77%</t>
-  </si>
-  <si>
-    <t>42,61%</t>
-  </si>
-  <si>
-    <t>36,48%</t>
-  </si>
-  <si>
-    <t>32,36%</t>
-  </si>
-  <si>
-    <t>40,66%</t>
-  </si>
-  <si>
-    <t>38,7%</t>
-  </si>
-  <si>
-    <t>33,38%</t>
-  </si>
-  <si>
-    <t>44,21%</t>
-  </si>
-  <si>
-    <t>42,22%</t>
-  </si>
-  <si>
-    <t>36,82%</t>
-  </si>
-  <si>
-    <t>48,43%</t>
-  </si>
-  <si>
-    <t>44,75%</t>
-  </si>
-  <si>
-    <t>23,08%</t>
-  </si>
-  <si>
-    <t>17,8%</t>
-  </si>
-  <si>
-    <t>27,7%</t>
-  </si>
-  <si>
-    <t>19,27%</t>
-  </si>
-  <si>
-    <t>15,08%</t>
-  </si>
-  <si>
-    <t>24,8%</t>
-  </si>
-  <si>
-    <t>21,21%</t>
-  </si>
-  <si>
-    <t>17,75%</t>
-  </si>
-  <si>
-    <t>25,07%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>44,46%</t>
+  </si>
+  <si>
+    <t>38,08%</t>
+  </si>
+  <si>
+    <t>50,62%</t>
+  </si>
+  <si>
+    <t>37,56%</t>
+  </si>
+  <si>
+    <t>31,01%</t>
+  </si>
+  <si>
+    <t>43,54%</t>
+  </si>
+  <si>
+    <t>41,1%</t>
+  </si>
+  <si>
+    <t>36,96%</t>
+  </si>
+  <si>
+    <t>45,74%</t>
+  </si>
+  <si>
+    <t>38,49%</t>
+  </si>
+  <si>
+    <t>32,06%</t>
+  </si>
+  <si>
+    <t>44,53%</t>
+  </si>
+  <si>
+    <t>37,97%</t>
+  </si>
+  <si>
+    <t>31,75%</t>
+  </si>
+  <si>
+    <t>34,06%</t>
+  </si>
+  <si>
+    <t>42,82%</t>
+  </si>
+  <si>
+    <t>14,8%</t>
+  </si>
+  <si>
+    <t>10,69%</t>
+  </si>
+  <si>
+    <t>19,52%</t>
+  </si>
+  <si>
+    <t>21,46%</t>
+  </si>
+  <si>
+    <t>16,74%</t>
+  </si>
+  <si>
+    <t>26,76%</t>
+  </si>
+  <si>
+    <t>18,04%</t>
+  </si>
+  <si>
+    <t>15,02%</t>
+  </si>
+  <si>
+    <t>21,87%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>42,94%</t>
+  </si>
+  <si>
+    <t>38,59%</t>
+  </si>
+  <si>
+    <t>42,11%</t>
+  </si>
+  <si>
+    <t>37,13%</t>
+  </si>
+  <si>
+    <t>46,82%</t>
+  </si>
+  <si>
+    <t>42,54%</t>
+  </si>
+  <si>
+    <t>39,52%</t>
+  </si>
+  <si>
+    <t>46,08%</t>
+  </si>
+  <si>
+    <t>39,37%</t>
+  </si>
+  <si>
+    <t>34,84%</t>
+  </si>
+  <si>
+    <t>43,76%</t>
+  </si>
+  <si>
+    <t>37,59%</t>
+  </si>
+  <si>
+    <t>32,78%</t>
+  </si>
+  <si>
+    <t>42,27%</t>
+  </si>
+  <si>
+    <t>38,5%</t>
+  </si>
+  <si>
+    <t>35,48%</t>
+  </si>
+  <si>
+    <t>41,88%</t>
+  </si>
+  <si>
+    <t>15,43%</t>
+  </si>
+  <si>
+    <t>12,04%</t>
+  </si>
+  <si>
+    <t>18,82%</t>
+  </si>
+  <si>
+    <t>18,73%</t>
+  </si>
+  <si>
+    <t>15,12%</t>
+  </si>
+  <si>
+    <t>17,05%</t>
+  </si>
+  <si>
+    <t>14,58%</t>
+  </si>
+  <si>
+    <t>19,45%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de poder hacer lo que se quiera en el tiempo libre en 2016 (Tasa respuesta: 45,63%)</t>
+  </si>
+  <si>
+    <t>38,68%</t>
+  </si>
+  <si>
+    <t>33,28%</t>
+  </si>
+  <si>
+    <t>44,99%</t>
+  </si>
+  <si>
+    <t>35,8%</t>
+  </si>
+  <si>
+    <t>41,7%</t>
+  </si>
+  <si>
+    <t>37,22%</t>
+  </si>
+  <si>
+    <t>33,21%</t>
+  </si>
+  <si>
+    <t>41,65%</t>
+  </si>
+  <si>
+    <t>43,67%</t>
+  </si>
+  <si>
+    <t>37,54%</t>
+  </si>
+  <si>
+    <t>49,79%</t>
+  </si>
+  <si>
+    <t>47,59%</t>
+  </si>
+  <si>
+    <t>41,94%</t>
+  </si>
+  <si>
+    <t>53,91%</t>
+  </si>
+  <si>
+    <t>45,65%</t>
+  </si>
+  <si>
+    <t>41,21%</t>
+  </si>
+  <si>
+    <t>49,95%</t>
+  </si>
+  <si>
+    <t>15,32%</t>
+  </si>
+  <si>
+    <t>11,24%</t>
+  </si>
+  <si>
+    <t>20,51%</t>
+  </si>
+  <si>
+    <t>15,87%</t>
+  </si>
+  <si>
+    <t>21,04%</t>
+  </si>
+  <si>
+    <t>15,6%</t>
+  </si>
+  <si>
+    <t>12,4%</t>
+  </si>
+  <si>
+    <t>19,02%</t>
   </si>
   <si>
     <t>2,33%</t>
   </si>
   <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>33,85%</t>
-  </si>
-  <si>
-    <t>29,75%</t>
-  </si>
-  <si>
-    <t>38,33%</t>
-  </si>
-  <si>
-    <t>37,21%</t>
-  </si>
-  <si>
-    <t>33,05%</t>
-  </si>
-  <si>
-    <t>42,01%</t>
-  </si>
-  <si>
-    <t>35,47%</t>
-  </si>
-  <si>
-    <t>32,38%</t>
-  </si>
-  <si>
-    <t>38,63%</t>
-  </si>
-  <si>
-    <t>43,74%</t>
-  </si>
-  <si>
-    <t>39,27%</t>
-  </si>
-  <si>
-    <t>48,06%</t>
-  </si>
-  <si>
-    <t>41,15%</t>
-  </si>
-  <si>
-    <t>36,34%</t>
-  </si>
-  <si>
-    <t>42,49%</t>
-  </si>
-  <si>
-    <t>39,1%</t>
-  </si>
-  <si>
-    <t>45,73%</t>
-  </si>
-  <si>
-    <t>20,48%</t>
-  </si>
-  <si>
-    <t>17,02%</t>
-  </si>
-  <si>
-    <t>24,34%</t>
-  </si>
-  <si>
-    <t>18,57%</t>
-  </si>
-  <si>
-    <t>15,12%</t>
-  </si>
-  <si>
-    <t>22,58%</t>
-  </si>
-  <si>
-    <t>19,55%</t>
-  </si>
-  <si>
-    <t>16,79%</t>
-  </si>
-  <si>
-    <t>22,07%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>33,33%</t>
+  </si>
+  <si>
+    <t>27,63%</t>
+  </si>
+  <si>
+    <t>39,22%</t>
+  </si>
+  <si>
+    <t>32,49%</t>
+  </si>
+  <si>
+    <t>26,77%</t>
+  </si>
+  <si>
+    <t>38,88%</t>
+  </si>
+  <si>
+    <t>32,92%</t>
+  </si>
+  <si>
+    <t>28,8%</t>
+  </si>
+  <si>
+    <t>37,03%</t>
+  </si>
+  <si>
+    <t>51,79%</t>
+  </si>
+  <si>
+    <t>45,51%</t>
+  </si>
+  <si>
+    <t>58,48%</t>
+  </si>
+  <si>
+    <t>45,17%</t>
+  </si>
+  <si>
+    <t>52,08%</t>
+  </si>
+  <si>
+    <t>48,53%</t>
+  </si>
+  <si>
+    <t>44,14%</t>
+  </si>
+  <si>
+    <t>53,23%</t>
+  </si>
+  <si>
+    <t>12,18%</t>
+  </si>
+  <si>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>19,5%</t>
+  </si>
+  <si>
+    <t>15,15%</t>
+  </si>
+  <si>
+    <t>25,31%</t>
+  </si>
+  <si>
+    <t>15,78%</t>
+  </si>
+  <si>
+    <t>12,55%</t>
+  </si>
+  <si>
+    <t>18,92%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
   </si>
   <si>
     <t>0,83%</t>
   </si>
   <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>36,05%</t>
+  </si>
+  <si>
+    <t>31,72%</t>
+  </si>
+  <si>
+    <t>40,52%</t>
+  </si>
+  <si>
+    <t>34,22%</t>
+  </si>
+  <si>
+    <t>29,95%</t>
+  </si>
+  <si>
+    <t>38,76%</t>
+  </si>
+  <si>
+    <t>35,14%</t>
+  </si>
+  <si>
+    <t>32,21%</t>
+  </si>
+  <si>
+    <t>38,18%</t>
+  </si>
+  <si>
+    <t>47,66%</t>
+  </si>
+  <si>
+    <t>42,86%</t>
+  </si>
+  <si>
+    <t>51,96%</t>
+  </si>
+  <si>
+    <t>46,44%</t>
+  </si>
+  <si>
+    <t>42,06%</t>
+  </si>
+  <si>
+    <t>51,29%</t>
+  </si>
+  <si>
+    <t>47,05%</t>
+  </si>
+  <si>
+    <t>44,0%</t>
+  </si>
+  <si>
+    <t>50,3%</t>
+  </si>
+  <si>
+    <t>13,78%</t>
+  </si>
+  <si>
+    <t>10,99%</t>
+  </si>
+  <si>
+    <t>17,46%</t>
+  </si>
+  <si>
+    <t>17,6%</t>
+  </si>
+  <si>
+    <t>14,41%</t>
+  </si>
+  <si>
+    <t>21,27%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>13,57%</t>
+  </si>
+  <si>
+    <t>18,13%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de poder hacer lo que se quiera en el tiempo libre en 2023 (Tasa respuesta: 30,05%)</t>
+  </si>
+  <si>
+    <t>47,07%</t>
+  </si>
+  <si>
+    <t>38,51%</t>
+  </si>
+  <si>
+    <t>56,32%</t>
+  </si>
+  <si>
+    <t>40,3%</t>
+  </si>
+  <si>
+    <t>31,43%</t>
+  </si>
+  <si>
+    <t>50,79%</t>
+  </si>
+  <si>
+    <t>44,23%</t>
+  </si>
+  <si>
+    <t>37,6%</t>
+  </si>
+  <si>
+    <t>51,57%</t>
+  </si>
+  <si>
+    <t>32,17%</t>
+  </si>
+  <si>
+    <t>50,5%</t>
+  </si>
+  <si>
+    <t>47,92%</t>
+  </si>
+  <si>
+    <t>37,63%</t>
+  </si>
+  <si>
+    <t>57,57%</t>
+  </si>
+  <si>
+    <t>43,95%</t>
+  </si>
+  <si>
+    <t>36,9%</t>
+  </si>
+  <si>
+    <t>50,69%</t>
+  </si>
+  <si>
+    <t>10,63%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>16,84%</t>
+  </si>
+  <si>
+    <t>11,79%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>20,31%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>15,54%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>46,19%</t>
+  </si>
+  <si>
+    <t>37,36%</t>
+  </si>
+  <si>
+    <t>55,32%</t>
+  </si>
+  <si>
+    <t>27,36%</t>
+  </si>
+  <si>
+    <t>43,92%</t>
+  </si>
+  <si>
+    <t>41,96%</t>
+  </si>
+  <si>
+    <t>36,07%</t>
+  </si>
+  <si>
+    <t>48,74%</t>
+  </si>
+  <si>
+    <t>37,93%</t>
+  </si>
+  <si>
+    <t>29,28%</t>
+  </si>
+  <si>
+    <t>46,33%</t>
+  </si>
+  <si>
+    <t>49,54%</t>
+  </si>
+  <si>
+    <t>41,82%</t>
+  </si>
+  <si>
+    <t>61,67%</t>
+  </si>
+  <si>
+    <t>43,01%</t>
+  </si>
+  <si>
+    <t>36,59%</t>
+  </si>
+  <si>
+    <t>49,32%</t>
+  </si>
+  <si>
+    <t>13,35%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>21,35%</t>
+  </si>
+  <si>
+    <t>12,02%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>18,98%</t>
+  </si>
+  <si>
+    <t>12,77%</t>
+  </si>
+  <si>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>18,08%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>46,52%</t>
+  </si>
+  <si>
+    <t>39,98%</t>
+  </si>
+  <si>
+    <t>53,71%</t>
+  </si>
+  <si>
+    <t>37,87%</t>
+  </si>
+  <si>
+    <t>31,11%</t>
+  </si>
+  <si>
+    <t>42,79%</t>
+  </si>
+  <si>
+    <t>37,96%</t>
+  </si>
+  <si>
+    <t>47,9%</t>
+  </si>
+  <si>
+    <t>39,11%</t>
+  </si>
+  <si>
+    <t>33,11%</t>
+  </si>
+  <si>
+    <t>45,42%</t>
+  </si>
+  <si>
+    <t>48,96%</t>
+  </si>
+  <si>
+    <t>42,3%</t>
+  </si>
+  <si>
+    <t>57,14%</t>
+  </si>
+  <si>
+    <t>43,36%</t>
+  </si>
+  <si>
+    <t>48,16%</t>
+  </si>
+  <si>
+    <t>12,34%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>17,9%</t>
+  </si>
+  <si>
+    <t>11,94%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>16,48%</t>
+  </si>
+  <si>
+    <t>12,17%</t>
+  </si>
+  <si>
+    <t>9,44%</t>
+  </si>
+  <si>
+    <t>15,93%</t>
   </si>
   <si>
     <t>1,19%</t>
   </si>
   <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de poder hacer lo que se quiera en el tiempo libre en 2012 (Tasa respuesta: 43,69%)</t>
-  </si>
-  <si>
-    <t>41,27%</t>
-  </si>
-  <si>
-    <t>35,1%</t>
-  </si>
-  <si>
-    <t>47,18%</t>
-  </si>
-  <si>
-    <t>47,04%</t>
-  </si>
-  <si>
-    <t>40,83%</t>
-  </si>
-  <si>
-    <t>54,23%</t>
-  </si>
-  <si>
-    <t>44,11%</t>
-  </si>
-  <si>
-    <t>39,44%</t>
-  </si>
-  <si>
-    <t>49,27%</t>
-  </si>
-  <si>
-    <t>40,34%</t>
-  </si>
-  <si>
-    <t>34,1%</t>
-  </si>
-  <si>
-    <t>46,9%</t>
-  </si>
-  <si>
-    <t>37,19%</t>
-  </si>
-  <si>
-    <t>30,34%</t>
-  </si>
-  <si>
-    <t>43,73%</t>
-  </si>
-  <si>
-    <t>38,79%</t>
-  </si>
-  <si>
-    <t>33,87%</t>
-  </si>
-  <si>
-    <t>43,17%</t>
-  </si>
-  <si>
-    <t>16,14%</t>
-  </si>
-  <si>
-    <t>11,53%</t>
-  </si>
-  <si>
-    <t>21,12%</t>
-  </si>
-  <si>
-    <t>15,77%</t>
-  </si>
-  <si>
-    <t>11,5%</t>
-  </si>
-  <si>
-    <t>21,67%</t>
-  </si>
-  <si>
-    <t>15,96%</t>
-  </si>
-  <si>
-    <t>12,56%</t>
-  </si>
-  <si>
-    <t>19,65%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>44,46%</t>
-  </si>
-  <si>
-    <t>38,17%</t>
-  </si>
-  <si>
-    <t>50,89%</t>
-  </si>
-  <si>
-    <t>37,56%</t>
-  </si>
-  <si>
-    <t>31,2%</t>
-  </si>
-  <si>
-    <t>43,59%</t>
-  </si>
-  <si>
-    <t>41,1%</t>
-  </si>
-  <si>
-    <t>36,08%</t>
-  </si>
-  <si>
-    <t>45,13%</t>
-  </si>
-  <si>
-    <t>38,49%</t>
-  </si>
-  <si>
-    <t>32,26%</t>
-  </si>
-  <si>
-    <t>44,79%</t>
-  </si>
-  <si>
-    <t>37,97%</t>
-  </si>
-  <si>
-    <t>31,46%</t>
-  </si>
-  <si>
-    <t>44,84%</t>
-  </si>
-  <si>
-    <t>33,68%</t>
-  </si>
-  <si>
-    <t>42,76%</t>
-  </si>
-  <si>
-    <t>14,8%</t>
-  </si>
-  <si>
-    <t>10,99%</t>
-  </si>
-  <si>
-    <t>21,46%</t>
-  </si>
-  <si>
-    <t>16,42%</t>
-  </si>
-  <si>
-    <t>27,77%</t>
-  </si>
-  <si>
-    <t>18,04%</t>
-  </si>
-  <si>
-    <t>14,95%</t>
-  </si>
-  <si>
-    <t>21,7%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>42,94%</t>
-  </si>
-  <si>
-    <t>38,38%</t>
-  </si>
-  <si>
-    <t>47,55%</t>
-  </si>
-  <si>
-    <t>42,11%</t>
-  </si>
-  <si>
-    <t>37,71%</t>
-  </si>
-  <si>
-    <t>46,78%</t>
-  </si>
-  <si>
-    <t>42,54%</t>
-  </si>
-  <si>
-    <t>39,4%</t>
-  </si>
-  <si>
-    <t>45,64%</t>
-  </si>
-  <si>
-    <t>39,37%</t>
-  </si>
-  <si>
-    <t>34,73%</t>
-  </si>
-  <si>
-    <t>43,77%</t>
-  </si>
-  <si>
-    <t>37,59%</t>
-  </si>
-  <si>
-    <t>33,27%</t>
-  </si>
-  <si>
-    <t>42,3%</t>
-  </si>
-  <si>
-    <t>38,5%</t>
-  </si>
-  <si>
-    <t>35,39%</t>
-  </si>
-  <si>
-    <t>41,75%</t>
-  </si>
-  <si>
-    <t>15,43%</t>
-  </si>
-  <si>
-    <t>12,24%</t>
-  </si>
-  <si>
-    <t>18,48%</t>
-  </si>
-  <si>
-    <t>18,73%</t>
-  </si>
-  <si>
-    <t>15,46%</t>
-  </si>
-  <si>
-    <t>22,9%</t>
-  </si>
-  <si>
-    <t>17,05%</t>
-  </si>
-  <si>
-    <t>14,68%</t>
-  </si>
-  <si>
-    <t>19,62%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de poder hacer lo que se quiera en el tiempo libre en 2015 (Tasa respuesta: 45,63%)</t>
-  </si>
-  <si>
-    <t>38,68%</t>
-  </si>
-  <si>
-    <t>32,55%</t>
-  </si>
-  <si>
-    <t>44,47%</t>
-  </si>
-  <si>
-    <t>35,8%</t>
-  </si>
-  <si>
-    <t>30,31%</t>
-  </si>
-  <si>
-    <t>42,37%</t>
-  </si>
-  <si>
-    <t>37,22%</t>
-  </si>
-  <si>
-    <t>33,15%</t>
-  </si>
-  <si>
-    <t>41,6%</t>
-  </si>
-  <si>
-    <t>43,67%</t>
-  </si>
-  <si>
-    <t>37,78%</t>
-  </si>
-  <si>
-    <t>49,72%</t>
-  </si>
-  <si>
-    <t>47,59%</t>
-  </si>
-  <si>
-    <t>40,82%</t>
-  </si>
-  <si>
-    <t>52,99%</t>
-  </si>
-  <si>
-    <t>45,65%</t>
-  </si>
-  <si>
-    <t>41,81%</t>
-  </si>
-  <si>
-    <t>50,25%</t>
-  </si>
-  <si>
-    <t>15,32%</t>
-  </si>
-  <si>
-    <t>11,16%</t>
-  </si>
-  <si>
-    <t>20,03%</t>
-  </si>
-  <si>
-    <t>15,87%</t>
-  </si>
-  <si>
-    <t>12,09%</t>
-  </si>
-  <si>
-    <t>21,2%</t>
-  </si>
-  <si>
-    <t>15,6%</t>
-  </si>
-  <si>
-    <t>12,57%</t>
-  </si>
-  <si>
-    <t>18,99%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>33,33%</t>
-  </si>
-  <si>
-    <t>27,02%</t>
-  </si>
-  <si>
-    <t>39,7%</t>
-  </si>
-  <si>
-    <t>32,49%</t>
-  </si>
-  <si>
-    <t>26,61%</t>
-  </si>
-  <si>
-    <t>32,92%</t>
-  </si>
-  <si>
-    <t>28,83%</t>
-  </si>
-  <si>
-    <t>37,45%</t>
-  </si>
-  <si>
-    <t>51,79%</t>
-  </si>
-  <si>
-    <t>45,16%</t>
-  </si>
-  <si>
-    <t>59,04%</t>
-  </si>
-  <si>
-    <t>45,17%</t>
-  </si>
-  <si>
-    <t>38,85%</t>
-  </si>
-  <si>
-    <t>52,34%</t>
-  </si>
-  <si>
-    <t>48,53%</t>
-  </si>
-  <si>
-    <t>52,97%</t>
-  </si>
-  <si>
-    <t>12,18%</t>
-  </si>
-  <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>19,5%</t>
-  </si>
-  <si>
-    <t>14,98%</t>
-  </si>
-  <si>
-    <t>25,16%</t>
-  </si>
-  <si>
-    <t>15,78%</t>
-  </si>
-  <si>
-    <t>12,77%</t>
-  </si>
-  <si>
-    <t>19,14%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>36,05%</t>
-  </si>
-  <si>
-    <t>31,84%</t>
-  </si>
-  <si>
-    <t>40,24%</t>
-  </si>
-  <si>
-    <t>34,22%</t>
-  </si>
-  <si>
-    <t>30,14%</t>
-  </si>
-  <si>
-    <t>35,14%</t>
-  </si>
-  <si>
-    <t>31,87%</t>
-  </si>
-  <si>
-    <t>38,25%</t>
-  </si>
-  <si>
-    <t>47,66%</t>
-  </si>
-  <si>
-    <t>43,41%</t>
-  </si>
-  <si>
-    <t>52,01%</t>
-  </si>
-  <si>
-    <t>46,44%</t>
-  </si>
-  <si>
-    <t>42,13%</t>
-  </si>
-  <si>
-    <t>51,27%</t>
-  </si>
-  <si>
-    <t>47,05%</t>
-  </si>
-  <si>
-    <t>44,04%</t>
-  </si>
-  <si>
-    <t>50,37%</t>
-  </si>
-  <si>
-    <t>13,78%</t>
-  </si>
-  <si>
-    <t>10,94%</t>
-  </si>
-  <si>
-    <t>16,89%</t>
-  </si>
-  <si>
-    <t>17,6%</t>
-  </si>
-  <si>
-    <t>14,28%</t>
-  </si>
-  <si>
-    <t>21,25%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>13,56%</t>
-  </si>
-  <si>
-    <t>18,36%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
   </si>
   <si>
     <t>2,36%</t>
   </si>
   <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de poder hacer lo que se quiera en el tiempo libre en 2023 (Tasa respuesta: 30,05%)</t>
-  </si>
-  <si>
-    <t>47,07%</t>
-  </si>
-  <si>
-    <t>37,37%</t>
-  </si>
-  <si>
-    <t>55,65%</t>
-  </si>
-  <si>
-    <t>40,3%</t>
-  </si>
-  <si>
-    <t>30,89%</t>
-  </si>
-  <si>
-    <t>50,91%</t>
-  </si>
-  <si>
-    <t>44,23%</t>
-  </si>
-  <si>
-    <t>37,16%</t>
-  </si>
-  <si>
-    <t>51,22%</t>
-  </si>
-  <si>
-    <t>32,64%</t>
-  </si>
-  <si>
-    <t>51,2%</t>
-  </si>
-  <si>
-    <t>47,92%</t>
-  </si>
-  <si>
-    <t>57,74%</t>
-  </si>
-  <si>
-    <t>43,95%</t>
-  </si>
-  <si>
-    <t>36,84%</t>
-  </si>
-  <si>
-    <t>50,84%</t>
-  </si>
-  <si>
-    <t>10,63%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>11,79%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>20,05%</t>
-  </si>
-  <si>
-    <t>11,12%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>16,12%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>46,19%</t>
-  </si>
-  <si>
-    <t>38,44%</t>
-  </si>
-  <si>
-    <t>55,25%</t>
-  </si>
-  <si>
-    <t>36,53%</t>
-  </si>
-  <si>
-    <t>28,48%</t>
-  </si>
-  <si>
-    <t>45,04%</t>
-  </si>
-  <si>
-    <t>41,96%</t>
-  </si>
-  <si>
-    <t>36,14%</t>
-  </si>
-  <si>
-    <t>49,05%</t>
-  </si>
-  <si>
-    <t>37,93%</t>
-  </si>
-  <si>
-    <t>30,03%</t>
-  </si>
-  <si>
-    <t>45,44%</t>
-  </si>
-  <si>
-    <t>49,54%</t>
-  </si>
-  <si>
-    <t>41,17%</t>
-  </si>
-  <si>
-    <t>60,09%</t>
-  </si>
-  <si>
-    <t>43,01%</t>
-  </si>
-  <si>
-    <t>37,04%</t>
-  </si>
-  <si>
-    <t>50,1%</t>
-  </si>
-  <si>
-    <t>13,35%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>20,84%</t>
-  </si>
-  <si>
-    <t>12,02%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>19,05%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>18,14%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>46,52%</t>
-  </si>
-  <si>
-    <t>40,16%</t>
-  </si>
-  <si>
-    <t>37,87%</t>
-  </si>
-  <si>
-    <t>31,35%</t>
-  </si>
-  <si>
-    <t>43,83%</t>
-  </si>
-  <si>
-    <t>42,79%</t>
-  </si>
-  <si>
-    <t>38,03%</t>
-  </si>
-  <si>
-    <t>47,73%</t>
-  </si>
-  <si>
-    <t>39,11%</t>
-  </si>
-  <si>
-    <t>33,1%</t>
-  </si>
-  <si>
-    <t>45,15%</t>
-  </si>
-  <si>
-    <t>48,96%</t>
-  </si>
-  <si>
-    <t>42,41%</t>
-  </si>
-  <si>
-    <t>56,3%</t>
-  </si>
-  <si>
-    <t>43,36%</t>
-  </si>
-  <si>
-    <t>38,29%</t>
-  </si>
-  <si>
-    <t>48,14%</t>
-  </si>
-  <si>
-    <t>12,34%</t>
-  </si>
-  <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>17,85%</t>
-  </si>
-  <si>
-    <t>11,94%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>16,94%</t>
-  </si>
-  <si>
-    <t>12,17%</t>
-  </si>
-  <si>
-    <t>9,46%</t>
-  </si>
-  <si>
-    <t>15,31%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
     <t>0,85%</t>
   </si>
   <si>
-    <t>3,25%</t>
+    <t>3,03%</t>
   </si>
   <si>
     <t>0,71%</t>
@@ -1454,7 +1454,7 @@
     <t>0,48%</t>
   </si>
   <si>
-    <t>1,54%</t>
+    <t>1,62%</t>
   </si>
 </sst>
 </file>
@@ -1866,7 +1866,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B25A7254-1DD2-47F1-AC78-16C0A481862A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B3C2F60-680E-4201-AAAB-06B332278DE7}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2923,13 +2923,13 @@
         <v>147583</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>34</v>
+        <v>79</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2944,13 +2944,13 @@
         <v>42960</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H24" s="7">
         <v>51</v>
@@ -2959,13 +2959,13 @@
         <v>34476</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="M24" s="7">
         <v>115</v>
@@ -2974,13 +2974,13 @@
         <v>77436</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2995,13 +2995,13 @@
         <v>3372</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H25" s="7">
         <v>4</v>
@@ -3010,13 +3010,13 @@
         <v>2782</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="M25" s="7">
         <v>9</v>
@@ -3025,13 +3025,13 @@
         <v>6155</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3049,10 +3049,10 @@
         <v>55</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H26" s="7">
         <v>1</v>
@@ -3061,13 +3061,13 @@
         <v>687</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>55</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="M26" s="7">
         <v>1</v>
@@ -3076,13 +3076,13 @@
         <v>687</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>55</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3150,13 +3150,13 @@
         <v>104779</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="H28" s="7">
         <v>161</v>
@@ -3165,13 +3165,13 @@
         <v>108148</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="M28" s="7">
         <v>319</v>
@@ -3180,13 +3180,13 @@
         <v>212927</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3201,13 +3201,13 @@
         <v>135409</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="H29" s="7">
         <v>179</v>
@@ -3216,13 +3216,13 @@
         <v>119604</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>33</v>
+        <v>119</v>
       </c>
       <c r="M29" s="7">
         <v>383</v>
@@ -3231,13 +3231,13 @@
         <v>255014</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3252,13 +3252,13 @@
         <v>63405</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="H30" s="7">
         <v>79</v>
@@ -3267,13 +3267,13 @@
         <v>53965</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="M30" s="7">
         <v>174</v>
@@ -3282,13 +3282,13 @@
         <v>117370</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3303,13 +3303,13 @@
         <v>5335</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="H31" s="7">
         <v>10</v>
@@ -3318,13 +3318,13 @@
         <v>6838</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="M31" s="7">
         <v>18</v>
@@ -3333,13 +3333,13 @@
         <v>12173</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -3354,13 +3354,13 @@
         <v>649</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="F32" s="7" t="s">
         <v>55</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="H32" s="7">
         <v>3</v>
@@ -3369,13 +3369,13 @@
         <v>2091</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>140</v>
+        <v>91</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="M32" s="7">
         <v>4</v>
@@ -3387,10 +3387,10 @@
         <v>46</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3446,7 +3446,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
   </sheetData>
@@ -3466,7 +3466,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{963C807B-B128-4A22-A842-C65289ABF873}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA212CBB-8AAB-4FD2-9DBE-D5FF5E4E3142}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3483,7 +3483,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4134,13 +4134,13 @@
         <v>63757</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="H16" s="7">
         <v>101</v>
@@ -4149,13 +4149,13 @@
         <v>70544</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="M16" s="7">
         <v>194</v>
@@ -4164,13 +4164,13 @@
         <v>134300</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4185,13 +4185,13 @@
         <v>62327</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="H17" s="7">
         <v>79</v>
@@ -4200,13 +4200,13 @@
         <v>55767</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="M17" s="7">
         <v>167</v>
@@ -4215,13 +4215,13 @@
         <v>118093</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4236,13 +4236,13 @@
         <v>24938</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="H18" s="7">
         <v>34</v>
@@ -4251,13 +4251,13 @@
         <v>23654</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="M18" s="7">
         <v>70</v>
@@ -4266,13 +4266,13 @@
         <v>48592</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4287,13 +4287,13 @@
         <v>3482</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -4305,10 +4305,10 @@
         <v>55</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="M19" s="7">
         <v>5</v>
@@ -4317,13 +4317,13 @@
         <v>3482</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4341,10 +4341,10 @@
         <v>55</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -4356,10 +4356,10 @@
         <v>55</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -4371,10 +4371,10 @@
         <v>55</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4442,13 +4442,13 @@
         <v>75872</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="H22" s="7">
         <v>86</v>
@@ -4457,13 +4457,13 @@
         <v>60926</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="M22" s="7">
         <v>196</v>
@@ -4472,13 +4472,13 @@
         <v>136798</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4493,13 +4493,13 @@
         <v>65677</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="H23" s="7">
         <v>88</v>
@@ -4508,13 +4508,13 @@
         <v>61586</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>195</v>
+        <v>80</v>
       </c>
       <c r="M23" s="7">
         <v>184</v>
@@ -4526,10 +4526,10 @@
         <v>21</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4544,13 +4544,13 @@
         <v>25248</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>83</v>
+        <v>201</v>
       </c>
       <c r="H24" s="7">
         <v>49</v>
@@ -4559,13 +4559,13 @@
         <v>34805</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="M24" s="7">
         <v>88</v>
@@ -4574,13 +4574,13 @@
         <v>60053</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4595,13 +4595,13 @@
         <v>2534</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>93</v>
+        <v>210</v>
       </c>
       <c r="H25" s="7">
         <v>6</v>
@@ -4610,13 +4610,13 @@
         <v>4214</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="M25" s="7">
         <v>10</v>
@@ -4625,13 +4625,13 @@
         <v>6748</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4646,13 +4646,13 @@
         <v>1321</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>55</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="H26" s="7">
         <v>1</v>
@@ -4661,13 +4661,13 @@
         <v>678</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>55</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="M26" s="7">
         <v>3</v>
@@ -4676,13 +4676,13 @@
         <v>1999</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4750,13 +4750,13 @@
         <v>139629</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>221</v>
+        <v>32</v>
       </c>
       <c r="H28" s="7">
         <v>187</v>
@@ -4765,13 +4765,13 @@
         <v>131470</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="M28" s="7">
         <v>390</v>
@@ -4780,13 +4780,13 @@
         <v>271098</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4801,13 +4801,13 @@
         <v>128004</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="H29" s="7">
         <v>167</v>
@@ -4816,13 +4816,13 @@
         <v>117353</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="M29" s="7">
         <v>351</v>
@@ -4831,13 +4831,13 @@
         <v>245356</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4852,13 +4852,13 @@
         <v>50186</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="H30" s="7">
         <v>83</v>
@@ -4867,13 +4867,13 @@
         <v>58459</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>242</v>
+        <v>128</v>
       </c>
       <c r="M30" s="7">
         <v>158</v>
@@ -4882,13 +4882,13 @@
         <v>108645</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4903,13 +4903,13 @@
         <v>6016</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="H31" s="7">
         <v>6</v>
@@ -4918,10 +4918,10 @@
         <v>4214</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>250</v>
+        <v>46</v>
       </c>
       <c r="L31" s="7" t="s">
         <v>251</v>
@@ -4933,10 +4933,10 @@
         <v>10231</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="Q31" s="7" t="s">
         <v>252</v>
@@ -5046,7 +5046,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
   </sheetData>
@@ -5066,7 +5066,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B98BC26D-B54E-45F6-8560-8DAD6237F386}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CFB44BF-7D8F-41A5-A1E3-3643655CE89D}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5752,10 +5752,10 @@
         <v>264</v>
       </c>
       <c r="K16" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>265</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>266</v>
       </c>
       <c r="M16" s="7">
         <v>191</v>
@@ -5764,13 +5764,13 @@
         <v>133086</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>267</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>268</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5785,13 +5785,13 @@
         <v>77147</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>270</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>271</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>272</v>
       </c>
       <c r="H17" s="7">
         <v>123</v>
@@ -5800,13 +5800,13 @@
         <v>86082</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>273</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>274</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>275</v>
       </c>
       <c r="M17" s="7">
         <v>231</v>
@@ -5815,13 +5815,13 @@
         <v>163230</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>276</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>277</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5836,13 +5836,13 @@
         <v>27066</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>279</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>280</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>281</v>
       </c>
       <c r="H18" s="7">
         <v>40</v>
@@ -5851,13 +5851,13 @@
         <v>28711</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>282</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>284</v>
       </c>
       <c r="M18" s="7">
         <v>77</v>
@@ -5866,13 +5866,13 @@
         <v>55777</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>285</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5887,13 +5887,13 @@
         <v>4121</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>100</v>
+        <v>286</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>59</v>
+        <v>177</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H19" s="7">
         <v>2</v>
@@ -5902,13 +5902,13 @@
         <v>1344</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>55</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>180</v>
+        <v>289</v>
       </c>
       <c r="M19" s="7">
         <v>7</v>
@@ -5941,10 +5941,10 @@
         <v>55</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -5956,10 +5956,10 @@
         <v>55</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -5971,10 +5971,10 @@
         <v>55</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6063,7 +6063,7 @@
         <v>297</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>111</v>
+        <v>298</v>
       </c>
       <c r="M22" s="7">
         <v>152</v>
@@ -6072,13 +6072,13 @@
         <v>110413</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6093,13 +6093,13 @@
         <v>88343</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="H23" s="7">
         <v>105</v>
@@ -6108,10 +6108,10 @@
         <v>74442</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>305</v>
+        <v>73</v>
       </c>
       <c r="L23" s="7" t="s">
         <v>306</v>
@@ -6126,10 +6126,10 @@
         <v>307</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>230</v>
+        <v>308</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6144,13 +6144,13 @@
         <v>20781</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="H24" s="7">
         <v>45</v>
@@ -6159,13 +6159,13 @@
         <v>32139</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="M24" s="7">
         <v>74</v>
@@ -6174,13 +6174,13 @@
         <v>52920</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6195,10 +6195,10 @@
         <v>4604</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>318</v>
+        <v>57</v>
       </c>
       <c r="G25" s="7" t="s">
         <v>319</v>
@@ -6213,10 +6213,10 @@
         <v>320</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>90</v>
+        <v>321</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="M25" s="7">
         <v>10</v>
@@ -6225,13 +6225,13 @@
         <v>7214</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6249,10 +6249,10 @@
         <v>55</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>130</v>
+        <v>326</v>
       </c>
       <c r="H26" s="7">
         <v>3</v>
@@ -6261,13 +6261,13 @@
         <v>2067</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>207</v>
+        <v>55</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="M26" s="7">
         <v>3</v>
@@ -6276,13 +6276,13 @@
         <v>2067</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6350,13 +6350,13 @@
         <v>125200</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="H28" s="7">
         <v>171</v>
@@ -6365,13 +6365,13 @@
         <v>118298</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>73</v>
+        <v>337</v>
       </c>
       <c r="M28" s="7">
         <v>343</v>
@@ -6380,13 +6380,13 @@
         <v>243498</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6401,13 +6401,13 @@
         <v>165490</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="H29" s="7">
         <v>228</v>
@@ -6416,13 +6416,13 @@
         <v>160524</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="M29" s="7">
         <v>456</v>
@@ -6431,13 +6431,13 @@
         <v>326015</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6452,13 +6452,13 @@
         <v>47848</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="H30" s="7">
         <v>85</v>
@@ -6467,13 +6467,13 @@
         <v>60849</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="M30" s="7">
         <v>151</v>
@@ -6482,13 +6482,13 @@
         <v>108697</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6503,13 +6503,13 @@
         <v>8725</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>357</v>
+        <v>49</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="H31" s="7">
         <v>6</v>
@@ -6518,13 +6518,13 @@
         <v>3955</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="M31" s="7">
         <v>17</v>
@@ -6533,13 +6533,13 @@
         <v>12680</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>362</v>
+        <v>256</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -6557,10 +6557,10 @@
         <v>55</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="H32" s="7">
         <v>3</v>
@@ -6569,13 +6569,13 @@
         <v>2067</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>92</v>
+        <v>365</v>
       </c>
       <c r="M32" s="7">
         <v>3</v>
@@ -6584,13 +6584,13 @@
         <v>2067</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>367</v>
+        <v>97</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6646,7 +6646,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
   </sheetData>
@@ -6666,7 +6666,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16CFBC84-6452-490E-9003-5C012EAA47E7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{565EBCFC-D9C0-49DE-9427-2C49F6E989C2}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7385,7 +7385,7 @@
         <v>40828</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>378</v>
@@ -7403,10 +7403,10 @@
         <v>380</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>184</v>
+        <v>381</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="M17" s="7">
         <v>91</v>
@@ -7415,13 +7415,13 @@
         <v>75168</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7436,13 +7436,13 @@
         <v>10563</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>121</v>
+        <v>388</v>
       </c>
       <c r="H18" s="7">
         <v>11</v>
@@ -7451,13 +7451,13 @@
         <v>8446</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="M18" s="7">
         <v>23</v>
@@ -7466,13 +7466,13 @@
         <v>19009</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>390</v>
+        <v>171</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7490,10 +7490,10 @@
         <v>55</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -7505,10 +7505,10 @@
         <v>55</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="M19" s="7">
         <v>0</v>
@@ -7520,10 +7520,10 @@
         <v>55</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7538,13 +7538,13 @@
         <v>1198</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>55</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -7556,10 +7556,10 @@
         <v>55</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="M20" s="7">
         <v>1</v>
@@ -7568,13 +7568,13 @@
         <v>1198</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>55</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7642,13 +7642,13 @@
         <v>77521</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="H22" s="7">
         <v>70</v>
@@ -7657,7 +7657,7 @@
         <v>47814</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>402</v>
+        <v>20</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>403</v>
@@ -7774,13 +7774,13 @@
         <v>38142</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>315</v>
+        <v>423</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7795,10 +7795,10 @@
         <v>3174</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>426</v>
+        <v>54</v>
       </c>
       <c r="G25" s="7" t="s">
         <v>427</v>
@@ -7810,10 +7810,10 @@
         <v>2496</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>428</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>46</v>
       </c>
       <c r="L25" s="7" t="s">
         <v>429</v>
@@ -7828,10 +7828,10 @@
         <v>430</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>95</v>
+        <v>431</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7846,13 +7846,13 @@
         <v>1075</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>55</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -7864,10 +7864,10 @@
         <v>55</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>434</v>
+        <v>256</v>
       </c>
       <c r="M26" s="7">
         <v>1</v>
@@ -7882,7 +7882,7 @@
         <v>55</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>436</v>
+        <v>90</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7950,13 +7950,13 @@
         <v>124281</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>436</v>
+      </c>
+      <c r="F28" s="7" t="s">
         <v>437</v>
       </c>
-      <c r="F28" s="7" t="s">
+      <c r="G28" s="7" t="s">
         <v>438</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>308</v>
       </c>
       <c r="H28" s="7">
         <v>111</v>
@@ -7971,7 +7971,7 @@
         <v>440</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>441</v>
+        <v>28</v>
       </c>
       <c r="M28" s="7">
         <v>253</v>
@@ -7980,13 +7980,13 @@
         <v>200975</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="P28" s="7" t="s">
         <v>442</v>
       </c>
-      <c r="P28" s="7" t="s">
+      <c r="Q28" s="7" t="s">
         <v>443</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>444</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8001,13 +8001,13 @@
         <v>104486</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>445</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="G29" s="7" t="s">
         <v>446</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>447</v>
       </c>
       <c r="H29" s="7">
         <v>123</v>
@@ -8016,13 +8016,13 @@
         <v>99172</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>447</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>448</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>449</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>450</v>
       </c>
       <c r="M29" s="7">
         <v>244</v>
@@ -8031,13 +8031,13 @@
         <v>203658</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>451</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>452</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>453</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8052,13 +8052,13 @@
         <v>32967</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>453</v>
+      </c>
+      <c r="G30" s="7" t="s">
         <v>454</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>455</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>456</v>
       </c>
       <c r="H30" s="7">
         <v>32</v>
@@ -8067,13 +8067,13 @@
         <v>24183</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>455</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>456</v>
+      </c>
+      <c r="L30" s="7" t="s">
         <v>457</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>458</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>459</v>
       </c>
       <c r="M30" s="7">
         <v>70</v>
@@ -8082,13 +8082,13 @@
         <v>57150</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>459</v>
+      </c>
+      <c r="Q30" s="7" t="s">
         <v>460</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>461</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>462</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -8103,13 +8103,13 @@
         <v>3174</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>136</v>
+        <v>461</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>257</v>
+        <v>462</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>463</v>
+        <v>292</v>
       </c>
       <c r="H31" s="7">
         <v>4</v>
@@ -8118,10 +8118,10 @@
         <v>2496</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>357</v>
+        <v>136</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>257</v>
+        <v>463</v>
       </c>
       <c r="L31" s="7" t="s">
         <v>464</v>
@@ -8133,7 +8133,7 @@
         <v>5671</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="P31" s="7" t="s">
         <v>465</v>
@@ -8172,7 +8172,7 @@
         <v>55</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="L32" s="7" t="s">
         <v>469</v>
@@ -8246,7 +8246,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP07C15-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP07C15-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{20710B65-B83B-49A9-B0EE-BD3EB08E5595}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{51DC42AF-A5BB-4B7F-91EE-5DD066162189}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{0177F0F6-84DF-4350-A4CA-D250F7AA6ADE}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{4F5401C4-6D77-43A1-90C5-DEA6CDEF200A}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,15 +39,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1300" uniqueCount="472">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1300" uniqueCount="470">
   <si>
     <t>Menores según frecuencia de poder hacer lo que se quiera en el tiempo libre en 2007 (Tasa respuesta: 42,68%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -95,1366 +95,1360 @@
     <t>8-11</t>
   </si>
   <si>
+    <t>38,23%</t>
+  </si>
+  <si>
+    <t>31,14%</t>
+  </si>
+  <si>
+    <t>45,66%</t>
+  </si>
+  <si>
     <t>30,0%</t>
   </si>
   <si>
-    <t>23,5%</t>
-  </si>
-  <si>
-    <t>36,53%</t>
-  </si>
-  <si>
-    <t>38,23%</t>
-  </si>
-  <si>
-    <t>31,17%</t>
-  </si>
-  <si>
-    <t>46,27%</t>
+    <t>23,82%</t>
+  </si>
+  <si>
+    <t>37,28%</t>
   </si>
   <si>
     <t>33,91%</t>
   </si>
   <si>
-    <t>29,46%</t>
+    <t>28,82%</t>
+  </si>
+  <si>
+    <t>38,97%</t>
+  </si>
+  <si>
+    <t>39,43%</t>
+  </si>
+  <si>
+    <t>31,73%</t>
+  </si>
+  <si>
+    <t>46,72%</t>
+  </si>
+  <si>
+    <t>51,33%</t>
+  </si>
+  <si>
+    <t>44,05%</t>
+  </si>
+  <si>
+    <t>58,34%</t>
+  </si>
+  <si>
+    <t>45,68%</t>
+  </si>
+  <si>
+    <t>40,72%</t>
+  </si>
+  <si>
+    <t>50,71%</t>
+  </si>
+  <si>
+    <t>17,45%</t>
+  </si>
+  <si>
+    <t>12,2%</t>
+  </si>
+  <si>
+    <t>23,97%</t>
+  </si>
+  <si>
+    <t>16,56%</t>
+  </si>
+  <si>
+    <t>11,64%</t>
+  </si>
+  <si>
+    <t>22,78%</t>
+  </si>
+  <si>
+    <t>16,98%</t>
+  </si>
+  <si>
+    <t>13,36%</t>
+  </si>
+  <si>
+    <t>20,99%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>36,57%</t>
+  </si>
+  <si>
+    <t>30,75%</t>
+  </si>
+  <si>
+    <t>42,75%</t>
+  </si>
+  <si>
+    <t>36,4%</t>
+  </si>
+  <si>
+    <t>30,97%</t>
+  </si>
+  <si>
+    <t>41,89%</t>
+  </si>
+  <si>
+    <t>36,48%</t>
+  </si>
+  <si>
+    <t>32,4%</t>
+  </si>
+  <si>
+    <t>40,34%</t>
+  </si>
+  <si>
+    <t>42,22%</t>
+  </si>
+  <si>
+    <t>36,3%</t>
+  </si>
+  <si>
+    <t>48,52%</t>
+  </si>
+  <si>
+    <t>38,7%</t>
+  </si>
+  <si>
+    <t>32,89%</t>
+  </si>
+  <si>
+    <t>44,18%</t>
+  </si>
+  <si>
+    <t>40,43%</t>
+  </si>
+  <si>
+    <t>36,46%</t>
+  </si>
+  <si>
+    <t>44,64%</t>
+  </si>
+  <si>
+    <t>19,27%</t>
+  </si>
+  <si>
+    <t>14,62%</t>
+  </si>
+  <si>
+    <t>23,08%</t>
+  </si>
+  <si>
+    <t>18,1%</t>
+  </si>
+  <si>
+    <t>28,8%</t>
+  </si>
+  <si>
+    <t>21,21%</t>
+  </si>
+  <si>
+    <t>17,73%</t>
+  </si>
+  <si>
+    <t>24,66%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>37,21%</t>
+  </si>
+  <si>
+    <t>32,71%</t>
+  </si>
+  <si>
+    <t>42,03%</t>
+  </si>
+  <si>
+    <t>33,85%</t>
+  </si>
+  <si>
+    <t>29,59%</t>
+  </si>
+  <si>
+    <t>38,51%</t>
+  </si>
+  <si>
+    <t>35,47%</t>
+  </si>
+  <si>
+    <t>32,13%</t>
+  </si>
+  <si>
+    <t>38,45%</t>
+  </si>
+  <si>
+    <t>41,15%</t>
+  </si>
+  <si>
+    <t>36,45%</t>
+  </si>
+  <si>
+    <t>45,87%</t>
+  </si>
+  <si>
+    <t>43,74%</t>
+  </si>
+  <si>
+    <t>38,89%</t>
+  </si>
+  <si>
+    <t>47,85%</t>
+  </si>
+  <si>
+    <t>42,49%</t>
+  </si>
+  <si>
+    <t>39,53%</t>
+  </si>
+  <si>
+    <t>46,2%</t>
+  </si>
+  <si>
+    <t>18,57%</t>
+  </si>
+  <si>
+    <t>15,03%</t>
+  </si>
+  <si>
+    <t>22,5%</t>
+  </si>
+  <si>
+    <t>20,48%</t>
+  </si>
+  <si>
+    <t>16,54%</t>
+  </si>
+  <si>
+    <t>24,09%</t>
+  </si>
+  <si>
+    <t>19,55%</t>
+  </si>
+  <si>
+    <t>16,96%</t>
+  </si>
+  <si>
+    <t>22,48%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de poder hacer lo que se quiera en el tiempo libre en 2012 (Tasa respuesta: 43,69%)</t>
+  </si>
+  <si>
+    <t>47,04%</t>
+  </si>
+  <si>
+    <t>40,91%</t>
+  </si>
+  <si>
+    <t>53,61%</t>
+  </si>
+  <si>
+    <t>41,27%</t>
+  </si>
+  <si>
+    <t>35,28%</t>
+  </si>
+  <si>
+    <t>48,56%</t>
+  </si>
+  <si>
+    <t>44,11%</t>
+  </si>
+  <si>
+    <t>48,5%</t>
+  </si>
+  <si>
+    <t>37,19%</t>
+  </si>
+  <si>
+    <t>30,93%</t>
+  </si>
+  <si>
+    <t>43,76%</t>
+  </si>
+  <si>
+    <t>33,25%</t>
+  </si>
+  <si>
+    <t>47,23%</t>
+  </si>
+  <si>
+    <t>38,79%</t>
+  </si>
+  <si>
+    <t>34,39%</t>
+  </si>
+  <si>
+    <t>43,33%</t>
+  </si>
+  <si>
+    <t>15,77%</t>
+  </si>
+  <si>
+    <t>11,9%</t>
+  </si>
+  <si>
+    <t>21,13%</t>
+  </si>
+  <si>
+    <t>16,14%</t>
+  </si>
+  <si>
+    <t>11,49%</t>
+  </si>
+  <si>
+    <t>21,87%</t>
+  </si>
+  <si>
+    <t>15,96%</t>
+  </si>
+  <si>
+    <t>12,72%</t>
+  </si>
+  <si>
+    <t>19,78%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>37,56%</t>
+  </si>
+  <si>
+    <t>31,02%</t>
+  </si>
+  <si>
+    <t>43,6%</t>
+  </si>
+  <si>
+    <t>44,46%</t>
+  </si>
+  <si>
+    <t>38,24%</t>
+  </si>
+  <si>
+    <t>50,18%</t>
+  </si>
+  <si>
+    <t>41,1%</t>
+  </si>
+  <si>
+    <t>36,98%</t>
+  </si>
+  <si>
+    <t>46,08%</t>
+  </si>
+  <si>
+    <t>37,97%</t>
+  </si>
+  <si>
+    <t>31,58%</t>
+  </si>
+  <si>
+    <t>44,04%</t>
+  </si>
+  <si>
+    <t>38,49%</t>
+  </si>
+  <si>
+    <t>32,69%</t>
+  </si>
+  <si>
+    <t>44,88%</t>
+  </si>
+  <si>
+    <t>33,28%</t>
+  </si>
+  <si>
+    <t>42,72%</t>
+  </si>
+  <si>
+    <t>21,46%</t>
+  </si>
+  <si>
+    <t>16,13%</t>
+  </si>
+  <si>
+    <t>27,56%</t>
+  </si>
+  <si>
+    <t>14,8%</t>
+  </si>
+  <si>
+    <t>11,14%</t>
+  </si>
+  <si>
+    <t>19,36%</t>
+  </si>
+  <si>
+    <t>18,04%</t>
+  </si>
+  <si>
+    <t>14,78%</t>
+  </si>
+  <si>
+    <t>21,79%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>42,11%</t>
+  </si>
+  <si>
+    <t>37,09%</t>
+  </si>
+  <si>
+    <t>46,59%</t>
+  </si>
+  <si>
+    <t>42,94%</t>
+  </si>
+  <si>
+    <t>38,29%</t>
+  </si>
+  <si>
+    <t>47,42%</t>
+  </si>
+  <si>
+    <t>42,54%</t>
+  </si>
+  <si>
+    <t>39,13%</t>
+  </si>
+  <si>
+    <t>45,6%</t>
+  </si>
+  <si>
+    <t>37,59%</t>
+  </si>
+  <si>
+    <t>33,19%</t>
+  </si>
+  <si>
+    <t>42,43%</t>
+  </si>
+  <si>
+    <t>39,37%</t>
+  </si>
+  <si>
+    <t>35,29%</t>
+  </si>
+  <si>
+    <t>38,5%</t>
+  </si>
+  <si>
+    <t>41,83%</t>
+  </si>
+  <si>
+    <t>18,73%</t>
+  </si>
+  <si>
+    <t>15,26%</t>
+  </si>
+  <si>
+    <t>22,6%</t>
+  </si>
+  <si>
+    <t>15,43%</t>
+  </si>
+  <si>
+    <t>12,53%</t>
+  </si>
+  <si>
+    <t>18,94%</t>
+  </si>
+  <si>
+    <t>17,05%</t>
+  </si>
+  <si>
+    <t>14,82%</t>
+  </si>
+  <si>
+    <t>19,69%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de poder hacer lo que se quiera en el tiempo libre en 2016 (Tasa respuesta: 45,63%)</t>
+  </si>
+  <si>
+    <t>35,8%</t>
+  </si>
+  <si>
+    <t>30,2%</t>
+  </si>
+  <si>
+    <t>41,69%</t>
+  </si>
+  <si>
+    <t>38,68%</t>
+  </si>
+  <si>
+    <t>32,68%</t>
+  </si>
+  <si>
+    <t>45,26%</t>
+  </si>
+  <si>
+    <t>37,22%</t>
+  </si>
+  <si>
+    <t>33,14%</t>
+  </si>
+  <si>
+    <t>41,85%</t>
+  </si>
+  <si>
+    <t>47,59%</t>
+  </si>
+  <si>
+    <t>41,11%</t>
+  </si>
+  <si>
+    <t>53,53%</t>
+  </si>
+  <si>
+    <t>43,67%</t>
+  </si>
+  <si>
+    <t>37,2%</t>
+  </si>
+  <si>
+    <t>50,06%</t>
+  </si>
+  <si>
+    <t>45,65%</t>
+  </si>
+  <si>
+    <t>40,97%</t>
+  </si>
+  <si>
+    <t>50,13%</t>
+  </si>
+  <si>
+    <t>15,87%</t>
+  </si>
+  <si>
+    <t>11,77%</t>
+  </si>
+  <si>
+    <t>21,06%</t>
+  </si>
+  <si>
+    <t>15,32%</t>
+  </si>
+  <si>
+    <t>11,43%</t>
+  </si>
+  <si>
+    <t>20,73%</t>
+  </si>
+  <si>
+    <t>15,6%</t>
+  </si>
+  <si>
+    <t>12,5%</t>
+  </si>
+  <si>
+    <t>18,81%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>32,49%</t>
+  </si>
+  <si>
+    <t>26,38%</t>
+  </si>
+  <si>
+    <t>33,33%</t>
+  </si>
+  <si>
+    <t>27,26%</t>
+  </si>
+  <si>
+    <t>40,21%</t>
+  </si>
+  <si>
+    <t>32,92%</t>
+  </si>
+  <si>
+    <t>28,61%</t>
+  </si>
+  <si>
+    <t>37,32%</t>
+  </si>
+  <si>
+    <t>45,17%</t>
+  </si>
+  <si>
+    <t>52,08%</t>
+  </si>
+  <si>
+    <t>51,79%</t>
+  </si>
+  <si>
+    <t>45,14%</t>
+  </si>
+  <si>
+    <t>57,73%</t>
+  </si>
+  <si>
+    <t>48,53%</t>
+  </si>
+  <si>
+    <t>53,59%</t>
+  </si>
+  <si>
+    <t>19,5%</t>
+  </si>
+  <si>
+    <t>14,49%</t>
+  </si>
+  <si>
+    <t>24,95%</t>
+  </si>
+  <si>
+    <t>12,18%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>16,94%</t>
+  </si>
+  <si>
+    <t>15,78%</t>
+  </si>
+  <si>
+    <t>12,78%</t>
+  </si>
+  <si>
+    <t>19,12%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>34,22%</t>
+  </si>
+  <si>
+    <t>29,77%</t>
   </si>
   <si>
     <t>38,67%</t>
   </si>
   <si>
-    <t>51,33%</t>
-  </si>
-  <si>
-    <t>44,3%</t>
-  </si>
-  <si>
-    <t>58,61%</t>
-  </si>
-  <si>
-    <t>39,43%</t>
-  </si>
-  <si>
-    <t>31,65%</t>
-  </si>
-  <si>
-    <t>47,15%</t>
-  </si>
-  <si>
-    <t>45,68%</t>
-  </si>
-  <si>
-    <t>40,51%</t>
-  </si>
-  <si>
-    <t>50,97%</t>
-  </si>
-  <si>
-    <t>16,56%</t>
-  </si>
-  <si>
-    <t>11,58%</t>
-  </si>
-  <si>
-    <t>22,4%</t>
-  </si>
-  <si>
-    <t>17,45%</t>
-  </si>
-  <si>
-    <t>12,13%</t>
-  </si>
-  <si>
-    <t>24,79%</t>
-  </si>
-  <si>
-    <t>16,98%</t>
-  </si>
-  <si>
-    <t>13,25%</t>
-  </si>
-  <si>
-    <t>21,5%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>12-15</t>
-  </si>
-  <si>
-    <t>36,4%</t>
-  </si>
-  <si>
-    <t>31,19%</t>
-  </si>
-  <si>
-    <t>42,17%</t>
-  </si>
-  <si>
-    <t>36,57%</t>
-  </si>
-  <si>
-    <t>30,69%</t>
-  </si>
-  <si>
-    <t>42,18%</t>
-  </si>
-  <si>
-    <t>36,48%</t>
-  </si>
-  <si>
-    <t>32,12%</t>
-  </si>
-  <si>
-    <t>40,38%</t>
-  </si>
-  <si>
-    <t>38,7%</t>
-  </si>
-  <si>
-    <t>33,3%</t>
-  </si>
-  <si>
-    <t>44,73%</t>
-  </si>
-  <si>
-    <t>42,22%</t>
-  </si>
-  <si>
-    <t>36,31%</t>
-  </si>
-  <si>
-    <t>48,35%</t>
-  </si>
-  <si>
-    <t>40,43%</t>
-  </si>
-  <si>
-    <t>44,82%</t>
-  </si>
-  <si>
-    <t>23,08%</t>
-  </si>
-  <si>
-    <t>18,44%</t>
-  </si>
-  <si>
-    <t>28,2%</t>
-  </si>
-  <si>
-    <t>19,27%</t>
-  </si>
-  <si>
-    <t>15,05%</t>
-  </si>
-  <si>
-    <t>24,23%</t>
-  </si>
-  <si>
-    <t>21,21%</t>
-  </si>
-  <si>
-    <t>17,83%</t>
-  </si>
-  <si>
-    <t>24,66%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
+    <t>36,05%</t>
+  </si>
+  <si>
+    <t>31,66%</t>
+  </si>
+  <si>
+    <t>40,56%</t>
+  </si>
+  <si>
+    <t>35,14%</t>
+  </si>
+  <si>
+    <t>32,3%</t>
+  </si>
+  <si>
+    <t>38,28%</t>
+  </si>
+  <si>
+    <t>46,44%</t>
+  </si>
+  <si>
+    <t>41,96%</t>
+  </si>
+  <si>
+    <t>51,04%</t>
+  </si>
+  <si>
+    <t>47,66%</t>
+  </si>
+  <si>
+    <t>43,19%</t>
+  </si>
+  <si>
+    <t>52,19%</t>
+  </si>
+  <si>
+    <t>47,05%</t>
+  </si>
+  <si>
+    <t>50,19%</t>
+  </si>
+  <si>
+    <t>17,6%</t>
+  </si>
+  <si>
+    <t>14,6%</t>
+  </si>
+  <si>
+    <t>21,38%</t>
+  </si>
+  <si>
+    <t>13,78%</t>
+  </si>
+  <si>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>13,57%</t>
+  </si>
+  <si>
+    <t>18,16%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
   </si>
   <si>
     <t>1,91%</t>
   </si>
   <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>33,85%</t>
-  </si>
-  <si>
-    <t>29,45%</t>
-  </si>
-  <si>
-    <t>38,15%</t>
-  </si>
-  <si>
-    <t>37,21%</t>
-  </si>
-  <si>
-    <t>32,45%</t>
-  </si>
-  <si>
-    <t>41,61%</t>
-  </si>
-  <si>
-    <t>35,47%</t>
-  </si>
-  <si>
-    <t>32,39%</t>
-  </si>
-  <si>
-    <t>38,53%</t>
-  </si>
-  <si>
-    <t>43,74%</t>
-  </si>
-  <si>
-    <t>39,33%</t>
-  </si>
-  <si>
-    <t>48,21%</t>
-  </si>
-  <si>
-    <t>41,15%</t>
-  </si>
-  <si>
-    <t>36,71%</t>
-  </si>
-  <si>
-    <t>46,06%</t>
-  </si>
-  <si>
-    <t>42,49%</t>
-  </si>
-  <si>
-    <t>39,28%</t>
-  </si>
-  <si>
-    <t>45,75%</t>
-  </si>
-  <si>
-    <t>20,48%</t>
-  </si>
-  <si>
-    <t>17,24%</t>
-  </si>
-  <si>
-    <t>24,58%</t>
-  </si>
-  <si>
-    <t>18,57%</t>
-  </si>
-  <si>
-    <t>15,3%</t>
-  </si>
-  <si>
-    <t>22,54%</t>
-  </si>
-  <si>
-    <t>19,55%</t>
-  </si>
-  <si>
-    <t>17,08%</t>
-  </si>
-  <si>
-    <t>22,57%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de poder hacer lo que se quiera en el tiempo libre en 2023 (Tasa respuesta: 30,05%)</t>
+  </si>
+  <si>
+    <t>41,01%</t>
+  </si>
+  <si>
+    <t>31,29%</t>
+  </si>
+  <si>
+    <t>50,53%</t>
+  </si>
+  <si>
+    <t>47,94%</t>
+  </si>
+  <si>
+    <t>56,83%</t>
+  </si>
+  <si>
+    <t>45,12%</t>
+  </si>
+  <si>
+    <t>38,37%</t>
+  </si>
+  <si>
+    <t>51,67%</t>
+  </si>
+  <si>
+    <t>47,02%</t>
+  </si>
+  <si>
+    <t>36,96%</t>
+  </si>
+  <si>
+    <t>57,44%</t>
+  </si>
+  <si>
+    <t>40,29%</t>
+  </si>
+  <si>
+    <t>32,57%</t>
+  </si>
+  <si>
+    <t>49,21%</t>
+  </si>
+  <si>
+    <t>43,02%</t>
+  </si>
+  <si>
+    <t>36,51%</t>
+  </si>
+  <si>
+    <t>49,98%</t>
+  </si>
+  <si>
+    <t>11,96%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>20,59%</t>
+  </si>
+  <si>
+    <t>10,6%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>17,14%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>15,79%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>32,06%</t>
+  </si>
+  <si>
+    <t>15,58%</t>
+  </si>
+  <si>
+    <t>42,33%</t>
+  </si>
+  <si>
+    <t>48,22%</t>
+  </si>
+  <si>
+    <t>39,32%</t>
+  </si>
+  <si>
+    <t>59,57%</t>
+  </si>
+  <si>
+    <t>30,28%</t>
+  </si>
+  <si>
+    <t>49,01%</t>
+  </si>
+  <si>
+    <t>56,4%</t>
+  </si>
+  <si>
+    <t>43,65%</t>
+  </si>
+  <si>
+    <t>79,14%</t>
+  </si>
+  <si>
+    <t>35,92%</t>
+  </si>
+  <si>
+    <t>27,63%</t>
+  </si>
+  <si>
+    <t>44,63%</t>
+  </si>
+  <si>
+    <t>37,7%</t>
+  </si>
+  <si>
+    <t>59,75%</t>
+  </si>
+  <si>
+    <t>9,83%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>15,53%</t>
+  </si>
+  <si>
+    <t>13,35%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>22,95%</t>
+  </si>
+  <si>
+    <t>11,76%</t>
+  </si>
+  <si>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>17,3%</t>
   </si>
   <si>
     <t>4,23%</t>
   </si>
   <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de poder hacer lo que se quiera en el tiempo libre en 2012 (Tasa respuesta: 43,69%)</t>
-  </si>
-  <si>
-    <t>41,27%</t>
-  </si>
-  <si>
-    <t>35,3%</t>
-  </si>
-  <si>
-    <t>47,67%</t>
-  </si>
-  <si>
-    <t>47,04%</t>
-  </si>
-  <si>
-    <t>41,14%</t>
-  </si>
-  <si>
-    <t>53,95%</t>
-  </si>
-  <si>
-    <t>44,11%</t>
-  </si>
-  <si>
-    <t>39,64%</t>
-  </si>
-  <si>
-    <t>48,83%</t>
-  </si>
-  <si>
-    <t>40,34%</t>
-  </si>
-  <si>
-    <t>34,71%</t>
-  </si>
-  <si>
-    <t>47,32%</t>
-  </si>
-  <si>
-    <t>37,19%</t>
-  </si>
-  <si>
-    <t>31,05%</t>
-  </si>
-  <si>
-    <t>44,18%</t>
-  </si>
-  <si>
-    <t>38,79%</t>
-  </si>
-  <si>
-    <t>34,31%</t>
-  </si>
-  <si>
-    <t>43,83%</t>
-  </si>
-  <si>
-    <t>16,14%</t>
-  </si>
-  <si>
-    <t>11,63%</t>
-  </si>
-  <si>
-    <t>21,3%</t>
-  </si>
-  <si>
-    <t>15,77%</t>
-  </si>
-  <si>
-    <t>11,12%</t>
-  </si>
-  <si>
-    <t>21,17%</t>
-  </si>
-  <si>
-    <t>15,96%</t>
-  </si>
-  <si>
-    <t>12,31%</t>
-  </si>
-  <si>
-    <t>19,51%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>44,46%</t>
-  </si>
-  <si>
-    <t>38,08%</t>
-  </si>
-  <si>
-    <t>50,62%</t>
-  </si>
-  <si>
-    <t>37,56%</t>
-  </si>
-  <si>
-    <t>31,01%</t>
-  </si>
-  <si>
-    <t>43,54%</t>
-  </si>
-  <si>
-    <t>41,1%</t>
-  </si>
-  <si>
-    <t>36,96%</t>
-  </si>
-  <si>
-    <t>45,74%</t>
-  </si>
-  <si>
-    <t>38,49%</t>
-  </si>
-  <si>
-    <t>32,06%</t>
-  </si>
-  <si>
-    <t>44,53%</t>
-  </si>
-  <si>
-    <t>37,97%</t>
-  </si>
-  <si>
-    <t>31,75%</t>
-  </si>
-  <si>
-    <t>34,06%</t>
-  </si>
-  <si>
-    <t>42,82%</t>
-  </si>
-  <si>
-    <t>14,8%</t>
-  </si>
-  <si>
-    <t>10,69%</t>
-  </si>
-  <si>
-    <t>19,52%</t>
-  </si>
-  <si>
-    <t>21,46%</t>
-  </si>
-  <si>
-    <t>16,74%</t>
-  </si>
-  <si>
-    <t>26,76%</t>
-  </si>
-  <si>
-    <t>18,04%</t>
-  </si>
-  <si>
-    <t>15,02%</t>
-  </si>
-  <si>
-    <t>21,87%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>42,94%</t>
-  </si>
-  <si>
-    <t>38,59%</t>
-  </si>
-  <si>
-    <t>42,11%</t>
-  </si>
-  <si>
-    <t>37,13%</t>
-  </si>
-  <si>
-    <t>46,82%</t>
-  </si>
-  <si>
-    <t>42,54%</t>
-  </si>
-  <si>
-    <t>39,52%</t>
-  </si>
-  <si>
-    <t>46,08%</t>
-  </si>
-  <si>
-    <t>39,37%</t>
-  </si>
-  <si>
-    <t>34,84%</t>
-  </si>
-  <si>
-    <t>43,76%</t>
-  </si>
-  <si>
-    <t>37,59%</t>
-  </si>
-  <si>
-    <t>32,78%</t>
-  </si>
-  <si>
-    <t>42,27%</t>
-  </si>
-  <si>
-    <t>38,5%</t>
-  </si>
-  <si>
-    <t>35,48%</t>
-  </si>
-  <si>
-    <t>41,88%</t>
-  </si>
-  <si>
-    <t>15,43%</t>
-  </si>
-  <si>
-    <t>12,04%</t>
-  </si>
-  <si>
-    <t>18,82%</t>
-  </si>
-  <si>
-    <t>18,73%</t>
-  </si>
-  <si>
-    <t>15,12%</t>
-  </si>
-  <si>
-    <t>17,05%</t>
-  </si>
-  <si>
-    <t>14,58%</t>
-  </si>
-  <si>
-    <t>19,45%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
   </si>
   <si>
     <t>1,09%</t>
   </si>
   <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de poder hacer lo que se quiera en el tiempo libre en 2016 (Tasa respuesta: 45,63%)</t>
-  </si>
-  <si>
-    <t>38,68%</t>
-  </si>
-  <si>
-    <t>33,28%</t>
-  </si>
-  <si>
-    <t>44,99%</t>
-  </si>
-  <si>
-    <t>35,8%</t>
-  </si>
-  <si>
-    <t>41,7%</t>
-  </si>
-  <si>
-    <t>37,22%</t>
-  </si>
-  <si>
-    <t>33,21%</t>
-  </si>
-  <si>
-    <t>41,65%</t>
-  </si>
-  <si>
-    <t>43,67%</t>
-  </si>
-  <si>
-    <t>37,54%</t>
-  </si>
-  <si>
-    <t>49,79%</t>
-  </si>
-  <si>
-    <t>47,59%</t>
-  </si>
-  <si>
-    <t>41,94%</t>
-  </si>
-  <si>
-    <t>53,91%</t>
-  </si>
-  <si>
-    <t>45,65%</t>
-  </si>
-  <si>
-    <t>41,21%</t>
-  </si>
-  <si>
-    <t>49,95%</t>
-  </si>
-  <si>
-    <t>15,32%</t>
-  </si>
-  <si>
-    <t>11,24%</t>
-  </si>
-  <si>
-    <t>20,51%</t>
-  </si>
-  <si>
-    <t>15,87%</t>
-  </si>
-  <si>
-    <t>21,04%</t>
-  </si>
-  <si>
-    <t>15,6%</t>
-  </si>
-  <si>
-    <t>12,4%</t>
-  </si>
-  <si>
-    <t>19,02%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
     <t>0,65%</t>
   </si>
   <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>33,33%</t>
-  </si>
-  <si>
-    <t>27,63%</t>
-  </si>
-  <si>
-    <t>39,22%</t>
-  </si>
-  <si>
-    <t>32,49%</t>
-  </si>
-  <si>
-    <t>26,77%</t>
-  </si>
-  <si>
-    <t>38,88%</t>
-  </si>
-  <si>
-    <t>32,92%</t>
-  </si>
-  <si>
-    <t>28,8%</t>
-  </si>
-  <si>
-    <t>37,03%</t>
-  </si>
-  <si>
-    <t>51,79%</t>
-  </si>
-  <si>
-    <t>45,51%</t>
-  </si>
-  <si>
-    <t>58,48%</t>
-  </si>
-  <si>
-    <t>45,17%</t>
-  </si>
-  <si>
-    <t>52,08%</t>
-  </si>
-  <si>
-    <t>48,53%</t>
-  </si>
-  <si>
-    <t>44,14%</t>
-  </si>
-  <si>
-    <t>53,23%</t>
-  </si>
-  <si>
-    <t>12,18%</t>
-  </si>
-  <si>
-    <t>8,3%</t>
-  </si>
-  <si>
-    <t>19,5%</t>
-  </si>
-  <si>
-    <t>15,15%</t>
-  </si>
-  <si>
-    <t>25,31%</t>
-  </si>
-  <si>
-    <t>15,78%</t>
-  </si>
-  <si>
-    <t>12,55%</t>
-  </si>
-  <si>
-    <t>18,92%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>36,05%</t>
-  </si>
-  <si>
-    <t>31,72%</t>
-  </si>
-  <si>
-    <t>40,52%</t>
-  </si>
-  <si>
-    <t>34,22%</t>
-  </si>
-  <si>
-    <t>29,95%</t>
-  </si>
-  <si>
-    <t>38,76%</t>
-  </si>
-  <si>
-    <t>35,14%</t>
-  </si>
-  <si>
-    <t>32,21%</t>
-  </si>
-  <si>
-    <t>38,18%</t>
-  </si>
-  <si>
-    <t>47,66%</t>
-  </si>
-  <si>
-    <t>42,86%</t>
-  </si>
-  <si>
-    <t>51,96%</t>
-  </si>
-  <si>
-    <t>46,44%</t>
-  </si>
-  <si>
-    <t>42,06%</t>
-  </si>
-  <si>
-    <t>51,29%</t>
-  </si>
-  <si>
-    <t>47,05%</t>
-  </si>
-  <si>
-    <t>44,0%</t>
-  </si>
-  <si>
-    <t>50,3%</t>
-  </si>
-  <si>
-    <t>13,78%</t>
-  </si>
-  <si>
-    <t>10,99%</t>
-  </si>
-  <si>
-    <t>17,46%</t>
-  </si>
-  <si>
-    <t>17,6%</t>
-  </si>
-  <si>
-    <t>14,41%</t>
-  </si>
-  <si>
-    <t>21,27%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>13,57%</t>
-  </si>
-  <si>
-    <t>18,13%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de poder hacer lo que se quiera en el tiempo libre en 2023 (Tasa respuesta: 30,05%)</t>
-  </si>
-  <si>
-    <t>47,07%</t>
-  </si>
-  <si>
-    <t>38,51%</t>
-  </si>
-  <si>
-    <t>56,32%</t>
-  </si>
-  <si>
-    <t>40,3%</t>
-  </si>
-  <si>
-    <t>31,43%</t>
-  </si>
-  <si>
-    <t>50,79%</t>
-  </si>
-  <si>
-    <t>44,23%</t>
-  </si>
-  <si>
-    <t>37,6%</t>
-  </si>
-  <si>
-    <t>51,57%</t>
-  </si>
-  <si>
-    <t>32,17%</t>
-  </si>
-  <si>
-    <t>50,5%</t>
-  </si>
-  <si>
-    <t>47,92%</t>
-  </si>
-  <si>
-    <t>37,63%</t>
-  </si>
-  <si>
-    <t>57,57%</t>
-  </si>
-  <si>
-    <t>43,95%</t>
-  </si>
-  <si>
-    <t>36,9%</t>
-  </si>
-  <si>
-    <t>50,69%</t>
-  </si>
-  <si>
-    <t>10,63%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>16,84%</t>
-  </si>
-  <si>
-    <t>11,79%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>20,31%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>15,54%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>46,19%</t>
-  </si>
-  <si>
-    <t>37,36%</t>
-  </si>
-  <si>
-    <t>55,32%</t>
-  </si>
-  <si>
-    <t>27,36%</t>
-  </si>
-  <si>
-    <t>43,92%</t>
-  </si>
-  <si>
-    <t>41,96%</t>
-  </si>
-  <si>
-    <t>36,07%</t>
-  </si>
-  <si>
-    <t>48,74%</t>
-  </si>
-  <si>
-    <t>37,93%</t>
-  </si>
-  <si>
-    <t>29,28%</t>
-  </si>
-  <si>
-    <t>46,33%</t>
-  </si>
-  <si>
-    <t>49,54%</t>
-  </si>
-  <si>
-    <t>41,82%</t>
-  </si>
-  <si>
-    <t>61,67%</t>
-  </si>
-  <si>
-    <t>43,01%</t>
-  </si>
-  <si>
-    <t>36,59%</t>
-  </si>
-  <si>
-    <t>49,32%</t>
-  </si>
-  <si>
-    <t>13,35%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>21,35%</t>
-  </si>
-  <si>
-    <t>12,02%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>18,98%</t>
-  </si>
-  <si>
-    <t>12,77%</t>
-  </si>
-  <si>
-    <t>9,23%</t>
-  </si>
-  <si>
-    <t>18,08%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>46,52%</t>
-  </si>
-  <si>
-    <t>39,98%</t>
-  </si>
-  <si>
-    <t>53,71%</t>
-  </si>
-  <si>
-    <t>37,87%</t>
-  </si>
-  <si>
-    <t>31,11%</t>
-  </si>
-  <si>
-    <t>42,79%</t>
-  </si>
-  <si>
-    <t>37,96%</t>
-  </si>
-  <si>
-    <t>47,9%</t>
-  </si>
-  <si>
-    <t>39,11%</t>
-  </si>
-  <si>
-    <t>33,11%</t>
-  </si>
-  <si>
-    <t>45,42%</t>
-  </si>
-  <si>
-    <t>48,96%</t>
-  </si>
-  <si>
-    <t>42,3%</t>
-  </si>
-  <si>
-    <t>57,14%</t>
-  </si>
-  <si>
-    <t>43,36%</t>
-  </si>
-  <si>
-    <t>48,16%</t>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>34,95%</t>
+  </si>
+  <si>
+    <t>22,94%</t>
+  </si>
+  <si>
+    <t>48,12%</t>
+  </si>
+  <si>
+    <t>41,46%</t>
+  </si>
+  <si>
+    <t>55,66%</t>
+  </si>
+  <si>
+    <t>42,37%</t>
+  </si>
+  <si>
+    <t>34,54%</t>
+  </si>
+  <si>
+    <t>48,42%</t>
+  </si>
+  <si>
+    <t>53,37%</t>
+  </si>
+  <si>
+    <t>44,56%</t>
+  </si>
+  <si>
+    <t>68,43%</t>
+  </si>
+  <si>
+    <t>37,51%</t>
+  </si>
+  <si>
+    <t>30,71%</t>
+  </si>
+  <si>
+    <t>44,44%</t>
+  </si>
+  <si>
+    <t>44,43%</t>
+  </si>
+  <si>
+    <t>38,84%</t>
+  </si>
+  <si>
+    <t>54,32%</t>
+  </si>
+  <si>
+    <t>10,52%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>14,68%</t>
   </si>
   <si>
     <t>12,34%</t>
   </si>
   <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>17,9%</t>
-  </si>
-  <si>
-    <t>11,94%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>16,48%</t>
-  </si>
-  <si>
-    <t>12,17%</t>
-  </si>
-  <si>
-    <t>9,44%</t>
-  </si>
-  <si>
-    <t>15,93%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>18,84%</t>
+  </si>
+  <si>
+    <t>11,55%</t>
+  </si>
+  <si>
+    <t>8,83%</t>
+  </si>
+  <si>
+    <t>15,98%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
   </si>
   <si>
     <t>0,32%</t>
   </si>
   <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
   </si>
   <si>
     <t>0,71%</t>
   </si>
   <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
+    <t>2,82%</t>
   </si>
 </sst>
 </file>
@@ -1866,7 +1860,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B3C2F60-680E-4201-AAAB-06B332278DE7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09C9130A-35A9-4471-A6A6-C8C0BE58FF60}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2528,10 +2522,10 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="D16" s="7">
-        <v>37043</v>
+        <v>42712</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>18</v>
@@ -2543,10 +2537,10 @@
         <v>20</v>
       </c>
       <c r="H16" s="7">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="I16" s="7">
-        <v>42712</v>
+        <v>37043</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>21</v>
@@ -2579,10 +2573,10 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
-        <v>94</v>
+        <v>67</v>
       </c>
       <c r="D17" s="7">
-        <v>63381</v>
+        <v>44049</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>27</v>
@@ -2594,10 +2588,10 @@
         <v>29</v>
       </c>
       <c r="H17" s="7">
-        <v>67</v>
+        <v>94</v>
       </c>
       <c r="I17" s="7">
-        <v>44049</v>
+        <v>63381</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>30</v>
@@ -2630,10 +2624,10 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D18" s="7">
-        <v>20445</v>
+        <v>19490</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>36</v>
@@ -2645,10 +2639,10 @@
         <v>38</v>
       </c>
       <c r="H18" s="7">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="I18" s="7">
-        <v>19490</v>
+        <v>20445</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>39</v>
@@ -2681,10 +2675,10 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D19" s="7">
-        <v>1963</v>
+        <v>4056</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>45</v>
@@ -2696,10 +2690,10 @@
         <v>47</v>
       </c>
       <c r="H19" s="7">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I19" s="7">
-        <v>4056</v>
+        <v>1963</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>48</v>
@@ -2732,10 +2726,10 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D20" s="7">
-        <v>649</v>
+        <v>1404</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>54</v>
@@ -2747,10 +2741,10 @@
         <v>56</v>
       </c>
       <c r="H20" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I20" s="7">
-        <v>1404</v>
+        <v>649</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>57</v>
@@ -2783,25 +2777,25 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
+        <v>168</v>
+      </c>
+      <c r="D21" s="7">
+        <v>111711</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="H21" s="7">
         <v>186</v>
       </c>
-      <c r="D21" s="7">
+      <c r="I21" s="7">
         <v>123481</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="H21" s="7">
-        <v>168</v>
-      </c>
-      <c r="I21" s="7">
-        <v>111711</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>62</v>
@@ -2836,10 +2830,10 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="D22" s="7">
-        <v>67737</v>
+        <v>65435</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>64</v>
@@ -2851,10 +2845,10 @@
         <v>66</v>
       </c>
       <c r="H22" s="7">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="I22" s="7">
-        <v>65435</v>
+        <v>67737</v>
       </c>
       <c r="J22" s="7" t="s">
         <v>67</v>
@@ -2887,10 +2881,10 @@
         <v>12</v>
       </c>
       <c r="C23" s="7">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D23" s="7">
-        <v>72028</v>
+        <v>75555</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>73</v>
@@ -2902,10 +2896,10 @@
         <v>75</v>
       </c>
       <c r="H23" s="7">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="I23" s="7">
-        <v>75555</v>
+        <v>72028</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>76</v>
@@ -2926,10 +2920,10 @@
         <v>79</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2938,25 +2932,25 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
+        <v>51</v>
+      </c>
+      <c r="D24" s="7">
+        <v>34476</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H24" s="7">
         <v>64</v>
       </c>
-      <c r="D24" s="7">
+      <c r="I24" s="7">
         <v>42960</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="H24" s="7">
-        <v>51</v>
-      </c>
-      <c r="I24" s="7">
-        <v>34476</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>84</v>
@@ -2989,10 +2983,10 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D25" s="7">
-        <v>3372</v>
+        <v>2782</v>
       </c>
       <c r="E25" s="7" t="s">
         <v>90</v>
@@ -3004,10 +2998,10 @@
         <v>92</v>
       </c>
       <c r="H25" s="7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I25" s="7">
-        <v>2782</v>
+        <v>3372</v>
       </c>
       <c r="J25" s="7" t="s">
         <v>93</v>
@@ -3040,34 +3034,34 @@
         <v>15</v>
       </c>
       <c r="C26" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D26" s="7">
-        <v>0</v>
+        <v>687</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="G26" s="7" t="s">
+      <c r="H26" s="7">
+        <v>0</v>
+      </c>
+      <c r="I26" s="7">
+        <v>0</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="H26" s="7">
-        <v>1</v>
-      </c>
-      <c r="I26" s="7">
-        <v>687</v>
-      </c>
-      <c r="J26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>102</v>
       </c>
       <c r="M26" s="7">
         <v>1</v>
@@ -3076,13 +3070,13 @@
         <v>687</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>55</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3091,25 +3085,25 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>264</v>
+      </c>
+      <c r="D27" s="7">
+        <v>178935</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="H27" s="7">
         <v>280</v>
       </c>
-      <c r="D27" s="7">
+      <c r="I27" s="7">
         <v>186097</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="H27" s="7">
-        <v>264</v>
-      </c>
-      <c r="I27" s="7">
-        <v>178935</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>62</v>
@@ -3144,34 +3138,34 @@
         <v>10</v>
       </c>
       <c r="C28" s="7">
+        <v>161</v>
+      </c>
+      <c r="D28" s="7">
+        <v>108148</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="H28" s="7">
         <v>158</v>
       </c>
-      <c r="D28" s="7">
+      <c r="I28" s="7">
         <v>104779</v>
       </c>
-      <c r="E28" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="G28" s="7" t="s">
+      <c r="J28" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="H28" s="7">
-        <v>161</v>
-      </c>
-      <c r="I28" s="7">
-        <v>108148</v>
-      </c>
-      <c r="J28" s="7" t="s">
+      <c r="K28" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="K28" s="7" t="s">
+      <c r="L28" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="M28" s="7">
         <v>319</v>
@@ -3180,13 +3174,13 @@
         <v>212927</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="P28" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="P28" s="7" t="s">
+      <c r="Q28" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3195,34 +3189,34 @@
         <v>12</v>
       </c>
       <c r="C29" s="7">
+        <v>179</v>
+      </c>
+      <c r="D29" s="7">
+        <v>119604</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="H29" s="7">
         <v>204</v>
       </c>
-      <c r="D29" s="7">
+      <c r="I29" s="7">
         <v>135409</v>
       </c>
-      <c r="E29" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="G29" s="7" t="s">
+      <c r="J29" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="H29" s="7">
-        <v>179</v>
-      </c>
-      <c r="I29" s="7">
-        <v>119604</v>
-      </c>
-      <c r="J29" s="7" t="s">
+      <c r="K29" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="M29" s="7">
         <v>383</v>
@@ -3231,13 +3225,13 @@
         <v>255014</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="P29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3246,34 +3240,34 @@
         <v>13</v>
       </c>
       <c r="C30" s="7">
+        <v>79</v>
+      </c>
+      <c r="D30" s="7">
+        <v>53965</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="H30" s="7">
         <v>95</v>
       </c>
-      <c r="D30" s="7">
+      <c r="I30" s="7">
         <v>63405</v>
       </c>
-      <c r="E30" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="G30" s="7" t="s">
+      <c r="J30" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="H30" s="7">
-        <v>79</v>
-      </c>
-      <c r="I30" s="7">
-        <v>53965</v>
-      </c>
-      <c r="J30" s="7" t="s">
+      <c r="K30" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="K30" s="7" t="s">
+      <c r="L30" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="M30" s="7">
         <v>174</v>
@@ -3282,13 +3276,13 @@
         <v>117370</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="P30" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="P30" s="7" t="s">
+      <c r="Q30" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3297,34 +3291,34 @@
         <v>14</v>
       </c>
       <c r="C31" s="7">
+        <v>10</v>
+      </c>
+      <c r="D31" s="7">
+        <v>6838</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="H31" s="7">
         <v>8</v>
       </c>
-      <c r="D31" s="7">
+      <c r="I31" s="7">
         <v>5335</v>
       </c>
-      <c r="E31" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="G31" s="7" t="s">
+      <c r="J31" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="H31" s="7">
-        <v>10</v>
-      </c>
-      <c r="I31" s="7">
-        <v>6838</v>
-      </c>
-      <c r="J31" s="7" t="s">
+      <c r="K31" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="K31" s="7" t="s">
+      <c r="L31" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="M31" s="7">
         <v>18</v>
@@ -3333,13 +3327,13 @@
         <v>12173</v>
       </c>
       <c r="O31" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="P31" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="P31" s="7" t="s">
+      <c r="Q31" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -3348,31 +3342,31 @@
         <v>15</v>
       </c>
       <c r="C32" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D32" s="7">
-        <v>649</v>
+        <v>2091</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="F32" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>55</v>
       </c>
       <c r="G32" s="7" t="s">
         <v>142</v>
       </c>
       <c r="H32" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I32" s="7">
-        <v>2091</v>
+        <v>649</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>91</v>
+        <v>143</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>143</v>
+        <v>55</v>
       </c>
       <c r="L32" s="7" t="s">
         <v>144</v>
@@ -3384,13 +3378,13 @@
         <v>2740</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>46</v>
+        <v>145</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3399,25 +3393,25 @@
         <v>3</v>
       </c>
       <c r="C33" s="7">
+        <v>432</v>
+      </c>
+      <c r="D33" s="7">
+        <v>290646</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="H33" s="7">
         <v>466</v>
       </c>
-      <c r="D33" s="7">
+      <c r="I33" s="7">
         <v>309578</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="H33" s="7">
-        <v>432</v>
-      </c>
-      <c r="I33" s="7">
-        <v>290646</v>
       </c>
       <c r="J33" s="7" t="s">
         <v>62</v>
@@ -3446,7 +3440,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
   </sheetData>
@@ -3466,7 +3460,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA212CBB-8AAB-4FD2-9DBE-D5FF5E4E3142}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D8A7FCC-8CB6-4A79-B5B2-F41FAADA8C16}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3483,7 +3477,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4128,34 +4122,34 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>101</v>
+      </c>
+      <c r="D16" s="7">
+        <v>70544</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="H16" s="7">
         <v>93</v>
       </c>
-      <c r="D16" s="7">
+      <c r="I16" s="7">
         <v>63757</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="H16" s="7">
-        <v>101</v>
-      </c>
-      <c r="I16" s="7">
-        <v>70544</v>
-      </c>
       <c r="J16" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="M16" s="7">
         <v>194</v>
@@ -4164,10 +4158,10 @@
         <v>134300</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>156</v>
+        <v>27</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>157</v>
@@ -4179,10 +4173,10 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="D17" s="7">
-        <v>62327</v>
+        <v>55767</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>158</v>
@@ -4194,19 +4188,19 @@
         <v>160</v>
       </c>
       <c r="H17" s="7">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I17" s="7">
-        <v>55767</v>
+        <v>62327</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>163</v>
       </c>
       <c r="M17" s="7">
         <v>167</v>
@@ -4215,13 +4209,13 @@
         <v>118093</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4230,34 +4224,34 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
+        <v>34</v>
+      </c>
+      <c r="D18" s="7">
+        <v>23654</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="H18" s="7">
         <v>36</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>24938</v>
       </c>
-      <c r="E18" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="G18" s="7" t="s">
+      <c r="J18" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="H18" s="7">
-        <v>34</v>
-      </c>
-      <c r="I18" s="7">
-        <v>23654</v>
-      </c>
-      <c r="J18" s="7" t="s">
+      <c r="K18" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>172</v>
       </c>
       <c r="M18" s="7">
         <v>70</v>
@@ -4266,13 +4260,13 @@
         <v>48592</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4281,34 +4275,34 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
+        <v>0</v>
+      </c>
+      <c r="D19" s="7">
+        <v>0</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="H19" s="7">
         <v>5</v>
       </c>
-      <c r="D19" s="7">
+      <c r="I19" s="7">
         <v>3482</v>
       </c>
-      <c r="E19" s="7" t="s">
+      <c r="J19" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="H19" s="7">
-        <v>0</v>
-      </c>
-      <c r="I19" s="7">
-        <v>0</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>179</v>
       </c>
       <c r="M19" s="7">
         <v>5</v>
@@ -4317,13 +4311,13 @@
         <v>3482</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4341,10 +4335,10 @@
         <v>55</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>177</v>
+        <v>97</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -4356,10 +4350,10 @@
         <v>55</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -4371,10 +4365,10 @@
         <v>55</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4383,25 +4377,25 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
+        <v>214</v>
+      </c>
+      <c r="D21" s="7">
+        <v>149965</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="H21" s="7">
         <v>222</v>
       </c>
-      <c r="D21" s="7">
+      <c r="I21" s="7">
         <v>154504</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="H21" s="7">
-        <v>214</v>
-      </c>
-      <c r="I21" s="7">
-        <v>149965</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>62</v>
@@ -4436,34 +4430,34 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
+        <v>86</v>
+      </c>
+      <c r="D22" s="7">
+        <v>60926</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="H22" s="7">
         <v>110</v>
       </c>
-      <c r="D22" s="7">
+      <c r="I22" s="7">
         <v>75872</v>
       </c>
-      <c r="E22" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="F22" s="7" t="s">
+      <c r="J22" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="G22" s="7" t="s">
+      <c r="K22" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="H22" s="7">
-        <v>86</v>
-      </c>
-      <c r="I22" s="7">
-        <v>60926</v>
-      </c>
-      <c r="J22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>188</v>
       </c>
       <c r="M22" s="7">
         <v>196</v>
@@ -4472,13 +4466,13 @@
         <v>136798</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4487,34 +4481,34 @@
         <v>12</v>
       </c>
       <c r="C23" s="7">
+        <v>88</v>
+      </c>
+      <c r="D23" s="7">
+        <v>61586</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="H23" s="7">
         <v>96</v>
       </c>
-      <c r="D23" s="7">
+      <c r="I23" s="7">
         <v>65677</v>
       </c>
-      <c r="E23" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="F23" s="7" t="s">
+      <c r="J23" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="G23" s="7" t="s">
+      <c r="K23" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="H23" s="7">
-        <v>88</v>
-      </c>
-      <c r="I23" s="7">
-        <v>61586</v>
-      </c>
-      <c r="J23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>195</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>80</v>
       </c>
       <c r="M23" s="7">
         <v>184</v>
@@ -4523,13 +4517,13 @@
         <v>127263</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="P23" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>197</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4538,34 +4532,34 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
+        <v>49</v>
+      </c>
+      <c r="D24" s="7">
+        <v>34805</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="H24" s="7">
         <v>39</v>
       </c>
-      <c r="D24" s="7">
+      <c r="I24" s="7">
         <v>25248</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="G24" s="7" t="s">
+      <c r="J24" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="H24" s="7">
-        <v>49</v>
-      </c>
-      <c r="I24" s="7">
-        <v>34805</v>
-      </c>
-      <c r="J24" s="7" t="s">
+      <c r="K24" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>204</v>
       </c>
       <c r="M24" s="7">
         <v>88</v>
@@ -4574,13 +4568,13 @@
         <v>60053</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>206</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4589,34 +4583,34 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
+        <v>6</v>
+      </c>
+      <c r="D25" s="7">
+        <v>4214</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="H25" s="7">
         <v>4</v>
       </c>
-      <c r="D25" s="7">
+      <c r="I25" s="7">
         <v>2534</v>
       </c>
-      <c r="E25" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="G25" s="7" t="s">
+      <c r="J25" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="H25" s="7">
-        <v>6</v>
-      </c>
-      <c r="I25" s="7">
-        <v>4214</v>
-      </c>
-      <c r="J25" s="7" t="s">
+      <c r="K25" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>212</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>213</v>
       </c>
       <c r="M25" s="7">
         <v>10</v>
@@ -4625,13 +4619,13 @@
         <v>6748</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4640,34 +4634,34 @@
         <v>15</v>
       </c>
       <c r="C26" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D26" s="7">
-        <v>1321</v>
+        <v>678</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>55</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="H26" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I26" s="7">
-        <v>678</v>
+        <v>1321</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>55</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>219</v>
+        <v>51</v>
       </c>
       <c r="M26" s="7">
         <v>3</v>
@@ -4676,13 +4670,13 @@
         <v>1999</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>103</v>
+        <v>218</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4691,25 +4685,25 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>230</v>
+      </c>
+      <c r="D27" s="7">
+        <v>162209</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="H27" s="7">
         <v>251</v>
       </c>
-      <c r="D27" s="7">
+      <c r="I27" s="7">
         <v>170651</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="H27" s="7">
-        <v>230</v>
-      </c>
-      <c r="I27" s="7">
-        <v>162209</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>62</v>
@@ -4744,34 +4738,34 @@
         <v>10</v>
       </c>
       <c r="C28" s="7">
+        <v>187</v>
+      </c>
+      <c r="D28" s="7">
+        <v>131470</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="H28" s="7">
         <v>203</v>
       </c>
-      <c r="D28" s="7">
+      <c r="I28" s="7">
         <v>139629</v>
       </c>
-      <c r="E28" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="F28" s="7" t="s">
+      <c r="J28" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="G28" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="H28" s="7">
-        <v>187</v>
-      </c>
-      <c r="I28" s="7">
-        <v>131470</v>
-      </c>
-      <c r="J28" s="7" t="s">
+      <c r="K28" s="7" t="s">
         <v>224</v>
       </c>
-      <c r="K28" s="7" t="s">
+      <c r="L28" s="7" t="s">
         <v>225</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>226</v>
       </c>
       <c r="M28" s="7">
         <v>390</v>
@@ -4780,13 +4774,13 @@
         <v>271098</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="P28" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="P28" s="7" t="s">
+      <c r="Q28" s="7" t="s">
         <v>228</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4795,34 +4789,34 @@
         <v>12</v>
       </c>
       <c r="C29" s="7">
+        <v>167</v>
+      </c>
+      <c r="D29" s="7">
+        <v>117353</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="H29" s="7">
         <v>184</v>
       </c>
-      <c r="D29" s="7">
+      <c r="I29" s="7">
         <v>128004</v>
       </c>
-      <c r="E29" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="G29" s="7" t="s">
+      <c r="J29" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="H29" s="7">
-        <v>167</v>
-      </c>
-      <c r="I29" s="7">
-        <v>117353</v>
-      </c>
-      <c r="J29" s="7" t="s">
+      <c r="K29" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="K29" s="7" t="s">
-        <v>234</v>
-      </c>
       <c r="L29" s="7" t="s">
-        <v>235</v>
+        <v>160</v>
       </c>
       <c r="M29" s="7">
         <v>351</v>
@@ -4831,13 +4825,13 @@
         <v>245356</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>237</v>
+        <v>154</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4846,34 +4840,34 @@
         <v>13</v>
       </c>
       <c r="C30" s="7">
+        <v>83</v>
+      </c>
+      <c r="D30" s="7">
+        <v>58459</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="H30" s="7">
         <v>75</v>
       </c>
-      <c r="D30" s="7">
+      <c r="I30" s="7">
         <v>50186</v>
       </c>
-      <c r="E30" s="7" t="s">
+      <c r="J30" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="K30" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="G30" s="7" t="s">
+      <c r="L30" s="7" t="s">
         <v>241</v>
-      </c>
-      <c r="H30" s="7">
-        <v>83</v>
-      </c>
-      <c r="I30" s="7">
-        <v>58459</v>
-      </c>
-      <c r="J30" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="M30" s="7">
         <v>158</v>
@@ -4882,13 +4876,13 @@
         <v>108645</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="Q30" s="7" t="s">
         <v>244</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4897,34 +4891,34 @@
         <v>14</v>
       </c>
       <c r="C31" s="7">
+        <v>6</v>
+      </c>
+      <c r="D31" s="7">
+        <v>4214</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="H31" s="7">
         <v>9</v>
       </c>
-      <c r="D31" s="7">
+      <c r="I31" s="7">
         <v>6016</v>
       </c>
-      <c r="E31" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="F31" s="7" t="s">
+      <c r="J31" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="G31" s="7" t="s">
+      <c r="K31" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="H31" s="7">
-        <v>6</v>
-      </c>
-      <c r="I31" s="7">
-        <v>4214</v>
-      </c>
-      <c r="J31" s="7" t="s">
+      <c r="L31" s="7" t="s">
         <v>250</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>251</v>
       </c>
       <c r="M31" s="7">
         <v>15</v>
@@ -4933,13 +4927,13 @@
         <v>10231</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>221</v>
+        <v>251</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>177</v>
+        <v>252</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>252</v>
+        <v>51</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -4948,10 +4942,10 @@
         <v>15</v>
       </c>
       <c r="C32" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D32" s="7">
-        <v>1321</v>
+        <v>678</v>
       </c>
       <c r="E32" s="7" t="s">
         <v>253</v>
@@ -4963,10 +4957,10 @@
         <v>254</v>
       </c>
       <c r="H32" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I32" s="7">
-        <v>678</v>
+        <v>1321</v>
       </c>
       <c r="J32" s="7" t="s">
         <v>255</v>
@@ -4990,7 +4984,7 @@
         <v>258</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>259</v>
+        <v>135</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -4999,25 +4993,25 @@
         <v>3</v>
       </c>
       <c r="C33" s="7">
+        <v>444</v>
+      </c>
+      <c r="D33" s="7">
+        <v>312174</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="H33" s="7">
         <v>473</v>
       </c>
-      <c r="D33" s="7">
+      <c r="I33" s="7">
         <v>325155</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="H33" s="7">
-        <v>444</v>
-      </c>
-      <c r="I33" s="7">
-        <v>312174</v>
       </c>
       <c r="J33" s="7" t="s">
         <v>62</v>
@@ -5046,7 +5040,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
   </sheetData>
@@ -5066,7 +5060,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CFB44BF-7D8F-41A5-A1E3-3643655CE89D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{200A8F7B-FA74-403F-BF61-832C9CE40EDB}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5083,7 +5077,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5728,31 +5722,31 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>94</v>
+      </c>
+      <c r="D16" s="7">
+        <v>64750</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="H16" s="7">
         <v>97</v>
       </c>
-      <c r="D16" s="7">
+      <c r="I16" s="7">
         <v>68336</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="G16" s="7" t="s">
+      <c r="J16" s="7" t="s">
         <v>263</v>
       </c>
-      <c r="H16" s="7">
-        <v>94</v>
-      </c>
-      <c r="I16" s="7">
-        <v>64750</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>264</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>18</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>265</v>
@@ -5779,10 +5773,10 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
-        <v>108</v>
+        <v>123</v>
       </c>
       <c r="D17" s="7">
-        <v>77147</v>
+        <v>86082</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>269</v>
@@ -5794,10 +5788,10 @@
         <v>271</v>
       </c>
       <c r="H17" s="7">
-        <v>123</v>
+        <v>108</v>
       </c>
       <c r="I17" s="7">
-        <v>86082</v>
+        <v>77147</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>272</v>
@@ -5830,10 +5824,10 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D18" s="7">
-        <v>27066</v>
+        <v>28711</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>278</v>
@@ -5845,19 +5839,19 @@
         <v>280</v>
       </c>
       <c r="H18" s="7">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="I18" s="7">
-        <v>28711</v>
+        <v>27066</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>281</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>37</v>
+        <v>282</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="M18" s="7">
         <v>77</v>
@@ -5866,13 +5860,13 @@
         <v>55777</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5881,34 +5875,34 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
+        <v>2</v>
+      </c>
+      <c r="D19" s="7">
+        <v>1344</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="H19" s="7">
         <v>5</v>
       </c>
-      <c r="D19" s="7">
+      <c r="I19" s="7">
         <v>4121</v>
       </c>
-      <c r="E19" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>287</v>
-      </c>
-      <c r="H19" s="7">
-        <v>2</v>
-      </c>
-      <c r="I19" s="7">
-        <v>1344</v>
-      </c>
       <c r="J19" s="7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>55</v>
+        <v>254</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="M19" s="7">
         <v>7</v>
@@ -5917,13 +5911,13 @@
         <v>5465</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5941,10 +5935,10 @@
         <v>55</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>216</v>
+        <v>287</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -5956,10 +5950,10 @@
         <v>55</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>288</v>
+        <v>216</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -5971,10 +5965,10 @@
         <v>55</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5983,25 +5977,25 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
+        <v>259</v>
+      </c>
+      <c r="D21" s="7">
+        <v>180887</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="H21" s="7">
         <v>247</v>
       </c>
-      <c r="D21" s="7">
+      <c r="I21" s="7">
         <v>176671</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="H21" s="7">
-        <v>259</v>
-      </c>
-      <c r="I21" s="7">
-        <v>180887</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>62</v>
@@ -6036,25 +6030,25 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
+        <v>77</v>
+      </c>
+      <c r="D22" s="7">
+        <v>53549</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="H22" s="7">
         <v>75</v>
       </c>
-      <c r="D22" s="7">
+      <c r="I22" s="7">
         <v>56864</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>293</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>294</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="H22" s="7">
-        <v>77</v>
-      </c>
-      <c r="I22" s="7">
-        <v>53549</v>
       </c>
       <c r="J22" s="7" t="s">
         <v>296</v>
@@ -6087,31 +6081,31 @@
         <v>12</v>
       </c>
       <c r="C23" s="7">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="D23" s="7">
-        <v>88343</v>
+        <v>74442</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>302</v>
       </c>
       <c r="F23" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>303</v>
       </c>
-      <c r="G23" s="7" t="s">
+      <c r="H23" s="7">
+        <v>120</v>
+      </c>
+      <c r="I23" s="7">
+        <v>88343</v>
+      </c>
+      <c r="J23" s="7" t="s">
         <v>304</v>
       </c>
-      <c r="H23" s="7">
-        <v>105</v>
-      </c>
-      <c r="I23" s="7">
-        <v>74442</v>
-      </c>
-      <c r="J23" s="7" t="s">
+      <c r="K23" s="7" t="s">
         <v>305</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>73</v>
       </c>
       <c r="L23" s="7" t="s">
         <v>306</v>
@@ -6126,10 +6120,10 @@
         <v>307</v>
       </c>
       <c r="P23" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>308</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>309</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6138,25 +6132,25 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
+        <v>45</v>
+      </c>
+      <c r="D24" s="7">
+        <v>32139</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="H24" s="7">
         <v>29</v>
       </c>
-      <c r="D24" s="7">
+      <c r="I24" s="7">
         <v>20781</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>310</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>311</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="H24" s="7">
-        <v>45</v>
-      </c>
-      <c r="I24" s="7">
-        <v>32139</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>312</v>
@@ -6189,34 +6183,34 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D25" s="7">
-        <v>4604</v>
+        <v>2610</v>
       </c>
       <c r="E25" s="7" t="s">
         <v>318</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>57</v>
+        <v>319</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="H25" s="7">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I25" s="7">
-        <v>2610</v>
+        <v>4604</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="M25" s="7">
         <v>10</v>
@@ -6225,13 +6219,13 @@
         <v>7214</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6240,34 +6234,34 @@
         <v>15</v>
       </c>
       <c r="C26" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D26" s="7">
-        <v>0</v>
+        <v>2067</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="H26" s="7">
+        <v>0</v>
+      </c>
+      <c r="I26" s="7">
+        <v>0</v>
+      </c>
+      <c r="J26" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="F26" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>326</v>
-      </c>
-      <c r="H26" s="7">
-        <v>3</v>
-      </c>
-      <c r="I26" s="7">
-        <v>2067</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>327</v>
-      </c>
       <c r="K26" s="7" t="s">
-        <v>55</v>
+        <v>100</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="M26" s="7">
         <v>3</v>
@@ -6276,13 +6270,13 @@
         <v>2067</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6291,25 +6285,25 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>234</v>
+      </c>
+      <c r="D27" s="7">
+        <v>164807</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="H27" s="7">
         <v>230</v>
       </c>
-      <c r="D27" s="7">
+      <c r="I27" s="7">
         <v>170592</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="H27" s="7">
-        <v>234</v>
-      </c>
-      <c r="I27" s="7">
-        <v>164807</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>62</v>
@@ -6344,34 +6338,34 @@
         <v>10</v>
       </c>
       <c r="C28" s="7">
+        <v>171</v>
+      </c>
+      <c r="D28" s="7">
+        <v>118298</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="H28" s="7">
         <v>172</v>
       </c>
-      <c r="D28" s="7">
+      <c r="I28" s="7">
         <v>125200</v>
       </c>
-      <c r="E28" s="7" t="s">
-        <v>332</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>334</v>
-      </c>
-      <c r="H28" s="7">
-        <v>171</v>
-      </c>
-      <c r="I28" s="7">
-        <v>118298</v>
-      </c>
       <c r="J28" s="7" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="M28" s="7">
         <v>343</v>
@@ -6380,13 +6374,13 @@
         <v>243498</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6398,31 +6392,31 @@
         <v>228</v>
       </c>
       <c r="D29" s="7">
-        <v>165490</v>
+        <v>160524</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="H29" s="7">
         <v>228</v>
       </c>
       <c r="I29" s="7">
-        <v>160524</v>
+        <v>165490</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="M29" s="7">
         <v>456</v>
@@ -6431,13 +6425,13 @@
         <v>326015</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>348</v>
+        <v>183</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6446,34 +6440,34 @@
         <v>13</v>
       </c>
       <c r="C30" s="7">
+        <v>85</v>
+      </c>
+      <c r="D30" s="7">
+        <v>60849</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="H30" s="7">
         <v>66</v>
       </c>
-      <c r="D30" s="7">
+      <c r="I30" s="7">
         <v>47848</v>
       </c>
-      <c r="E30" s="7" t="s">
-        <v>350</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>351</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>352</v>
-      </c>
-      <c r="H30" s="7">
-        <v>85</v>
-      </c>
-      <c r="I30" s="7">
-        <v>60849</v>
-      </c>
       <c r="J30" s="7" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>355</v>
+        <v>42</v>
       </c>
       <c r="M30" s="7">
         <v>151</v>
@@ -6497,28 +6491,28 @@
         <v>14</v>
       </c>
       <c r="C31" s="7">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D31" s="7">
+        <v>3955</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="H31" s="7">
+        <v>11</v>
+      </c>
+      <c r="I31" s="7">
         <v>8725</v>
       </c>
-      <c r="E31" s="7" t="s">
-        <v>359</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="G31" s="7" t="s">
+      <c r="J31" s="7" t="s">
         <v>360</v>
-      </c>
-      <c r="H31" s="7">
-        <v>6</v>
-      </c>
-      <c r="I31" s="7">
-        <v>3955</v>
-      </c>
-      <c r="J31" s="7" t="s">
-        <v>180</v>
       </c>
       <c r="K31" s="7" t="s">
         <v>361</v>
@@ -6536,10 +6530,10 @@
         <v>363</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>256</v>
+        <v>364</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -6548,34 +6542,34 @@
         <v>15</v>
       </c>
       <c r="C32" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D32" s="7">
-        <v>0</v>
+        <v>2067</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="H32" s="7">
+        <v>0</v>
+      </c>
+      <c r="I32" s="7">
+        <v>0</v>
+      </c>
+      <c r="J32" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="F32" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>361</v>
-      </c>
-      <c r="H32" s="7">
-        <v>3</v>
-      </c>
-      <c r="I32" s="7">
-        <v>2067</v>
-      </c>
-      <c r="J32" s="7" t="s">
-        <v>220</v>
-      </c>
       <c r="K32" s="7" t="s">
-        <v>330</v>
+        <v>100</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="M32" s="7">
         <v>3</v>
@@ -6584,10 +6578,10 @@
         <v>2067</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="Q32" s="7" t="s">
         <v>97</v>
@@ -6599,25 +6593,25 @@
         <v>3</v>
       </c>
       <c r="C33" s="7">
+        <v>493</v>
+      </c>
+      <c r="D33" s="7">
+        <v>345694</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="H33" s="7">
         <v>477</v>
       </c>
-      <c r="D33" s="7">
+      <c r="I33" s="7">
         <v>347262</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="H33" s="7">
-        <v>493</v>
-      </c>
-      <c r="I33" s="7">
-        <v>345694</v>
       </c>
       <c r="J33" s="7" t="s">
         <v>62</v>
@@ -6646,7 +6640,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
   </sheetData>
@@ -6666,7 +6660,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{565EBCFC-D9C0-49DE-9427-2C49F6E989C2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53FF6841-47A4-40D0-B6E3-6034E4237ABE}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6683,7 +6677,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7328,49 +7322,49 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>41</v>
+      </c>
+      <c r="D16" s="7">
+        <v>27858</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="H16" s="7">
         <v>58</v>
       </c>
-      <c r="D16" s="7">
-        <v>46759</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>369</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>370</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>371</v>
-      </c>
-      <c r="H16" s="7">
-        <v>41</v>
-      </c>
       <c r="I16" s="7">
-        <v>28880</v>
+        <v>47631</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>373</v>
+        <v>193</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="M16" s="7">
         <v>99</v>
       </c>
       <c r="N16" s="7">
-        <v>75639</v>
+        <v>75489</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7379,49 +7373,49 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
+        <v>43</v>
+      </c>
+      <c r="D17" s="7">
+        <v>31940</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="H17" s="7">
         <v>48</v>
       </c>
-      <c r="D17" s="7">
-        <v>40828</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>379</v>
-      </c>
-      <c r="H17" s="7">
-        <v>43</v>
-      </c>
       <c r="I17" s="7">
-        <v>34340</v>
+        <v>40035</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="M17" s="7">
         <v>91</v>
       </c>
       <c r="N17" s="7">
-        <v>75168</v>
+        <v>71975</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7430,49 +7424,49 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
+        <v>11</v>
+      </c>
+      <c r="D18" s="7">
+        <v>8127</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="H18" s="7">
         <v>12</v>
       </c>
-      <c r="D18" s="7">
-        <v>10563</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>386</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>388</v>
-      </c>
-      <c r="H18" s="7">
-        <v>11</v>
-      </c>
       <c r="I18" s="7">
-        <v>8446</v>
+        <v>10531</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="M18" s="7">
         <v>23</v>
       </c>
       <c r="N18" s="7">
-        <v>19009</v>
+        <v>18658</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>171</v>
+        <v>394</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7490,10 +7484,10 @@
         <v>55</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -7505,10 +7499,10 @@
         <v>55</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="M19" s="7">
         <v>0</v>
@@ -7520,10 +7514,10 @@
         <v>55</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>179</v>
+        <v>97</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7532,49 +7526,49 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D20" s="7">
-        <v>1198</v>
+        <v>0</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>396</v>
+        <v>55</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>55</v>
+        <v>100</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>397</v>
       </c>
       <c r="H20" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20" s="7">
-        <v>0</v>
+        <v>1168</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="K20" s="7" t="s">
-        <v>99</v>
-      </c>
       <c r="L20" s="7" t="s">
-        <v>395</v>
+        <v>400</v>
       </c>
       <c r="M20" s="7">
         <v>1</v>
       </c>
       <c r="N20" s="7">
-        <v>1198</v>
+        <v>1168</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>398</v>
+        <v>94</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>55</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7583,25 +7577,25 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
+        <v>95</v>
+      </c>
+      <c r="D21" s="7">
+        <v>67925</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="H21" s="7">
         <v>119</v>
       </c>
-      <c r="D21" s="7">
-        <v>99348</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="H21" s="7">
-        <v>95</v>
-      </c>
       <c r="I21" s="7">
-        <v>71665</v>
+        <v>99365</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>62</v>
@@ -7616,7 +7610,7 @@
         <v>214</v>
       </c>
       <c r="N21" s="7">
-        <v>171014</v>
+        <v>167290</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>62</v>
@@ -7636,49 +7630,49 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
+        <v>70</v>
+      </c>
+      <c r="D22" s="7">
+        <v>45694</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="H22" s="7">
         <v>84</v>
       </c>
-      <c r="D22" s="7">
-        <v>77521</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>400</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>401</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>402</v>
-      </c>
-      <c r="H22" s="7">
-        <v>70</v>
-      </c>
       <c r="I22" s="7">
-        <v>47814</v>
+        <v>83317</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>20</v>
+        <v>405</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="M22" s="7">
         <v>154</v>
       </c>
       <c r="N22" s="7">
-        <v>125335</v>
+        <v>129011</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>405</v>
+        <v>151</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7687,49 +7681,49 @@
         <v>12</v>
       </c>
       <c r="C23" s="7">
+        <v>80</v>
+      </c>
+      <c r="D23" s="7">
+        <v>80393</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="H23" s="7">
         <v>73</v>
       </c>
-      <c r="D23" s="7">
-        <v>63658</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>408</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>409</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>410</v>
-      </c>
-      <c r="H23" s="7">
-        <v>80</v>
-      </c>
       <c r="I23" s="7">
-        <v>64832</v>
+        <v>62055</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="M23" s="7">
         <v>153</v>
       </c>
       <c r="N23" s="7">
-        <v>128490</v>
+        <v>142448</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>414</v>
+        <v>302</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7738,49 +7732,49 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
+        <v>21</v>
+      </c>
+      <c r="D24" s="7">
+        <v>14006</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="H24" s="7">
         <v>26</v>
       </c>
-      <c r="D24" s="7">
-        <v>22404</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>417</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>418</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>419</v>
-      </c>
-      <c r="H24" s="7">
-        <v>21</v>
-      </c>
       <c r="I24" s="7">
-        <v>15738</v>
+        <v>23063</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="M24" s="7">
         <v>47</v>
       </c>
       <c r="N24" s="7">
-        <v>38142</v>
+        <v>37069</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7792,13 +7786,13 @@
         <v>4</v>
       </c>
       <c r="D25" s="7">
-        <v>3174</v>
+        <v>2454</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>426</v>
+        <v>134</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>54</v>
+        <v>214</v>
       </c>
       <c r="G25" s="7" t="s">
         <v>427</v>
@@ -7807,31 +7801,31 @@
         <v>4</v>
       </c>
       <c r="I25" s="7">
-        <v>2496</v>
+        <v>3221</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>102</v>
+        <v>428</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="M25" s="7">
         <v>8</v>
       </c>
       <c r="N25" s="7">
-        <v>5671</v>
+        <v>5675</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>432</v>
+        <v>212</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7840,49 +7834,49 @@
         <v>15</v>
       </c>
       <c r="C26" s="7">
+        <v>0</v>
+      </c>
+      <c r="D26" s="7">
+        <v>0</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="H26" s="7">
         <v>1</v>
       </c>
-      <c r="D26" s="7">
-        <v>1075</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>433</v>
-      </c>
-      <c r="F26" s="7" t="s">
+      <c r="I26" s="7">
+        <v>1127</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="G26" s="7" t="s">
-        <v>434</v>
-      </c>
-      <c r="H26" s="7">
-        <v>0</v>
-      </c>
-      <c r="I26" s="7">
-        <v>0</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>99</v>
-      </c>
       <c r="L26" s="7" t="s">
-        <v>256</v>
+        <v>435</v>
       </c>
       <c r="M26" s="7">
         <v>1</v>
       </c>
       <c r="N26" s="7">
-        <v>1075</v>
+        <v>1127</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>435</v>
+        <v>211</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>55</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>90</v>
+        <v>436</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7891,25 +7885,25 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>175</v>
+      </c>
+      <c r="D27" s="7">
+        <v>142547</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="H27" s="7">
         <v>188</v>
       </c>
-      <c r="D27" s="7">
-        <v>167832</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="H27" s="7">
-        <v>175</v>
-      </c>
       <c r="I27" s="7">
-        <v>130880</v>
+        <v>172783</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>62</v>
@@ -7924,7 +7918,7 @@
         <v>363</v>
       </c>
       <c r="N27" s="7">
-        <v>298712</v>
+        <v>315329</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>62</v>
@@ -7944,25 +7938,25 @@
         <v>10</v>
       </c>
       <c r="C28" s="7">
+        <v>111</v>
+      </c>
+      <c r="D28" s="7">
+        <v>73552</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>438</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="H28" s="7">
         <v>142</v>
       </c>
-      <c r="D28" s="7">
-        <v>124281</v>
-      </c>
-      <c r="E28" s="7" t="s">
-        <v>436</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>437</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>438</v>
-      </c>
-      <c r="H28" s="7">
-        <v>111</v>
-      </c>
       <c r="I28" s="7">
-        <v>76694</v>
+        <v>130948</v>
       </c>
       <c r="J28" s="7" t="s">
         <v>439</v>
@@ -7971,22 +7965,22 @@
         <v>440</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>28</v>
+        <v>441</v>
       </c>
       <c r="M28" s="7">
         <v>253</v>
       </c>
       <c r="N28" s="7">
-        <v>200975</v>
+        <v>204500</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -7995,49 +7989,49 @@
         <v>12</v>
       </c>
       <c r="C29" s="7">
+        <v>123</v>
+      </c>
+      <c r="D29" s="7">
+        <v>112333</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>445</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>446</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>447</v>
+      </c>
+      <c r="H29" s="7">
         <v>121</v>
       </c>
-      <c r="D29" s="7">
-        <v>104486</v>
-      </c>
-      <c r="E29" s="7" t="s">
-        <v>444</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>445</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>446</v>
-      </c>
-      <c r="H29" s="7">
-        <v>123</v>
-      </c>
       <c r="I29" s="7">
-        <v>99172</v>
+        <v>102090</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="M29" s="7">
         <v>244</v>
       </c>
       <c r="N29" s="7">
-        <v>203658</v>
+        <v>214422</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>337</v>
+        <v>452</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8046,49 +8040,49 @@
         <v>13</v>
       </c>
       <c r="C30" s="7">
+        <v>32</v>
+      </c>
+      <c r="D30" s="7">
+        <v>22133</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>454</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>455</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>456</v>
+      </c>
+      <c r="H30" s="7">
         <v>38</v>
       </c>
-      <c r="D30" s="7">
-        <v>32967</v>
-      </c>
-      <c r="E30" s="7" t="s">
-        <v>452</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>453</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>454</v>
-      </c>
-      <c r="H30" s="7">
-        <v>32</v>
-      </c>
       <c r="I30" s="7">
-        <v>24183</v>
+        <v>33594</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="M30" s="7">
         <v>70</v>
       </c>
       <c r="N30" s="7">
-        <v>57150</v>
+        <v>55727</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -8100,46 +8094,46 @@
         <v>4</v>
       </c>
       <c r="D31" s="7">
-        <v>3174</v>
+        <v>2454</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>461</v>
+        <v>132</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>462</v>
+        <v>368</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>292</v>
+        <v>463</v>
       </c>
       <c r="H31" s="7">
         <v>4</v>
       </c>
       <c r="I31" s="7">
-        <v>2496</v>
+        <v>3221</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>136</v>
+        <v>399</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="M31" s="7">
         <v>8</v>
       </c>
       <c r="N31" s="7">
-        <v>5671</v>
+        <v>5675</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -8148,31 +8142,31 @@
         <v>15</v>
       </c>
       <c r="C32" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D32" s="7">
-        <v>2272</v>
+        <v>0</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>467</v>
+        <v>55</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>55</v>
+        <v>100</v>
       </c>
       <c r="G32" s="7" t="s">
         <v>468</v>
       </c>
       <c r="H32" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" s="7">
-        <v>0</v>
+        <v>2295</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="K32" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>99</v>
       </c>
       <c r="L32" s="7" t="s">
         <v>469</v>
@@ -8181,16 +8175,16 @@
         <v>2</v>
       </c>
       <c r="N32" s="7">
-        <v>2272</v>
+        <v>2295</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>470</v>
+        <v>429</v>
       </c>
       <c r="P32" s="7" t="s">
         <v>55</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>471</v>
+        <v>333</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -8199,25 +8193,25 @@
         <v>3</v>
       </c>
       <c r="C33" s="7">
+        <v>270</v>
+      </c>
+      <c r="D33" s="7">
+        <v>210472</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="H33" s="7">
         <v>307</v>
       </c>
-      <c r="D33" s="7">
-        <v>267180</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="H33" s="7">
-        <v>270</v>
-      </c>
       <c r="I33" s="7">
-        <v>202546</v>
+        <v>272147</v>
       </c>
       <c r="J33" s="7" t="s">
         <v>62</v>
@@ -8232,7 +8226,7 @@
         <v>577</v>
       </c>
       <c r="N33" s="7">
-        <v>469726</v>
+        <v>482619</v>
       </c>
       <c r="O33" s="7" t="s">
         <v>62</v>
@@ -8246,7 +8240,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
   </sheetData>
